--- a/Översikt HJO.xlsx
+++ b/Översikt HJO.xlsx
@@ -575,7 +575,7 @@
         <v>44272</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44593</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>45468</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>45719.46746527778</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44799.45684027778</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44729</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44525.73625</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>44616.29740740741</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>44692</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>44866.6278587963</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>44623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>44354.60260416667</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44846</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>44515</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         <v>44474</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>44852.25016203704</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>44797.86921296296</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>44748.35234953704</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>44488.62511574074</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>44781</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>44508</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>44608</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>44784.3796875</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>44456</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>44641</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>44386</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>44854.45597222223</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>44456</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>44354.6397337963</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>44606.37339120371</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>44438.72671296296</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>44781.43912037037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>44714</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2571,14 +2571,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 36407-2025</t>
+          <t>A 56175-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45868.67938657408</v>
+        <v>44477</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2628,14 +2628,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 56175-2021</t>
+          <t>A 12544-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44477</v>
+        <v>44638.65868055556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2685,14 +2685,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 36409-2025</t>
+          <t>A 9184-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45868.68178240741</v>
+        <v>44615</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2742,14 +2742,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 12544-2022</t>
+          <t>A 42295-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44638.65868055556</v>
+        <v>44427.35878472222</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2799,14 +2799,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 9184-2022</t>
+          <t>A 9210-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44615</v>
+        <v>44616.2996875</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2856,14 +2856,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 42295-2021</t>
+          <t>A 62233-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44427.35878472222</v>
+        <v>44922</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2913,14 +2913,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 36961-2025</t>
+          <t>A 59986-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45874.62365740741</v>
+        <v>45257.81895833334</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.9</v>
+        <v>7.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2970,14 +2970,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 9210-2022</t>
+          <t>A 22050-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44616.2996875</v>
+        <v>45069</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2989,8 +2989,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3027,14 +3032,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 44684-2023</t>
+          <t>A 60413-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45186</v>
+        <v>45643.51706018519</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3047,7 +3052,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3084,14 +3089,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 38052-2025</t>
+          <t>A 30970-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45882</v>
+        <v>45113.48916666667</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3104,7 +3109,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>4.2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3141,14 +3146,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 37803-2025</t>
+          <t>A 46339-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45881</v>
+        <v>45582.30826388889</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3161,7 +3166,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3.3</v>
+        <v>1.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3198,14 +3203,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 38054-2025</t>
+          <t>A 46762-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45882</v>
+        <v>45198</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3218,7 +3223,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3255,14 +3260,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 16352-2023</t>
+          <t>A 46790-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45028.69456018518</v>
+        <v>45198.69354166667</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3275,7 +3280,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3312,14 +3317,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 39537-2023</t>
+          <t>A 44310-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45167</v>
+        <v>45573.57309027778</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3332,7 +3337,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3369,14 +3374,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 39540-2023</t>
+          <t>A 39537-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
         <v>45167</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3389,7 +3394,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3426,14 +3431,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 724-2024</t>
+          <t>A 39540-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45300</v>
+        <v>45167</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3446,7 +3451,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3483,14 +3488,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 37789-2022</t>
+          <t>A 724-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44810</v>
+        <v>45300</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3503,7 +3508,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3540,14 +3545,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 32518-2022</t>
+          <t>A 1108-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44782.91590277778</v>
+        <v>44935.59246527778</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3560,7 +3565,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3597,14 +3602,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 50152-2023</t>
+          <t>A 44684-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45215</v>
+        <v>45186</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3617,7 +3622,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>4.8</v>
+        <v>0.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3654,14 +3659,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 49025-2023</t>
+          <t>A 9473-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45209.82892361111</v>
+        <v>44981</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3674,7 +3679,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>5.4</v>
+        <v>2.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3711,14 +3716,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 10670-2024</t>
+          <t>A 25053-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45369.34828703704</v>
+        <v>45799.67575231481</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3731,7 +3736,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3768,14 +3773,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 17806-2021</t>
+          <t>A 24723-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44300.64185185185</v>
+        <v>45799.31555555556</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3788,7 +3793,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>5.7</v>
+        <v>1.2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3825,14 +3830,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 63802-2025</t>
+          <t>A 34859-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>46019.86751157408</v>
+        <v>45142.30226851852</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3845,7 +3850,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3882,14 +3887,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 40859-2025</t>
+          <t>A 2866-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45897.56069444444</v>
+        <v>44945</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3902,7 +3907,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3939,14 +3944,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 26248-2024</t>
+          <t>A 26238-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45468.64033564815</v>
+        <v>45805.56920138889</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3959,7 +3964,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.1</v>
+        <v>4.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3996,14 +4001,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 42292-2025</t>
+          <t>A 32518-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45904.62887731481</v>
+        <v>44782.91590277778</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4016,7 +4021,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4053,14 +4058,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 59986-2023</t>
+          <t>A 16395-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45257.81895833334</v>
+        <v>44293</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4073,7 +4078,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>7.7</v>
+        <v>1.9</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4110,14 +4115,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 47047-2021</t>
+          <t>A 26229-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44446.62215277777</v>
+        <v>45805.56230324074</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4130,7 +4135,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4167,14 +4172,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 62251-2023</t>
+          <t>A 4243-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45267.61526620371</v>
+        <v>45685.58085648148</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4186,13 +4191,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4229,14 +4229,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 47300-2022</t>
+          <t>A 50152-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44853</v>
+        <v>45215</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.4</v>
+        <v>4.8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4286,14 +4286,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 43370-2025</t>
+          <t>A 60318-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45911.34883101852</v>
+        <v>45643.36900462963</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.9</v>
+        <v>3.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4343,14 +4343,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 61700-2023</t>
+          <t>A 40859-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45265.65236111111</v>
+        <v>45897.56069444444</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4362,13 +4362,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4405,14 +4400,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 60071-2025</t>
+          <t>A 25316-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45993.67202546296</v>
+        <v>44342</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4425,7 +4420,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4462,14 +4457,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 2070-2023</t>
+          <t>A 53846-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44939</v>
+        <v>45615.6309837963</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4482,7 +4477,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>11.6</v>
+        <v>0.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4519,14 +4514,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 2866-2023</t>
+          <t>A 28211-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44945</v>
+        <v>45818.45789351852</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4539,7 +4534,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4576,14 +4571,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 45742-2025</t>
+          <t>A 29064-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45923.46953703704</v>
+        <v>45821</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4596,7 +4591,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4633,14 +4628,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 45736-2025</t>
+          <t>A 29019-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45923.46587962963</v>
+        <v>45821.42359953704</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4653,7 +4648,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4690,14 +4685,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 62171-2023</t>
+          <t>A 20469-2021</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45267.42585648148</v>
+        <v>44315</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4711,11 +4706,11 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4752,14 +4747,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 57647-2022</t>
+          <t>A 42292-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44897</v>
+        <v>45904.62887731481</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4772,7 +4767,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>8.699999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4809,14 +4804,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 3569-2026</t>
+          <t>A 12554-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>46042.67932870371</v>
+        <v>45000.35256944445</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4829,7 +4824,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4866,14 +4861,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 62233-2022</t>
+          <t>A 20651-2021</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44922</v>
+        <v>44316.41503472222</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4885,8 +4880,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4923,14 +4923,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 4783-2023</t>
+          <t>A 59988-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44957.59467592592</v>
+        <v>45642.39239583333</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4980,14 +4980,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 2060-2023</t>
+          <t>A 43370-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44939</v>
+        <v>45911.34883101852</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5000,7 +5000,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5037,14 +5037,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 48359-2025</t>
+          <t>A 10670-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45933.66196759259</v>
+        <v>45369.34828703704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5094,14 +5094,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 1108-2023</t>
+          <t>A 63239-2021</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44935.59246527778</v>
+        <v>44508.36662037037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5151,14 +5151,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 13694-2024</t>
+          <t>A 29960-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45390</v>
+        <v>45826.4806712963</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5208,14 +5208,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 38186-2023</t>
+          <t>A 14196-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45161</v>
+        <v>45009</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>4.9</v>
+        <v>3.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5265,14 +5265,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 49278-2025</t>
+          <t>A 45736-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45938.50790509259</v>
+        <v>45923.46587962963</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5285,7 +5285,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>4.8</v>
+        <v>1.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5322,14 +5322,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 46520-2023</t>
+          <t>A 59452-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45197</v>
+        <v>45254.37158564815</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5379,14 +5379,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 9177-2022</t>
+          <t>A 45742-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44615</v>
+        <v>45923.46953703704</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5436,14 +5436,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 50093-2025</t>
+          <t>A 14460-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45943.49165509259</v>
+        <v>45010</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4.3</v>
+        <v>5.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5493,14 +5493,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 50091-2025</t>
+          <t>A 12275-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45943.48703703703</v>
+        <v>45729</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>4.1</v>
+        <v>7.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5550,14 +5550,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 46762-2023</t>
+          <t>A 55003-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45198</v>
+        <v>45621.32651620371</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5607,14 +5607,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 50932-2025</t>
+          <t>A 9773-2021</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45946.68842592592</v>
+        <v>44252</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5664,14 +5664,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 51362-2025</t>
+          <t>A 48359-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45950.44516203704</v>
+        <v>45933.66196759259</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5721,14 +5721,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 9773-2021</t>
+          <t>A 49564-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44252</v>
+        <v>45596.48508101852</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5778,14 +5778,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 22050-2023</t>
+          <t>A 49278-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45069</v>
+        <v>45938.50790509259</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5797,13 +5797,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>2.6</v>
+        <v>4.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5840,14 +5835,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 52825-2025</t>
+          <t>A 50093-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45957.46645833334</v>
+        <v>45943.49165509259</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5860,7 +5855,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.6</v>
+        <v>4.3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5897,14 +5892,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 52831-2025</t>
+          <t>A 50091-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45957.46996527778</v>
+        <v>45943.48703703703</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5917,7 +5912,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.5</v>
+        <v>4.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5954,14 +5949,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 6369-2025</t>
+          <t>A 13703-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45699.38993055555</v>
+        <v>45390</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5974,7 +5969,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6011,14 +6006,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 6686-2026</t>
+          <t>A 50932-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>46056.62666666666</v>
+        <v>45946.68842592592</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6031,7 +6026,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6068,14 +6063,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 53689-2025</t>
+          <t>A 35316-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45960.58104166666</v>
+        <v>45854.47652777778</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6087,8 +6082,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>10.9</v>
+        <v>2.2</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6125,14 +6125,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 6705-2026</t>
+          <t>A 35319-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>46056</v>
+        <v>45854.48293981481</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6144,8 +6144,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>6.3</v>
+        <v>3.3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6182,14 +6187,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 44310-2024</t>
+          <t>A 51362-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45573.57309027778</v>
+        <v>45950.44516203704</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6202,7 +6207,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6239,14 +6244,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 12554-2023</t>
+          <t>A 13177-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45000.35256944445</v>
+        <v>45735.37274305556</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6259,7 +6264,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6296,14 +6301,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 60318-2024</t>
+          <t>A 138-2022</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45643.36900462963</v>
+        <v>44560</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6316,7 +6321,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3.7</v>
+        <v>0.3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6353,14 +6358,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 9473-2023</t>
+          <t>A 35768-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44981</v>
+        <v>45860</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6373,7 +6378,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.1</v>
+        <v>5.7</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6410,14 +6415,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 30636-2023</t>
+          <t>A 1635-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45112.46046296296</v>
+        <v>45670</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6429,13 +6434,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G102" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6472,14 +6472,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 39542-2023</t>
+          <t>A 36407-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45167</v>
+        <v>45868.67938657408</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.6</v>
+        <v>2.8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6529,14 +6529,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 21369-2021</t>
+          <t>A 36409-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44321.3083449074</v>
+        <v>45868.68178240741</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6549,7 +6549,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>10.7</v>
+        <v>0.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6586,14 +6586,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 50711-2024</t>
+          <t>A 5773-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45602.38179398148</v>
+        <v>44963.37827546296</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6643,14 +6643,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 53839-2024</t>
+          <t>A 55119-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45615.62634259259</v>
+        <v>45237.47695601852</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6700,14 +6700,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 34859-2023</t>
+          <t>A 52825-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45142.30226851852</v>
+        <v>45957.46645833334</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6720,7 +6720,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6757,14 +6757,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 49564-2024</t>
+          <t>A 52831-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45596.48508101852</v>
+        <v>45957.46996527778</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6814,14 +6814,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 20651-2021</t>
+          <t>A 58597-2022</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44316.41503472222</v>
+        <v>44894</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6833,13 +6833,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>5.1</v>
+        <v>0.8</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6876,14 +6871,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 40629-2024</t>
+          <t>A 36961-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45557.69868055556</v>
+        <v>45874.62365740741</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6896,7 +6891,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>11.5</v>
+        <v>0.9</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -6933,14 +6928,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 7722-2024</t>
+          <t>A 53689-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45349</v>
+        <v>45960.58104166666</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6953,7 +6948,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.6</v>
+        <v>10.9</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -6990,14 +6985,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 25316-2021</t>
+          <t>A 37803-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44342</v>
+        <v>45881</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7010,7 +7005,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.9</v>
+        <v>3.3</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7047,14 +7042,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 46787-2023</t>
+          <t>A 38052-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45198.6809375</v>
+        <v>45882</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7067,7 +7062,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>8.800000000000001</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7104,14 +7099,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 29596-2024</t>
+          <t>A 38054-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45484</v>
+        <v>45882</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7124,7 +7119,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7161,14 +7156,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 54902-2023</t>
+          <t>A 63802-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45229</v>
+        <v>46019.86751157408</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7181,7 +7176,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7218,14 +7213,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 1094-2025</t>
+          <t>A 29798-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45665</v>
+        <v>45485.48961805556</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7238,7 +7233,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.8</v>
+        <v>5.2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7275,14 +7270,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 59988-2024</t>
+          <t>A 30636-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45642.39239583333</v>
+        <v>45112.46046296296</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7294,8 +7289,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7332,14 +7332,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 53846-2024</t>
+          <t>A 35486-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45615.6309837963</v>
+        <v>45146</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7352,7 +7352,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7389,14 +7389,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 46790-2023</t>
+          <t>A 9297-2022</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45198.69354166667</v>
+        <v>44616.47766203704</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7446,14 +7446,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 13703-2024</t>
+          <t>A 60071-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45390</v>
+        <v>45993.67202546296</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7466,7 +7466,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7503,14 +7503,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 60413-2024</t>
+          <t>A 8814-2022</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45643.51706018519</v>
+        <v>44614</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7522,8 +7522,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>2.9</v>
+        <v>4.6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7560,14 +7565,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 55119-2023</t>
+          <t>A 9338-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45237.47695601852</v>
+        <v>44980</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7580,7 +7585,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7617,14 +7622,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 58597-2022</t>
+          <t>A 57647-2022</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44894</v>
+        <v>44897</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7637,7 +7642,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7674,14 +7679,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 20024-2022</t>
+          <t>A 40629-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44697.66332175926</v>
+        <v>45557.69868055556</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7694,7 +7699,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.4</v>
+        <v>11.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7731,14 +7736,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 5773-2023</t>
+          <t>A 61700-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44963.37827546296</v>
+        <v>45265.65236111111</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7750,8 +7755,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G125" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7788,14 +7798,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 30411-2021</t>
+          <t>A 3569-2026</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44364.53988425926</v>
+        <v>46042.67932870371</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7808,7 +7818,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7845,14 +7855,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 809-2022</t>
+          <t>A 53839-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44571</v>
+        <v>45615.62634259259</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7865,7 +7875,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>4.3</v>
+        <v>0.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7902,14 +7912,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 27989-2022</t>
+          <t>A 46787-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44745</v>
+        <v>45198.6809375</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7922,7 +7932,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -7959,14 +7969,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 63239-2021</t>
+          <t>A 54902-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44508.36662037037</v>
+        <v>45229</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7979,7 +7989,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8016,14 +8026,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 4272-2023</t>
+          <t>A 6705-2026</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44951</v>
+        <v>46056</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8036,7 +8046,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.8</v>
+        <v>6.3</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8073,14 +8083,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 5770-2023</t>
+          <t>A 6686-2026</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44963.37232638889</v>
+        <v>46056.62666666666</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8093,7 +8103,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8130,14 +8140,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 14460-2023</t>
+          <t>A 4783-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45010</v>
+        <v>44957.59467592592</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8150,7 +8160,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>5.4</v>
+        <v>0.5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8187,14 +8197,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 9297-2022</t>
+          <t>A 7722-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44616.47766203704</v>
+        <v>45349</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8207,7 +8217,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8244,14 +8254,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 70743-2021</t>
+          <t>A 17806-2021</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44537.63103009259</v>
+        <v>44300.64185185185</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8264,7 +8274,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.7</v>
+        <v>5.7</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8301,14 +8311,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 55003-2024</t>
+          <t>A 5770-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45621.32651620371</v>
+        <v>44963.37232638889</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8321,7 +8331,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8358,14 +8368,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 8814-2022</t>
+          <t>A 6369-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44614</v>
+        <v>45699.38993055555</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8377,13 +8387,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G136" t="n">
-        <v>4.6</v>
+        <v>2.3</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8420,14 +8425,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 14196-2023</t>
+          <t>A 26248-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45009</v>
+        <v>45468.64033564815</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8440,7 +8445,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8477,14 +8482,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 20469-2021</t>
+          <t>A 47300-2022</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44315</v>
+        <v>44853</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8496,13 +8501,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G138" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8539,14 +8539,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 39538-2023</t>
+          <t>A 47047-2021</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45167</v>
+        <v>44446.62215277777</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8559,7 +8559,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>5.3</v>
+        <v>2.8</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8596,14 +8596,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 35486-2023</t>
+          <t>A 62251-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45146</v>
+        <v>45267.61526620371</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8613,6 +8613,11 @@
       <c r="E140" t="inlineStr">
         <is>
           <t>HJO</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G140" t="n">
@@ -8660,7 +8665,7 @@
         <v>44606.63405092592</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8710,14 +8715,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 26230-2023</t>
+          <t>A 1094-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45091</v>
+        <v>45665</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8729,13 +8734,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G142" t="n">
-        <v>9.4</v>
+        <v>0.8</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8772,14 +8772,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 46339-2024</t>
+          <t>A 27989-2022</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45582.30826388889</v>
+        <v>44745</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8829,14 +8829,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 16395-2021</t>
+          <t>A 6497-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44293</v>
+        <v>45699.63719907407</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8886,14 +8886,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 30970-2023</t>
+          <t>A 26230-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45113.48916666667</v>
+        <v>45091</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8905,8 +8905,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G145" t="n">
-        <v>4.2</v>
+        <v>9.4</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8943,14 +8948,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 9338-2023</t>
+          <t>A 2060-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44980</v>
+        <v>44939</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8963,7 +8968,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9000,14 +9005,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 6497-2025</t>
+          <t>A 2070-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45699.63719907407</v>
+        <v>44939</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9020,7 +9025,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.6</v>
+        <v>11.6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9057,14 +9062,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 138-2022</t>
+          <t>A 9177-2022</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44560</v>
+        <v>44615</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9077,7 +9082,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9114,14 +9119,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 29798-2024</t>
+          <t>A 30411-2021</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45485.48961805556</v>
+        <v>44364.53988425926</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9134,7 +9139,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>5.2</v>
+        <v>1.7</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9171,14 +9176,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 12275-2025</t>
+          <t>A 21369-2021</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45729</v>
+        <v>44321.3083449074</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9191,7 +9196,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>7.5</v>
+        <v>10.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9228,14 +9233,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 61925-2023</t>
+          <t>A 20024-2022</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45266.51587962963</v>
+        <v>44697.66332175926</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9248,7 +9253,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9285,14 +9290,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 39907-2024</t>
+          <t>A 38186-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45553.51288194444</v>
+        <v>45161</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9305,7 +9310,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>6.5</v>
+        <v>4.9</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9342,14 +9347,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 26792-2024</t>
+          <t>A 50711-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45470</v>
+        <v>45602.38179398148</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9361,13 +9366,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G153" t="n">
-        <v>7.1</v>
+        <v>1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9404,14 +9404,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 36738-2024</t>
+          <t>A 70743-2021</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45538.29486111111</v>
+        <v>44537.63103009259</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9461,14 +9461,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 19810-2025</t>
+          <t>A 39542-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45771</v>
+        <v>45167</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9518,14 +9518,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 8145-2024</t>
+          <t>A 16352-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45351</v>
+        <v>45028.69456018518</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>7.3</v>
+        <v>3.1</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9575,14 +9575,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 60414-2024</t>
+          <t>A 39538-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45643.51864583333</v>
+        <v>45167</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>3.1</v>
+        <v>5.3</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9632,14 +9632,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 24388-2025</t>
+          <t>A 61925-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45797.63533564815</v>
+        <v>45266.51587962963</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9689,14 +9689,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 25053-2025</t>
+          <t>A 49025-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45799.67575231481</v>
+        <v>45209.82892361111</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.7</v>
+        <v>5.4</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9746,14 +9746,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 24723-2025</t>
+          <t>A 13694-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45799.31555555556</v>
+        <v>45390</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9803,14 +9803,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 26229-2025</t>
+          <t>A 46520-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45805.56230324074</v>
+        <v>45197</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -9860,14 +9860,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 26238-2025</t>
+          <t>A 29596-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45805.56920138889</v>
+        <v>45484</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>4.6</v>
+        <v>0.8</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -9917,14 +9917,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 4243-2025</t>
+          <t>A 4272-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45685.58085648148</v>
+        <v>44951</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -9974,14 +9974,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 28211-2025</t>
+          <t>A 809-2022</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45818.45789351852</v>
+        <v>44571</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10031,14 +10031,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 29064-2025</t>
+          <t>A 37789-2022</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45821</v>
+        <v>44810</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10088,14 +10088,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 29019-2025</t>
+          <t>A 62171-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45821.42359953704</v>
+        <v>45267.42585648148</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10107,8 +10107,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G166" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10145,14 +10150,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 29960-2025</t>
+          <t>A 39907-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45826.4806712963</v>
+        <v>45553.51288194444</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10165,7 +10170,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2.6</v>
+        <v>6.5</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10202,14 +10207,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 59452-2023</t>
+          <t>A 19810-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45254.37158564815</v>
+        <v>45771</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10222,7 +10227,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10259,14 +10264,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 35316-2025</t>
+          <t>A 26792-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45854.47652777778</v>
+        <v>45470</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10280,11 +10285,11 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2.2</v>
+        <v>7.1</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10321,14 +10326,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 35319-2025</t>
+          <t>A 36738-2024</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45854.48293981481</v>
+        <v>45538.29486111111</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10340,13 +10345,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G170" t="n">
-        <v>3.3</v>
+        <v>0.9</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10383,14 +10383,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 13177-2025</t>
+          <t>A 8145-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45735.37274305556</v>
+        <v>45351</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2.4</v>
+        <v>7.3</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10440,14 +10440,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 35768-2025</t>
+          <t>A 24388-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45860</v>
+        <v>45797.63533564815</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>5.7</v>
+        <v>1.6</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10497,14 +10497,14 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 1635-2025</t>
+          <t>A 60414-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45670</v>
+        <v>45643.51864583333</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>

--- a/Översikt HJO.xlsx
+++ b/Översikt HJO.xlsx
@@ -575,7 +575,7 @@
         <v>44272</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44593</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>45468</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>45719.46746527778</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44799.45684027778</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44729</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44525.73625</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>44616.29740740741</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>44692</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>44866.6278587963</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>44623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>44354.60260416667</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44846</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>44515</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         <v>44474</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>44852.25016203704</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>44797.86921296296</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>44748.35234953704</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>44488.62511574074</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>44781</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>44508</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>44608</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>44784.3796875</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>44456</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>44641</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>44386</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>44854.45597222223</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>44456</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>44354.6397337963</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>44606.37339120371</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>44438.72671296296</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>44781.43912037037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>44714</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>44477</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>44638.65868055556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>44615</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>44427.35878472222</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>44616.2996875</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>44922</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>45257.81895833334</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>45069</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>45643.51706018519</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>45113.48916666667</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>45582.30826388889</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>45198</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>45198.69354166667</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>45573.57309027778</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>45167</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>45167</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>45300</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>44935.59246527778</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>45186</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>44981</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>45799.67575231481</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>45799.31555555556</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>45142.30226851852</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>44945</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>45805.56920138889</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>44782.91590277778</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>44293</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>45805.56230324074</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>45685.58085648148</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>45215</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         <v>45643.36900462963</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4350,7 +4350,7 @@
         <v>45897.56069444444</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         <v>44342</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         <v>45615.6309837963</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>45818.45789351852</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         <v>45821</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>45821.42359953704</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>44315</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>45904.62887731481</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>45000.35256944445</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>44316.41503472222</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>45642.39239583333</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>45911.34883101852</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>45369.34828703704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>44508.36662037037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>45826.4806712963</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>45009</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>45923.46587962963</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>45254.37158564815</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>45923.46953703704</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>45010</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>45729</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>45621.32651620371</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>44252</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>45933.66196759259</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>45596.48508101852</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>45938.50790509259</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>45943.49165509259</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>45943.48703703703</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>45390</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>45946.68842592592</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>45854.47652777778</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>45854.48293981481</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>45950.44516203704</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>45735.37274305556</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>44560</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>45860</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>45670</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         <v>45868.67938657408</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>45868.68178240741</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>44963.37827546296</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>45237.47695601852</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>45957.46645833334</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>45957.46996527778</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>44894</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>45874.62365740741</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>45960.58104166666</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         <v>45881</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         <v>45882</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>45882</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7163,7 +7163,7 @@
         <v>46019.86751157408</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7220,7 +7220,7 @@
         <v>45485.48961805556</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
         <v>45112.46046296296</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         <v>45146</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7396,7 +7396,7 @@
         <v>44616.47766203704</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7453,7 +7453,7 @@
         <v>45993.67202546296</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7510,7 +7510,7 @@
         <v>44614</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>44980</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7629,7 +7629,7 @@
         <v>44897</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7686,7 +7686,7 @@
         <v>45557.69868055556</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>45265.65236111111</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>46042.67932870371</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>45615.62634259259</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>45198.6809375</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>45229</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>46056</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>46056.62666666666</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>44957.59467592592</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>45349</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44300.64185185185</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44963.37232638889</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>45699.38993055555</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>45468.64033564815</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44853</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44446.62215277777</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>45267.61526620371</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>44606.63405092592</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>45665</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>44745</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>45699.63719907407</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>45091</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>44939</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>44939</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>44615</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>44364.53988425926</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>44321.3083449074</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>44697.66332175926</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>45161</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>45602.38179398148</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>44537.63103009259</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9468,7 +9468,7 @@
         <v>45167</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>45028.69456018518</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>45167</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>45266.51587962963</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>45209.82892361111</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>45390</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>45197</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>45484</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>44951</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>44571</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>44810</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>45267.42585648148</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>45553.51288194444</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>45771</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>45470</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10333,7 +10333,7 @@
         <v>45538.29486111111</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10390,7 +10390,7 @@
         <v>45351</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10447,7 +10447,7 @@
         <v>45797.63533564815</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10504,7 +10504,7 @@
         <v>45643.51864583333</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>

--- a/Översikt HJO.xlsx
+++ b/Översikt HJO.xlsx
@@ -575,7 +575,7 @@
         <v>44272</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44593</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>45468</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>45719.46746527778</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44799.45684027778</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44729</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44525.73625</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>44616.29740740741</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>44692</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>44866.6278587963</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>44623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>44354.60260416667</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44846</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>44515</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         <v>44474</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>44852.25016203704</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>44797.86921296296</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>44748.35234953704</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>44488.62511574074</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>44781</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>44508</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>44608</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>44784.3796875</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>44456</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>44641</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>44386</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>44854.45597222223</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>44456</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>44354.6397337963</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>44606.37339120371</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>44438.72671296296</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>44781.43912037037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>44714</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>44477</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>44638.65868055556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>44615</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>44427.35878472222</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>44616.2996875</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>44922</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>45257.81895833334</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>45069</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>45643.51706018519</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>45113.48916666667</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>45582.30826388889</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>45198</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>45198.69354166667</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>45573.57309027778</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>45167</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>45167</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>45300</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>44935.59246527778</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>45186</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>44981</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>45799.67575231481</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>45799.31555555556</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>45142.30226851852</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>44945</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>45805.56920138889</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>44782.91590277778</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>44293</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>45805.56230324074</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>45685.58085648148</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>45215</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         <v>45643.36900462963</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4350,7 +4350,7 @@
         <v>45897.56069444444</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         <v>44342</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         <v>45615.6309837963</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>45818.45789351852</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         <v>45821</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>45821.42359953704</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>44315</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>45904.62887731481</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>45000.35256944445</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>44316.41503472222</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>45642.39239583333</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>45911.34883101852</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>45369.34828703704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>44508.36662037037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>45826.4806712963</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>45009</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>45923.46587962963</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>45254.37158564815</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>45923.46953703704</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>45010</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>45729</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>45621.32651620371</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>44252</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>45933.66196759259</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>45596.48508101852</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>45938.50790509259</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>45943.49165509259</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>45943.48703703703</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>45390</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>45946.68842592592</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>45854.47652777778</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>45854.48293981481</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>45950.44516203704</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>45735.37274305556</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>44560</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>45860</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>45670</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         <v>45868.67938657408</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>45868.68178240741</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>44963.37827546296</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>45237.47695601852</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>45957.46645833334</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>45957.46996527778</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>44894</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>45874.62365740741</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>45960.58104166666</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         <v>45881</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         <v>45882</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>45882</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7163,7 +7163,7 @@
         <v>46019.86751157408</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7220,7 +7220,7 @@
         <v>45485.48961805556</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
         <v>45112.46046296296</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         <v>45146</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7396,7 +7396,7 @@
         <v>44616.47766203704</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7453,7 +7453,7 @@
         <v>45993.67202546296</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7510,7 +7510,7 @@
         <v>44614</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>44980</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7629,7 +7629,7 @@
         <v>44897</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7686,7 +7686,7 @@
         <v>45557.69868055556</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>45265.65236111111</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>46042.67932870371</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>45615.62634259259</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>45198.6809375</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>45229</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>46056</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>46056.62666666666</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>44957.59467592592</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>45349</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44300.64185185185</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44963.37232638889</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>45699.38993055555</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>45468.64033564815</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44853</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44446.62215277777</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>45267.61526620371</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>44606.63405092592</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>45665</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>44745</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>45699.63719907407</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>45091</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>44939</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>44939</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>44615</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>44364.53988425926</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>44321.3083449074</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>44697.66332175926</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>45161</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>45602.38179398148</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>44537.63103009259</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9468,7 +9468,7 @@
         <v>45167</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>45028.69456018518</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>45167</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>45266.51587962963</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>45209.82892361111</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>45390</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>45197</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>45484</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>44951</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>44571</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>44810</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>45267.42585648148</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>45553.51288194444</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>45771</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>45470</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10333,7 +10333,7 @@
         <v>45538.29486111111</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10390,7 +10390,7 @@
         <v>45351</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10447,7 +10447,7 @@
         <v>45797.63533564815</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10504,7 +10504,7 @@
         <v>45643.51864583333</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>

--- a/Översikt HJO.xlsx
+++ b/Översikt HJO.xlsx
@@ -575,7 +575,7 @@
         <v>44272</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44593</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>45468</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>45719.46746527778</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44799.45684027778</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44729</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44525.73625</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>44616.29740740741</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>44692</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>44866.6278587963</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>44623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>44354.60260416667</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44846</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>44515</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         <v>44474</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>44852.25016203704</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>44797.86921296296</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>44748.35234953704</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>44488.62511574074</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>44781</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>44508</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>44608</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>44784.3796875</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>44456</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>44641</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>44386</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>44854.45597222223</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>44456</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>44354.6397337963</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>44606.37339120371</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>44438.72671296296</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>44781.43912037037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>44714</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>44477</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>44638.65868055556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>44615</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>44427.35878472222</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>44616.2996875</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2856,14 +2856,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 62233-2022</t>
+          <t>A 44684-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44922</v>
+        <v>45186</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2913,14 +2913,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 59986-2023</t>
+          <t>A 724-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45257.81895833334</v>
+        <v>45300</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>7.7</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2970,14 +2970,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 22050-2023</t>
+          <t>A 37789-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45069</v>
+        <v>44810</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2987,11 +2987,6 @@
       <c r="E42" t="inlineStr">
         <is>
           <t>HJO</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -3032,14 +3027,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 60413-2024</t>
+          <t>A 50152-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45643.51706018519</v>
+        <v>45215</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3052,7 +3047,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.9</v>
+        <v>4.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3089,14 +3084,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 30970-2023</t>
+          <t>A 49025-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45113.48916666667</v>
+        <v>45209.82892361111</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3109,7 +3104,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>4.2</v>
+        <v>5.4</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3146,14 +3141,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 46339-2024</t>
+          <t>A 32518-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45582.30826388889</v>
+        <v>44782.91590277778</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3166,7 +3161,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3203,14 +3198,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 46762-2023</t>
+          <t>A 17806-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45198</v>
+        <v>44300.64185185185</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3223,7 +3218,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.9</v>
+        <v>5.7</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3260,14 +3255,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 46790-2023</t>
+          <t>A 26248-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45198.69354166667</v>
+        <v>45468.64033564815</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3280,7 +3275,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3317,14 +3312,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 44310-2024</t>
+          <t>A 62251-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45573.57309027778</v>
+        <v>45267.61526620371</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3336,8 +3331,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3374,14 +3374,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 39537-2023</t>
+          <t>A 59986-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45167</v>
+        <v>45257.81895833334</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.6</v>
+        <v>7.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3431,14 +3431,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 39540-2023</t>
+          <t>A 47047-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45167</v>
+        <v>44446.62215277777</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3488,14 +3488,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 724-2024</t>
+          <t>A 47300-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45300</v>
+        <v>44853</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3545,14 +3545,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 1108-2023</t>
+          <t>A 61700-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44935.59246527778</v>
+        <v>45265.65236111111</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3564,8 +3564,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3602,14 +3607,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 44684-2023</t>
+          <t>A 2070-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45186</v>
+        <v>44939</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3622,7 +3627,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.7</v>
+        <v>11.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3659,14 +3664,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 9473-2023</t>
+          <t>A 2866-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44981</v>
+        <v>44945</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3679,7 +3684,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3716,14 +3721,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 25053-2025</t>
+          <t>A 57647-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45799.67575231481</v>
+        <v>44897</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3736,7 +3741,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3773,14 +3778,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 24723-2025</t>
+          <t>A 62233-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45799.31555555556</v>
+        <v>44922</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3793,7 +3798,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.2</v>
+        <v>5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3830,14 +3835,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 34859-2023</t>
+          <t>A 2060-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45142.30226851852</v>
+        <v>44939</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3850,7 +3855,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3887,14 +3892,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 2866-2023</t>
+          <t>A 1108-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44945</v>
+        <v>44935.59246527778</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3907,7 +3912,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3944,14 +3949,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 26238-2025</t>
+          <t>A 13694-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45805.56920138889</v>
+        <v>45390</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3964,7 +3969,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4.6</v>
+        <v>2.2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4001,14 +4006,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 32518-2022</t>
+          <t>A 46520-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44782.91590277778</v>
+        <v>45197</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4021,7 +4026,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4058,14 +4063,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 16395-2021</t>
+          <t>A 9177-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44293</v>
+        <v>44615</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4078,7 +4083,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4115,14 +4120,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 26229-2025</t>
+          <t>A 28211-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45805.56230324074</v>
+        <v>45818.45789351852</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4135,7 +4140,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4172,14 +4177,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 4243-2025</t>
+          <t>A 46762-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45685.58085648148</v>
+        <v>45198</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4192,7 +4197,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4229,14 +4234,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 50152-2023</t>
+          <t>A 29064-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45215</v>
+        <v>45821</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4249,7 +4254,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>4.8</v>
+        <v>2.3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4286,14 +4291,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 60318-2024</t>
+          <t>A 29019-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45643.36900462963</v>
+        <v>45821.42359953704</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4306,7 +4311,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.7</v>
+        <v>1.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4343,14 +4348,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 40859-2025</t>
+          <t>A 29960-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45897.56069444444</v>
+        <v>45826.4806712963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4363,7 +4368,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4400,14 +4405,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 25316-2021</t>
+          <t>A 9773-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44342</v>
+        <v>44252</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4420,7 +4425,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4457,14 +4462,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 53846-2024</t>
+          <t>A 59452-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45615.6309837963</v>
+        <v>45254.37158564815</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4477,7 +4482,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4514,14 +4519,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 28211-2025</t>
+          <t>A 22050-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45818.45789351852</v>
+        <v>45069</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4533,8 +4538,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4571,14 +4581,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 29064-2025</t>
+          <t>A 6369-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45821</v>
+        <v>45699.38993055555</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4628,14 +4638,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 29019-2025</t>
+          <t>A 44310-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45821.42359953704</v>
+        <v>45573.57309027778</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4648,7 +4658,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4685,14 +4695,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 20469-2021</t>
+          <t>A 40859-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44315</v>
+        <v>45897.56069444444</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4704,13 +4714,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4747,14 +4752,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 42292-2025</t>
+          <t>A 35316-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45904.62887731481</v>
+        <v>45854.47652777778</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4766,8 +4771,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4804,14 +4814,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 12554-2023</t>
+          <t>A 35319-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45000.35256944445</v>
+        <v>45854.48293981481</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4823,8 +4833,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4861,14 +4876,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 20651-2021</t>
+          <t>A 42292-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44316.41503472222</v>
+        <v>45904.62887731481</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4880,13 +4895,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>5.1</v>
+        <v>1.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4923,14 +4933,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 59988-2024</t>
+          <t>A 60318-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45642.39239583333</v>
+        <v>45643.36900462963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4943,7 +4953,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4980,14 +4990,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 43370-2025</t>
+          <t>A 13177-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45911.34883101852</v>
+        <v>45735.37274305556</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5000,7 +5010,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5037,14 +5047,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 10670-2024</t>
+          <t>A 35768-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45369.34828703704</v>
+        <v>45860</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5057,7 +5067,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.1</v>
+        <v>5.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5094,14 +5104,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 63239-2021</t>
+          <t>A 9473-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44508.36662037037</v>
+        <v>44981</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5114,7 +5124,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5151,14 +5161,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 29960-2025</t>
+          <t>A 1635-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45826.4806712963</v>
+        <v>45670</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5171,7 +5181,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5208,14 +5218,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 14196-2023</t>
+          <t>A 30636-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45009</v>
+        <v>45112.46046296296</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5227,8 +5237,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>3.5</v>
+        <v>0.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5265,14 +5280,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 45736-2025</t>
+          <t>A 39542-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45923.46587962963</v>
+        <v>45167</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5285,7 +5300,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5322,14 +5337,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 59452-2023</t>
+          <t>A 21369-2021</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45254.37158564815</v>
+        <v>44321.3083449074</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5342,7 +5357,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.2</v>
+        <v>10.7</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5379,14 +5394,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 45742-2025</t>
+          <t>A 50711-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45923.46953703704</v>
+        <v>45602.38179398148</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5399,7 +5414,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5436,14 +5451,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 14460-2023</t>
+          <t>A 34859-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45010</v>
+        <v>45142.30226851852</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5456,7 +5471,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>5.4</v>
+        <v>2.1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5493,14 +5508,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 12275-2025</t>
+          <t>A 36407-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45729</v>
+        <v>45868.67938657408</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5513,7 +5528,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>7.5</v>
+        <v>2.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5550,14 +5565,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 55003-2024</t>
+          <t>A 36409-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45621.32651620371</v>
+        <v>45868.68178240741</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5570,7 +5585,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5607,14 +5622,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 9773-2021</t>
+          <t>A 49564-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44252</v>
+        <v>45596.48508101852</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5627,7 +5642,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5664,14 +5679,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 48359-2025</t>
+          <t>A 43370-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45933.66196759259</v>
+        <v>45911.34883101852</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5684,7 +5699,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3.5</v>
+        <v>1.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5721,14 +5736,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 49564-2024</t>
+          <t>A 20651-2021</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45596.48508101852</v>
+        <v>44316.41503472222</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5740,8 +5755,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>0.6</v>
+        <v>5.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5778,14 +5798,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 49278-2025</t>
+          <t>A 36961-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45938.50790509259</v>
+        <v>45874.62365740741</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5798,7 +5818,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>4.8</v>
+        <v>0.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5835,14 +5855,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 50093-2025</t>
+          <t>A 46787-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45943.49165509259</v>
+        <v>45198.6809375</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5855,7 +5875,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>4.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5892,14 +5912,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 50091-2025</t>
+          <t>A 38052-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45943.48703703703</v>
+        <v>45882</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5912,7 +5932,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>4.1</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5949,14 +5969,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 13703-2024</t>
+          <t>A 37803-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45390</v>
+        <v>45881</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5969,7 +5989,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6006,14 +6026,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 50932-2025</t>
+          <t>A 38054-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45946.68842592592</v>
+        <v>45882</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6026,7 +6046,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6063,14 +6083,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 35316-2025</t>
+          <t>A 45742-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45854.47652777778</v>
+        <v>45923.46953703704</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6082,13 +6102,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6125,14 +6140,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 35319-2025</t>
+          <t>A 45736-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45854.48293981481</v>
+        <v>45923.46587962963</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6144,13 +6159,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6187,14 +6197,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 51362-2025</t>
+          <t>A 29596-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45950.44516203704</v>
+        <v>45484</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6207,7 +6217,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6244,14 +6254,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 13177-2025</t>
+          <t>A 48359-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45735.37274305556</v>
+        <v>45933.66196759259</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6264,7 +6274,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6301,14 +6311,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 138-2022</t>
+          <t>A 49278-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44560</v>
+        <v>45938.50790509259</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6321,7 +6331,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.3</v>
+        <v>4.8</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6358,14 +6368,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 35768-2025</t>
+          <t>A 50093-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45860</v>
+        <v>45943.49165509259</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6378,7 +6388,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>5.7</v>
+        <v>4.3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6415,14 +6425,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 1635-2025</t>
+          <t>A 50091-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45670</v>
+        <v>45943.48703703703</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6435,7 +6445,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.8</v>
+        <v>4.1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6472,14 +6482,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 36407-2025</t>
+          <t>A 50932-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45868.67938657408</v>
+        <v>45946.68842592592</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6492,7 +6502,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6529,14 +6539,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 36409-2025</t>
+          <t>A 16352-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45868.68178240741</v>
+        <v>45028.69456018518</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6549,7 +6559,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6586,14 +6596,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 5773-2023</t>
+          <t>A 39537-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44963.37827546296</v>
+        <v>45167</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6606,7 +6616,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6643,14 +6653,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 55119-2023</t>
+          <t>A 39540-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45237.47695601852</v>
+        <v>45167</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6663,7 +6673,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6700,14 +6710,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 52825-2025</t>
+          <t>A 51362-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45957.46645833334</v>
+        <v>45950.44516203704</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6720,7 +6730,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6757,14 +6767,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 52831-2025</t>
+          <t>A 52825-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45957.46996527778</v>
+        <v>45957.46645833334</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6777,7 +6787,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6814,14 +6824,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 58597-2022</t>
+          <t>A 10670-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44894</v>
+        <v>45369.34828703704</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6834,7 +6844,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6871,14 +6881,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 36961-2025</t>
+          <t>A 52831-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45874.62365740741</v>
+        <v>45957.46996527778</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6891,7 +6901,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -6935,7 +6945,7 @@
         <v>45960.58104166666</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6985,14 +6995,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 37803-2025</t>
+          <t>A 62171-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45881</v>
+        <v>45267.42585648148</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7004,8 +7014,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>3.3</v>
+        <v>1.9</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7042,14 +7057,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 38052-2025</t>
+          <t>A 4783-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45882</v>
+        <v>44957.59467592592</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7062,7 +7077,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7099,14 +7114,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 38054-2025</t>
+          <t>A 38186-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45882</v>
+        <v>45161</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7119,7 +7134,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.6</v>
+        <v>4.9</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7156,14 +7171,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 63802-2025</t>
+          <t>A 12554-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>46019.86751157408</v>
+        <v>45000.35256944445</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7213,14 +7228,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 29798-2024</t>
+          <t>A 53839-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45485.48961805556</v>
+        <v>45615.62634259259</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7233,7 +7248,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>5.2</v>
+        <v>0.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7270,14 +7285,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 30636-2023</t>
+          <t>A 40629-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45112.46046296296</v>
+        <v>45557.69868055556</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7289,13 +7304,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>0.8</v>
+        <v>11.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7332,14 +7342,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 35486-2023</t>
+          <t>A 7722-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45146</v>
+        <v>45349</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7352,7 +7362,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7389,14 +7399,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 9297-2022</t>
+          <t>A 25316-2021</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44616.47766203704</v>
+        <v>44342</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7409,7 +7419,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7453,7 +7463,7 @@
         <v>45993.67202546296</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7503,14 +7513,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 8814-2022</t>
+          <t>A 54902-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44614</v>
+        <v>45229</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7522,13 +7532,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>4.6</v>
+        <v>0.9</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7565,14 +7570,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 9338-2023</t>
+          <t>A 3569-2026</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44980</v>
+        <v>46042.67932870371</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7585,7 +7590,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7622,14 +7627,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 57647-2022</t>
+          <t>A 1094-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44897</v>
+        <v>45665</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7642,7 +7647,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>8.699999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7679,14 +7684,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 40629-2024</t>
+          <t>A 59988-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45557.69868055556</v>
+        <v>45642.39239583333</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7699,7 +7704,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>11.5</v>
+        <v>2.8</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7736,14 +7741,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 61700-2023</t>
+          <t>A 53846-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45265.65236111111</v>
+        <v>45615.6309837963</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7755,13 +7760,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G125" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7798,14 +7798,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 3569-2026</t>
+          <t>A 46790-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>46042.67932870371</v>
+        <v>45198.69354166667</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7855,14 +7855,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 53839-2024</t>
+          <t>A 13703-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45615.62634259259</v>
+        <v>45390</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7912,14 +7912,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 46787-2023</t>
+          <t>A 60413-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45198.6809375</v>
+        <v>45643.51706018519</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7932,7 +7932,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>8.800000000000001</v>
+        <v>2.9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -7969,14 +7969,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 54902-2023</t>
+          <t>A 55119-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45229</v>
+        <v>45237.47695601852</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7989,7 +7989,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8026,14 +8026,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 6705-2026</t>
+          <t>A 6686-2026</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>46056</v>
+        <v>46056.62666666666</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>6.3</v>
+        <v>4</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8083,14 +8083,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 6686-2026</t>
+          <t>A 58597-2022</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>46056.62666666666</v>
+        <v>44894</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8103,7 +8103,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>4</v>
+        <v>0.8</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8140,14 +8140,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 4783-2023</t>
+          <t>A 6705-2026</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44957.59467592592</v>
+        <v>46056</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8160,7 +8160,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.5</v>
+        <v>6.3</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8197,14 +8197,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 7722-2024</t>
+          <t>A 20024-2022</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45349</v>
+        <v>44697.66332175926</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8217,7 +8217,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8254,14 +8254,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 17806-2021</t>
+          <t>A 63802-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44300.64185185185</v>
+        <v>46019.86751157408</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8274,7 +8274,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>5.7</v>
+        <v>2</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8311,14 +8311,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 5770-2023</t>
+          <t>A 5773-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44963.37232638889</v>
+        <v>44963.37827546296</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8368,14 +8368,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 6369-2025</t>
+          <t>A 30411-2021</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45699.38993055555</v>
+        <v>44364.53988425926</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8388,7 +8388,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8425,14 +8425,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 26248-2024</t>
+          <t>A 809-2022</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45468.64033564815</v>
+        <v>44571</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8482,14 +8482,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 47300-2022</t>
+          <t>A 27989-2022</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44853</v>
+        <v>44745</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8502,7 +8502,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8539,14 +8539,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 47047-2021</t>
+          <t>A 63239-2021</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44446.62215277777</v>
+        <v>44508.36662037037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8559,7 +8559,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8596,14 +8596,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 62251-2023</t>
+          <t>A 4272-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45267.61526620371</v>
+        <v>44951</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8615,13 +8615,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G140" t="n">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8658,14 +8653,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 7392-2022</t>
+          <t>A 5770-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44606.63405092592</v>
+        <v>44963.37232638889</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8678,7 +8673,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>5.2</v>
+        <v>1.7</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8715,14 +8710,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 1094-2025</t>
+          <t>A 14460-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45665</v>
+        <v>45010</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8735,7 +8730,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.8</v>
+        <v>5.4</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8772,14 +8767,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 27989-2022</t>
+          <t>A 9297-2022</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44745</v>
+        <v>44616.47766203704</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8792,7 +8787,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8829,14 +8824,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 6497-2025</t>
+          <t>A 70743-2021</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45699.63719907407</v>
+        <v>44537.63103009259</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8849,7 +8844,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8886,14 +8881,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 26230-2023</t>
+          <t>A 55003-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45091</v>
+        <v>45621.32651620371</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8905,13 +8900,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G145" t="n">
-        <v>9.4</v>
+        <v>1.9</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8948,14 +8938,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 2060-2023</t>
+          <t>A 8814-2022</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44939</v>
+        <v>44614</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8967,8 +8957,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G146" t="n">
-        <v>2.6</v>
+        <v>4.6</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9005,14 +9000,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 2070-2023</t>
+          <t>A 14196-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44939</v>
+        <v>45009</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9025,7 +9020,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>11.6</v>
+        <v>3.5</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9062,14 +9057,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 9177-2022</t>
+          <t>A 20469-2021</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44615</v>
+        <v>44315</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9081,8 +9076,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G148" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9119,14 +9119,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 30411-2021</t>
+          <t>A 39538-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44364.53988425926</v>
+        <v>45167</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.7</v>
+        <v>5.3</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9176,14 +9176,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 21369-2021</t>
+          <t>A 35486-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44321.3083449074</v>
+        <v>45146</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>10.7</v>
+        <v>2.9</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9233,14 +9233,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 20024-2022</t>
+          <t>A 7392-2022</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44697.66332175926</v>
+        <v>44606.63405092592</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.4</v>
+        <v>5.2</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9290,14 +9290,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 38186-2023</t>
+          <t>A 26230-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45161</v>
+        <v>45091</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9309,8 +9309,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G152" t="n">
-        <v>4.9</v>
+        <v>9.4</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9347,14 +9352,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 50711-2024</t>
+          <t>A 46339-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45602.38179398148</v>
+        <v>45582.30826388889</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9367,7 +9372,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9404,14 +9409,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 70743-2021</t>
+          <t>A 16395-2021</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44537.63103009259</v>
+        <v>44293</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9424,7 +9429,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9461,14 +9466,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 39542-2023</t>
+          <t>A 30970-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45167</v>
+        <v>45113.48916666667</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9481,7 +9486,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.6</v>
+        <v>4.2</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9518,14 +9523,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 16352-2023</t>
+          <t>A 9338-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45028.69456018518</v>
+        <v>44980</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9538,7 +9543,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9575,14 +9580,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 39538-2023</t>
+          <t>A 6497-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45167</v>
+        <v>45699.63719907407</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9595,7 +9600,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>5.3</v>
+        <v>2.6</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9632,14 +9637,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 61925-2023</t>
+          <t>A 138-2022</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45266.51587962963</v>
+        <v>44560</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9652,7 +9657,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2.2</v>
+        <v>0.3</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9689,14 +9694,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 49025-2023</t>
+          <t>A 29798-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45209.82892361111</v>
+        <v>45485.48961805556</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9709,7 +9714,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9746,14 +9751,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 13694-2024</t>
+          <t>A 12275-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45390</v>
+        <v>45729</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9766,7 +9771,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.2</v>
+        <v>7.5</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9803,14 +9808,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 46520-2023</t>
+          <t>A 61925-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45197</v>
+        <v>45266.51587962963</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9823,7 +9828,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -9860,14 +9865,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 29596-2024</t>
+          <t>A 39907-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45484</v>
+        <v>45553.51288194444</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9880,7 +9885,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>0.8</v>
+        <v>6.5</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -9917,14 +9922,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 4272-2023</t>
+          <t>A 26792-2024</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44951</v>
+        <v>45470</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9936,8 +9941,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G163" t="n">
-        <v>1.8</v>
+        <v>7.1</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -9974,14 +9984,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 809-2022</t>
+          <t>A 36738-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44571</v>
+        <v>45538.29486111111</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9994,7 +10004,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>4.3</v>
+        <v>0.9</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10031,14 +10041,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 37789-2022</t>
+          <t>A 19810-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44810</v>
+        <v>45771</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10051,7 +10061,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10088,14 +10098,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 62171-2023</t>
+          <t>A 8145-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45267.42585648148</v>
+        <v>45351</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10107,13 +10117,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G166" t="n">
-        <v>1.9</v>
+        <v>7.3</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10150,14 +10155,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 39907-2024</t>
+          <t>A 60414-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45553.51288194444</v>
+        <v>45643.51864583333</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10170,7 +10175,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10207,14 +10212,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 19810-2025</t>
+          <t>A 24388-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45771</v>
+        <v>45797.63533564815</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10227,7 +10232,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10264,14 +10269,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 26792-2024</t>
+          <t>A 25053-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45470</v>
+        <v>45799.67575231481</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10283,13 +10288,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G169" t="n">
-        <v>7.1</v>
+        <v>1.7</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10326,14 +10326,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 36738-2024</t>
+          <t>A 24723-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45538.29486111111</v>
+        <v>45799.31555555556</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10383,14 +10383,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 8145-2024</t>
+          <t>A 26229-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45351</v>
+        <v>45805.56230324074</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>7.3</v>
+        <v>1.6</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10440,14 +10440,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 24388-2025</t>
+          <t>A 26238-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45797.63533564815</v>
+        <v>45805.56920138889</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.6</v>
+        <v>4.6</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10497,14 +10497,14 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 60414-2024</t>
+          <t>A 4243-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45643.51864583333</v>
+        <v>45685.58085648148</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>

--- a/Översikt HJO.xlsx
+++ b/Översikt HJO.xlsx
@@ -575,7 +575,7 @@
         <v>44272</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44593</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -739,14 +739,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 26270-2024</t>
+          <t>A 10014-2025</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45468</v>
+        <v>45719.46746527778</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -759,10 +759,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -771,10 +771,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -793,123 +793,123 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1497/artfynd/A 10014-2025 artfynd.xlsx", "A 10014-2025")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1497/kartor/A 10014-2025 karta.png", "A 10014-2025")</f>
+        <v/>
+      </c>
+      <c r="U4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1497/knärot/A 10014-2025 karta knärot.png", "A 10014-2025")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1497/klagomål/A 10014-2025 FSC-klagomål.docx", "A 10014-2025")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1497/klagomålsmail/A 10014-2025 FSC-klagomål mail.docx", "A 10014-2025")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1497/tillsyn/A 10014-2025 tillsynsbegäran.docx", "A 10014-2025")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1497/tillsynsmail/A 10014-2025 tillsynsbegäran mail.docx", "A 10014-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 26270-2024</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45468</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>HJO</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
           <t>Ask</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1497/artfynd/A 26270-2024 artfynd.xlsx", "A 26270-2024")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1497/kartor/A 26270-2024 karta.png", "A 26270-2024")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1497/klagomål/A 26270-2024 FSC-klagomål.docx", "A 26270-2024")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1497/klagomålsmail/A 26270-2024 FSC-klagomål mail.docx", "A 26270-2024")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1497/tillsyn/A 26270-2024 tillsynsbegäran.docx", "A 26270-2024")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1497/tillsynsmail/A 26270-2024 tillsynsbegäran mail.docx", "A 26270-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 10014-2025</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45719.46746527778</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>HJO</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Knärot</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1497/artfynd/A 10014-2025 artfynd.xlsx", "A 10014-2025")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1497/kartor/A 10014-2025 karta.png", "A 10014-2025")</f>
-        <v/>
-      </c>
-      <c r="U5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1497/knärot/A 10014-2025 karta knärot.png", "A 10014-2025")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1497/klagomål/A 10014-2025 FSC-klagomål.docx", "A 10014-2025")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1497/klagomålsmail/A 10014-2025 FSC-klagomål mail.docx", "A 10014-2025")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1497/tillsyn/A 10014-2025 tillsynsbegäran.docx", "A 10014-2025")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1497/tillsynsmail/A 10014-2025 tillsynsbegäran mail.docx", "A 10014-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44799.45684027778</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44729</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44525.73625</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>44616.29740740741</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>44692</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>44866.6278587963</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>44623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>44354.60260416667</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44846</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>44515</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         <v>44474</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>44852.25016203704</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>44797.86921296296</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>44748.35234953704</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>44488.62511574074</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>44781</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>44508</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>44608</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>44784.3796875</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>44456</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>44641</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2115,14 +2115,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 35771-2021</t>
+          <t>A 47656-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44386</v>
+        <v>44854.45597222223</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2172,14 +2172,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 47656-2022</t>
+          <t>A 35771-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44854.45597222223</v>
+        <v>44386</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         <v>44456</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>44354.6397337963</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>44606.37339120371</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>44438.72671296296</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>44781.43912037037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>44714</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>44477</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>44638.65868055556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>44615</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>44427.35878472222</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>44616.2996875</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2856,14 +2856,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 44684-2023</t>
+          <t>A 62233-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45186</v>
+        <v>44922</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.7</v>
+        <v>5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2913,14 +2913,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 724-2024</t>
+          <t>A 59986-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45300</v>
+        <v>45257.81895833334</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>7.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2970,14 +2970,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 37789-2022</t>
+          <t>A 13694-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44810</v>
+        <v>45390</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3027,14 +3027,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 50152-2023</t>
+          <t>A 40859-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45215</v>
+        <v>45897.56069444444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>4.8</v>
+        <v>0.7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3084,14 +3084,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 49025-2023</t>
+          <t>A 46520-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45209.82892361111</v>
+        <v>45197</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>5.4</v>
+        <v>1.9</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3141,14 +3141,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 32518-2022</t>
+          <t>A 29596-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44782.91590277778</v>
+        <v>45484</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3198,14 +3198,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 17806-2021</t>
+          <t>A 22050-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44300.64185185185</v>
+        <v>45069</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3217,8 +3217,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>5.7</v>
+        <v>2.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3255,14 +3260,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 26248-2024</t>
+          <t>A 60413-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45468.64033564815</v>
+        <v>45643.51706018519</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3275,7 +3280,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3312,14 +3317,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 62251-2023</t>
+          <t>A 4272-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45267.61526620371</v>
+        <v>44951</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3331,13 +3336,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3374,14 +3374,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 59986-2023</t>
+          <t>A 30970-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45257.81895833334</v>
+        <v>45113.48916666667</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>7.7</v>
+        <v>4.2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3431,14 +3431,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 47047-2021</t>
+          <t>A 46339-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44446.62215277777</v>
+        <v>45582.30826388889</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3488,14 +3488,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 47300-2022</t>
+          <t>A 809-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44853</v>
+        <v>44571</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.4</v>
+        <v>4.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3545,14 +3545,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 61700-2023</t>
+          <t>A 37789-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45265.65236111111</v>
+        <v>44810</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3564,13 +3564,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3607,14 +3602,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 2070-2023</t>
+          <t>A 46762-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44939</v>
+        <v>45198</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3627,7 +3622,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>11.6</v>
+        <v>0.9</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3664,14 +3659,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 2866-2023</t>
+          <t>A 46790-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44945</v>
+        <v>45198.69354166667</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3684,7 +3679,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3721,14 +3716,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 57647-2022</t>
+          <t>A 62171-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44897</v>
+        <v>45267.42585648148</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3740,8 +3735,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>8.699999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3778,14 +3778,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 62233-2022</t>
+          <t>A 44310-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44922</v>
+        <v>45573.57309027778</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3835,14 +3835,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 2060-2023</t>
+          <t>A 42292-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44939</v>
+        <v>45904.62887731481</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3892,14 +3892,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 1108-2023</t>
+          <t>A 39537-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44935.59246527778</v>
+        <v>45167</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3949,14 +3949,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 13694-2024</t>
+          <t>A 39540-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45390</v>
+        <v>45167</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3969,7 +3969,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4006,14 +4006,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 46520-2023</t>
+          <t>A 39907-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45197</v>
+        <v>45553.51288194444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4026,7 +4026,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.9</v>
+        <v>6.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4063,14 +4063,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 9177-2022</t>
+          <t>A 724-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44615</v>
+        <v>45300</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4120,14 +4120,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 28211-2025</t>
+          <t>A 19810-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45818.45789351852</v>
+        <v>45771</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.1</v>
+        <v>0.4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4177,14 +4177,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 46762-2023</t>
+          <t>A 26792-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45198</v>
+        <v>45470</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4196,8 +4196,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>0.9</v>
+        <v>7.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4234,14 +4239,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 29064-2025</t>
+          <t>A 36738-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45821</v>
+        <v>45538.29486111111</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4254,7 +4259,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4291,14 +4296,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 29019-2025</t>
+          <t>A 43370-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45821.42359953704</v>
+        <v>45911.34883101852</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4311,7 +4316,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4348,14 +4353,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 29960-2025</t>
+          <t>A 1108-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45826.4806712963</v>
+        <v>44935.59246527778</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4368,7 +4373,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4405,14 +4410,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 9773-2021</t>
+          <t>A 44684-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44252</v>
+        <v>45186</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4425,7 +4430,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4462,14 +4467,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 59452-2023</t>
+          <t>A 9473-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45254.37158564815</v>
+        <v>44981</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4482,7 +4487,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4519,14 +4524,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 22050-2023</t>
+          <t>A 34859-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45069</v>
+        <v>45142.30226851852</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4538,13 +4543,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4581,14 +4581,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 6369-2025</t>
+          <t>A 2866-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45699.38993055555</v>
+        <v>44945</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4638,14 +4638,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 44310-2024</t>
+          <t>A 8145-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45573.57309027778</v>
+        <v>45351</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.6</v>
+        <v>7.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4695,14 +4695,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 40859-2025</t>
+          <t>A 24388-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45897.56069444444</v>
+        <v>45797.63533564815</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4752,14 +4752,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 35316-2025</t>
+          <t>A 60414-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45854.47652777778</v>
+        <v>45643.51864583333</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4771,13 +4771,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4814,14 +4809,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 35319-2025</t>
+          <t>A 32518-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45854.48293981481</v>
+        <v>44782.91590277778</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4833,13 +4828,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4876,14 +4866,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 42292-2025</t>
+          <t>A 16395-2021</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45904.62887731481</v>
+        <v>44293</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4896,7 +4886,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4933,14 +4923,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 60318-2024</t>
+          <t>A 25053-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45643.36900462963</v>
+        <v>45799.67575231481</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4953,7 +4943,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.7</v>
+        <v>1.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4990,14 +4980,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 13177-2025</t>
+          <t>A 24723-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45735.37274305556</v>
+        <v>45799.31555555556</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5010,7 +5000,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5047,14 +5037,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 35768-2025</t>
+          <t>A 45736-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45860</v>
+        <v>45923.46587962963</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5067,7 +5057,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>5.7</v>
+        <v>1.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5104,14 +5094,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 9473-2023</t>
+          <t>A 26238-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44981</v>
+        <v>45805.56920138889</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5124,7 +5114,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.1</v>
+        <v>4.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5161,14 +5151,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 1635-2025</t>
+          <t>A 50152-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45670</v>
+        <v>45215</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5181,7 +5171,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.8</v>
+        <v>4.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5218,14 +5208,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 30636-2023</t>
+          <t>A 60318-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45112.46046296296</v>
+        <v>45643.36900462963</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5237,13 +5227,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>0.8</v>
+        <v>3.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5280,14 +5265,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 39542-2023</t>
+          <t>A 26229-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45167</v>
+        <v>45805.56230324074</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5300,7 +5285,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5337,14 +5322,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 21369-2021</t>
+          <t>A 45742-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44321.3083449074</v>
+        <v>45923.46953703704</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5357,7 +5342,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>10.7</v>
+        <v>0.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5394,14 +5379,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 50711-2024</t>
+          <t>A 25316-2021</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45602.38179398148</v>
+        <v>44342</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5414,7 +5399,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5451,14 +5436,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 34859-2023</t>
+          <t>A 4243-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45142.30226851852</v>
+        <v>45685.58085648148</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5471,7 +5456,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5508,14 +5493,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 36407-2025</t>
+          <t>A 53846-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45868.67938657408</v>
+        <v>45615.6309837963</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5528,7 +5513,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5565,14 +5550,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 36409-2025</t>
+          <t>A 20469-2021</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45868.68178240741</v>
+        <v>44315</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5584,8 +5569,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5622,14 +5612,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 49564-2024</t>
+          <t>A 12554-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45596.48508101852</v>
+        <v>45000.35256944445</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5642,7 +5632,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5679,14 +5669,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 43370-2025</t>
+          <t>A 20651-2021</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45911.34883101852</v>
+        <v>44316.41503472222</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5698,8 +5688,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G89" t="n">
-        <v>1.9</v>
+        <v>5.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5736,14 +5731,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 20651-2021</t>
+          <t>A 59988-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44316.41503472222</v>
+        <v>45642.39239583333</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5755,13 +5750,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>5.1</v>
+        <v>2.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5798,14 +5788,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 36961-2025</t>
+          <t>A 28211-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45874.62365740741</v>
+        <v>45818.45789351852</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5818,7 +5808,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.9</v>
+        <v>3.1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5855,14 +5845,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 46787-2023</t>
+          <t>A 10670-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45198.6809375</v>
+        <v>45369.34828703704</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5875,7 +5865,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>8.800000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5912,14 +5902,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 38052-2025</t>
+          <t>A 29064-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45882</v>
+        <v>45821</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5932,7 +5922,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5969,14 +5959,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 37803-2025</t>
+          <t>A 29019-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45881</v>
+        <v>45821.42359953704</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5989,7 +5979,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6026,14 +6016,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 38054-2025</t>
+          <t>A 63239-2021</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45882</v>
+        <v>44508.36662037037</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6046,7 +6036,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6083,14 +6073,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 45742-2025</t>
+          <t>A 14196-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45923.46953703704</v>
+        <v>45009</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6103,7 +6093,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6140,14 +6130,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 45736-2025</t>
+          <t>A 29960-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45923.46587962963</v>
+        <v>45826.4806712963</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6160,7 +6150,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6197,14 +6187,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 29596-2024</t>
+          <t>A 59452-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45484</v>
+        <v>45254.37158564815</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6217,7 +6207,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6261,7 +6251,7 @@
         <v>45933.66196759259</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6311,14 +6301,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 49278-2025</t>
+          <t>A 14460-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45938.50790509259</v>
+        <v>45010</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6331,7 +6321,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6368,14 +6358,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 50093-2025</t>
+          <t>A 12275-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45943.49165509259</v>
+        <v>45729</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6388,7 +6378,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>4.3</v>
+        <v>7.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6425,14 +6415,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 50091-2025</t>
+          <t>A 55003-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45943.48703703703</v>
+        <v>45621.32651620371</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6445,7 +6435,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>4.1</v>
+        <v>1.9</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6482,14 +6472,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 50932-2025</t>
+          <t>A 9773-2021</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45946.68842592592</v>
+        <v>44252</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6502,7 +6492,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6539,14 +6529,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 16352-2023</t>
+          <t>A 49564-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45028.69456018518</v>
+        <v>45596.48508101852</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6559,7 +6549,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6596,14 +6586,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 39537-2023</t>
+          <t>A 49278-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45167</v>
+        <v>45938.50790509259</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6616,7 +6606,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.6</v>
+        <v>4.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6653,14 +6643,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 39540-2023</t>
+          <t>A 35316-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45167</v>
+        <v>45854.47652777778</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6672,8 +6662,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6710,14 +6705,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 51362-2025</t>
+          <t>A 35319-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45950.44516203704</v>
+        <v>45854.48293981481</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6729,8 +6724,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>0.6</v>
+        <v>3.3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6767,14 +6767,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 52825-2025</t>
+          <t>A 50093-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45957.46645833334</v>
+        <v>45943.49165509259</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.6</v>
+        <v>4.3</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6824,14 +6824,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 10670-2024</t>
+          <t>A 13177-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45369.34828703704</v>
+        <v>45735.37274305556</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6881,14 +6881,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 52831-2025</t>
+          <t>A 50091-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45957.46996527778</v>
+        <v>45943.48703703703</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.5</v>
+        <v>4.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -6938,14 +6938,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 53689-2025</t>
+          <t>A 35768-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45960.58104166666</v>
+        <v>45860</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>10.9</v>
+        <v>5.7</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -6995,14 +6995,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 62171-2023</t>
+          <t>A 1635-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45267.42585648148</v>
+        <v>45670</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7014,13 +7014,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7057,14 +7052,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 4783-2023</t>
+          <t>A 13703-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44957.59467592592</v>
+        <v>45390</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7077,7 +7072,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7114,14 +7109,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 38186-2023</t>
+          <t>A 36407-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45161</v>
+        <v>45868.67938657408</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7134,7 +7129,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>4.9</v>
+        <v>2.8</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7171,14 +7166,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 12554-2023</t>
+          <t>A 36409-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45000.35256944445</v>
+        <v>45868.68178240741</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7191,7 +7186,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7228,14 +7223,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 53839-2024</t>
+          <t>A 138-2022</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45615.62634259259</v>
+        <v>44560</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7248,7 +7243,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7285,14 +7280,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 40629-2024</t>
+          <t>A 5773-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45557.69868055556</v>
+        <v>44963.37827546296</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7305,7 +7300,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>11.5</v>
+        <v>1.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7342,14 +7337,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 7722-2024</t>
+          <t>A 36961-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45349</v>
+        <v>45874.62365740741</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7362,7 +7357,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7399,14 +7394,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 25316-2021</t>
+          <t>A 55119-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44342</v>
+        <v>45237.47695601852</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7419,7 +7414,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7456,14 +7451,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 60071-2025</t>
+          <t>A 58597-2022</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45993.67202546296</v>
+        <v>44894</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7476,7 +7471,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7513,14 +7508,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 54902-2023</t>
+          <t>A 50932-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45229</v>
+        <v>45946.68842592592</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7533,7 +7528,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7570,14 +7565,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 3569-2026</t>
+          <t>A 37803-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>46042.67932870371</v>
+        <v>45881</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7590,7 +7585,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7627,14 +7622,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 1094-2025</t>
+          <t>A 38052-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45665</v>
+        <v>45882</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7647,7 +7642,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7684,14 +7679,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 59988-2024</t>
+          <t>A 51362-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45642.39239583333</v>
+        <v>45950.44516203704</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7704,7 +7699,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7741,14 +7736,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 53846-2024</t>
+          <t>A 38054-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45615.6309837963</v>
+        <v>45882</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7761,7 +7756,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7798,14 +7793,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 46790-2023</t>
+          <t>A 52825-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45198.69354166667</v>
+        <v>45957.46645833334</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7818,7 +7813,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7855,14 +7850,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 13703-2024</t>
+          <t>A 52831-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45390</v>
+        <v>45957.46996527778</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7875,7 +7870,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7912,14 +7907,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 60413-2024</t>
+          <t>A 53689-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45643.51706018519</v>
+        <v>45960.58104166666</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7932,7 +7927,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.9</v>
+        <v>10.9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -7969,14 +7964,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 55119-2023</t>
+          <t>A 29798-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45237.47695601852</v>
+        <v>45485.48961805556</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7989,7 +7984,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0.6</v>
+        <v>5.2</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8026,14 +8021,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 6686-2026</t>
+          <t>A 30636-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>46056.62666666666</v>
+        <v>45112.46046296296</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8045,8 +8040,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G130" t="n">
-        <v>4</v>
+        <v>0.8</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8083,14 +8083,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 58597-2022</t>
+          <t>A 35486-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44894</v>
+        <v>45146</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8103,7 +8103,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8140,14 +8140,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 6705-2026</t>
+          <t>A 9297-2022</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>46056</v>
+        <v>44616.47766203704</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8160,7 +8160,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>6.3</v>
+        <v>1.5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8197,14 +8197,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 20024-2022</t>
+          <t>A 8814-2022</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44697.66332175926</v>
+        <v>44614</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8216,8 +8216,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G133" t="n">
-        <v>1.4</v>
+        <v>4.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8254,14 +8259,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 63802-2025</t>
+          <t>A 60071-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>46019.86751157408</v>
+        <v>45993.67202546296</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8274,7 +8279,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8311,14 +8316,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 5773-2023</t>
+          <t>A 9338-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44963.37827546296</v>
+        <v>44980</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8331,7 +8336,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8368,14 +8373,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 30411-2021</t>
+          <t>A 57647-2022</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44364.53988425926</v>
+        <v>44897</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8388,7 +8393,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8425,14 +8430,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 809-2022</t>
+          <t>A 40629-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44571</v>
+        <v>45557.69868055556</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8445,7 +8450,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>4.3</v>
+        <v>11.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8482,14 +8487,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 27989-2022</t>
+          <t>A 61700-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44745</v>
+        <v>45265.65236111111</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8501,8 +8506,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G138" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8539,14 +8549,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 63239-2021</t>
+          <t>A 3569-2026</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44508.36662037037</v>
+        <v>46042.67932870371</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8559,7 +8569,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8596,14 +8606,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 4272-2023</t>
+          <t>A 53839-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44951</v>
+        <v>45615.62634259259</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8616,7 +8626,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8653,14 +8663,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 5770-2023</t>
+          <t>A 46787-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44963.37232638889</v>
+        <v>45198.6809375</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8673,7 +8683,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8710,14 +8720,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 14460-2023</t>
+          <t>A 54902-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45010</v>
+        <v>45229</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8730,7 +8740,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>5.4</v>
+        <v>0.9</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8767,14 +8777,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 9297-2022</t>
+          <t>A 4783-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44616.47766203704</v>
+        <v>44957.59467592592</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8787,7 +8797,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8824,14 +8834,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 70743-2021</t>
+          <t>A 7722-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44537.63103009259</v>
+        <v>45349</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8844,7 +8854,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8881,14 +8891,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 55003-2024</t>
+          <t>A 6705-2026</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45621.32651620371</v>
+        <v>46056</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8901,7 +8911,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.9</v>
+        <v>6.3</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8938,14 +8948,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 8814-2022</t>
+          <t>A 17806-2021</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44614</v>
+        <v>44300.64185185185</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8957,13 +8967,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G146" t="n">
-        <v>4.6</v>
+        <v>5.7</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9000,14 +9005,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 14196-2023</t>
+          <t>A 6686-2026</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45009</v>
+        <v>46056.62666666666</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9020,7 +9025,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9057,14 +9062,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 20469-2021</t>
+          <t>A 5770-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44315</v>
+        <v>44963.37232638889</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9076,13 +9081,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G148" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9119,14 +9119,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 39538-2023</t>
+          <t>A 63802-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45167</v>
+        <v>46019.86751157408</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>5.3</v>
+        <v>2</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9176,14 +9176,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 35486-2023</t>
+          <t>A 6369-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45146</v>
+        <v>45699.38993055555</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9233,14 +9233,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 7392-2022</t>
+          <t>A 26248-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44606.63405092592</v>
+        <v>45468.64033564815</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>5.2</v>
+        <v>3.1</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9290,14 +9290,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 26230-2023</t>
+          <t>A 47300-2022</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45091</v>
+        <v>44853</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9309,13 +9309,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G152" t="n">
-        <v>9.4</v>
+        <v>2.4</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9352,14 +9347,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 46339-2024</t>
+          <t>A 47047-2021</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45582.30826388889</v>
+        <v>44446.62215277777</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9372,7 +9367,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9409,14 +9404,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 16395-2021</t>
+          <t>A 62251-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44293</v>
+        <v>45267.61526620371</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9428,8 +9423,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G154" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9466,14 +9466,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 30970-2023</t>
+          <t>A 7392-2022</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45113.48916666667</v>
+        <v>44606.63405092592</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9486,7 +9486,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>4.2</v>
+        <v>5.2</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9523,14 +9523,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 9338-2023</t>
+          <t>A 1094-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44980</v>
+        <v>45665</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9543,7 +9543,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9580,14 +9580,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 6497-2025</t>
+          <t>A 27989-2022</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45699.63719907407</v>
+        <v>44745</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9600,7 +9600,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9637,14 +9637,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 138-2022</t>
+          <t>A 6497-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44560</v>
+        <v>45699.63719907407</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9657,7 +9657,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.3</v>
+        <v>2.6</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9694,14 +9694,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 29798-2024</t>
+          <t>A 26230-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45485.48961805556</v>
+        <v>45091</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9713,8 +9713,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G159" t="n">
-        <v>5.2</v>
+        <v>9.4</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9751,14 +9756,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 12275-2025</t>
+          <t>A 2060-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45729</v>
+        <v>44939</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9771,7 +9776,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>7.5</v>
+        <v>2.6</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9808,14 +9813,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 61925-2023</t>
+          <t>A 2070-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45266.51587962963</v>
+        <v>44939</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9828,7 +9833,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2.2</v>
+        <v>11.6</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -9865,14 +9870,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 39907-2024</t>
+          <t>A 9177-2022</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45553.51288194444</v>
+        <v>44615</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9885,7 +9890,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>6.5</v>
+        <v>1.2</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -9922,14 +9927,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 26792-2024</t>
+          <t>A 30411-2021</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45470</v>
+        <v>44364.53988425926</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9941,13 +9946,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G163" t="n">
-        <v>7.1</v>
+        <v>1.7</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -9984,14 +9984,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 36738-2024</t>
+          <t>A 21369-2021</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45538.29486111111</v>
+        <v>44321.3083449074</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10004,7 +10004,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0.9</v>
+        <v>10.7</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10041,14 +10041,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 19810-2025</t>
+          <t>A 20024-2022</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45771</v>
+        <v>44697.66332175926</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10061,7 +10061,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10098,14 +10098,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 8145-2024</t>
+          <t>A 38186-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45351</v>
+        <v>45161</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10118,7 +10118,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>7.3</v>
+        <v>4.9</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10155,14 +10155,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 60414-2024</t>
+          <t>A 50711-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45643.51864583333</v>
+        <v>45602.38179398148</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10175,7 +10175,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10212,14 +10212,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 24388-2025</t>
+          <t>A 70743-2021</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45797.63533564815</v>
+        <v>44537.63103009259</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10232,7 +10232,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10269,14 +10269,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 25053-2025</t>
+          <t>A 39542-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45799.67575231481</v>
+        <v>45167</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10326,14 +10326,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 24723-2025</t>
+          <t>A 16352-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45799.31555555556</v>
+        <v>45028.69456018518</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10383,14 +10383,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 26229-2025</t>
+          <t>A 39538-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45805.56230324074</v>
+        <v>45167</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.6</v>
+        <v>5.3</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10440,14 +10440,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 26238-2025</t>
+          <t>A 61925-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45805.56920138889</v>
+        <v>45266.51587962963</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>4.6</v>
+        <v>2.2</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10497,14 +10497,14 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 4243-2025</t>
+          <t>A 49025-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45685.58085648148</v>
+        <v>45209.82892361111</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.5</v>
+        <v>5.4</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>

--- a/Översikt HJO.xlsx
+++ b/Översikt HJO.xlsx
@@ -575,7 +575,7 @@
         <v>44272</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44593</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -739,14 +739,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 10014-2025</t>
+          <t>A 26270-2024</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45719.46746527778</v>
+        <v>45468</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -759,22 +759,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
         <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -793,123 +793,123 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
+          <t>Ask</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1497/artfynd/A 26270-2024 artfynd.xlsx", "A 26270-2024")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1497/kartor/A 26270-2024 karta.png", "A 26270-2024")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1497/klagomål/A 26270-2024 FSC-klagomål.docx", "A 26270-2024")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1497/klagomålsmail/A 26270-2024 FSC-klagomål mail.docx", "A 26270-2024")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1497/tillsyn/A 26270-2024 tillsynsbegäran.docx", "A 26270-2024")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1497/tillsynsmail/A 26270-2024 tillsynsbegäran mail.docx", "A 26270-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 10014-2025</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45719.46746527778</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>HJO</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
           <t>Knärot</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1497/artfynd/A 10014-2025 artfynd.xlsx", "A 10014-2025")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1497/kartor/A 10014-2025 karta.png", "A 10014-2025")</f>
         <v/>
       </c>
-      <c r="U4">
+      <c r="U5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1497/knärot/A 10014-2025 karta knärot.png", "A 10014-2025")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1497/klagomål/A 10014-2025 FSC-klagomål.docx", "A 10014-2025")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1497/klagomålsmail/A 10014-2025 FSC-klagomål mail.docx", "A 10014-2025")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1497/tillsyn/A 10014-2025 tillsynsbegäran.docx", "A 10014-2025")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1497/tillsynsmail/A 10014-2025 tillsynsbegäran mail.docx", "A 10014-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 26270-2024</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45468</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>HJO</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Ask</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1497/artfynd/A 26270-2024 artfynd.xlsx", "A 26270-2024")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1497/kartor/A 26270-2024 karta.png", "A 26270-2024")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1497/klagomål/A 26270-2024 FSC-klagomål.docx", "A 26270-2024")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1497/klagomålsmail/A 26270-2024 FSC-klagomål mail.docx", "A 26270-2024")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1497/tillsyn/A 26270-2024 tillsynsbegäran.docx", "A 26270-2024")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1497/tillsynsmail/A 26270-2024 tillsynsbegäran mail.docx", "A 26270-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44799.45684027778</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44729</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44525.73625</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>44616.29740740741</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>44692</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>44866.6278587963</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>44623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>44354.60260416667</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44846</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>44515</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1488,14 +1488,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 55091-2021</t>
+          <t>A 32158-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44474</v>
+        <v>44781</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1545,14 +1545,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 46998-2022</t>
+          <t>A 63257-2021</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44852.25016203704</v>
+        <v>44508</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1602,14 +1602,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 35216-2022</t>
+          <t>A 50783-2021</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44797.86921296296</v>
+        <v>44456</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1659,14 +1659,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 28512-2022</t>
+          <t>A 55091-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44748.35234953704</v>
+        <v>44474</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4.4</v>
+        <v>1.4</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1716,14 +1716,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 58495-2021</t>
+          <t>A 7786-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44488.62511574074</v>
+        <v>44608</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1773,14 +1773,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 32158-2022</t>
+          <t>A 12726-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44781</v>
+        <v>44641</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1830,14 +1830,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 63257-2021</t>
+          <t>A 32814-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44508</v>
+        <v>44784.3796875</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1887,14 +1887,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 7786-2022</t>
+          <t>A 46998-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44608</v>
+        <v>44852.25016203704</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1944,14 +1944,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 32814-2022</t>
+          <t>A 27872-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44784.3796875</v>
+        <v>44354.6397337963</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2001,14 +2001,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 50783-2021</t>
+          <t>A 35771-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44456</v>
+        <v>44386</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2058,14 +2058,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 12726-2022</t>
+          <t>A 47656-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44641</v>
+        <v>44854.45597222223</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2115,14 +2115,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 47656-2022</t>
+          <t>A 7231-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44854.45597222223</v>
+        <v>44606.37339120371</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.9</v>
+        <v>4.7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2172,14 +2172,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 35771-2021</t>
+          <t>A 44965-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44386</v>
+        <v>44438.72671296296</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         <v>44456</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2286,14 +2286,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 27872-2021</t>
+          <t>A 32219-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44354.6397337963</v>
+        <v>44781.43912037037</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2343,14 +2343,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 7231-2022</t>
+          <t>A 22586-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44606.37339120371</v>
+        <v>44714</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>4.7</v>
+        <v>6</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2400,14 +2400,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 44965-2021</t>
+          <t>A 35216-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44438.72671296296</v>
+        <v>44797.86921296296</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2457,14 +2457,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 32219-2022</t>
+          <t>A 12544-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44781.43912037037</v>
+        <v>44638.65868055556</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2514,14 +2514,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 22586-2022</t>
+          <t>A 47300-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44714</v>
+        <v>44853</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2571,14 +2571,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 56175-2021</t>
+          <t>A 9184-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44477</v>
+        <v>44615</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2628,14 +2628,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 12544-2022</t>
+          <t>A 28512-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44638.65868055556</v>
+        <v>44748.35234953704</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.5</v>
+        <v>4.4</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2685,14 +2685,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 9184-2022</t>
+          <t>A 56175-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44615</v>
+        <v>44477</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2742,14 +2742,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 42295-2021</t>
+          <t>A 58495-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44427.35878472222</v>
+        <v>44488.62511574074</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2799,14 +2799,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 9210-2022</t>
+          <t>A 42295-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44616.2996875</v>
+        <v>44427.35878472222</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2856,14 +2856,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 62233-2022</t>
+          <t>A 61700-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44922</v>
+        <v>45265.65236111111</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2875,8 +2875,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G40" t="n">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2913,14 +2918,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 59986-2023</t>
+          <t>A 9210-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45257.81895833334</v>
+        <v>44616.2996875</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2933,7 +2938,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>7.7</v>
+        <v>1.4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2970,14 +2975,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 13694-2024</t>
+          <t>A 16352-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45390</v>
+        <v>45028.69456018518</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2990,7 +2995,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3027,14 +3032,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 40859-2025</t>
+          <t>A 39537-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45897.56069444444</v>
+        <v>45167</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3047,7 +3052,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3084,14 +3089,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 46520-2023</t>
+          <t>A 39540-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45197</v>
+        <v>45167</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3104,7 +3109,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3141,14 +3146,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 29596-2024</t>
+          <t>A 44684-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45484</v>
+        <v>45186</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3161,7 +3166,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3198,14 +3203,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 22050-2023</t>
+          <t>A 2070-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45069</v>
+        <v>44939</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3217,13 +3222,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>2.6</v>
+        <v>11.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3260,14 +3260,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 60413-2024</t>
+          <t>A 2866-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45643.51706018519</v>
+        <v>44945</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3317,14 +3317,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 4272-2023</t>
+          <t>A 724-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44951</v>
+        <v>45300</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3374,14 +3374,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 30970-2023</t>
+          <t>A 37789-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45113.48916666667</v>
+        <v>44810</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3431,14 +3431,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 46339-2024</t>
+          <t>A 57647-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45582.30826388889</v>
+        <v>44897</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3488,14 +3488,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 809-2022</t>
+          <t>A 32518-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44571</v>
+        <v>44782.91590277778</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>4.3</v>
+        <v>2.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3545,14 +3545,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 37789-2022</t>
+          <t>A 50152-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44810</v>
+        <v>45215</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.6</v>
+        <v>4.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3602,14 +3602,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 46762-2023</t>
+          <t>A 49025-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45198</v>
+        <v>45209.82892361111</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.9</v>
+        <v>5.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3659,14 +3659,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 46790-2023</t>
+          <t>A 10670-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45198.69354166667</v>
+        <v>45369.34828703704</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3716,14 +3716,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 62171-2023</t>
+          <t>A 17806-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45267.42585648148</v>
+        <v>44300.64185185185</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3735,13 +3735,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>1.9</v>
+        <v>5.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3778,14 +3773,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 44310-2024</t>
+          <t>A 62233-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45573.57309027778</v>
+        <v>44922</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3798,7 +3793,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3835,14 +3830,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 42292-2025</t>
+          <t>A 2060-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45904.62887731481</v>
+        <v>44939</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3855,7 +3850,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3892,14 +3887,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 39537-2023</t>
+          <t>A 62171-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45167</v>
+        <v>45267.42585648148</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3911,8 +3906,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3949,14 +3949,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 39540-2023</t>
+          <t>A 1108-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45167</v>
+        <v>44935.59246527778</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3969,7 +3969,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4006,14 +4006,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 39907-2024</t>
+          <t>A 26248-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45553.51288194444</v>
+        <v>45468.64033564815</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4026,7 +4026,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4063,14 +4063,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 724-2024</t>
+          <t>A 4783-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45300</v>
+        <v>44957.59467592592</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4120,14 +4120,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 19810-2025</t>
+          <t>A 38186-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45771</v>
+        <v>45161</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.4</v>
+        <v>4.9</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4177,14 +4177,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 26792-2024</t>
+          <t>A 13694-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45470</v>
+        <v>45390</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4196,13 +4196,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>7.1</v>
+        <v>2.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4239,14 +4234,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 36738-2024</t>
+          <t>A 59986-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45538.29486111111</v>
+        <v>45257.81895833334</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4259,7 +4254,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.9</v>
+        <v>7.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4296,14 +4291,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 43370-2025</t>
+          <t>A 47047-2021</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45911.34883101852</v>
+        <v>44446.62215277777</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4316,7 +4311,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4353,14 +4348,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 1108-2023</t>
+          <t>A 62251-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44935.59246527778</v>
+        <v>45267.61526620371</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4372,8 +4367,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4410,14 +4410,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 44684-2023</t>
+          <t>A 46520-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45186</v>
+        <v>45197</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4467,14 +4467,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 9473-2023</t>
+          <t>A 9177-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44981</v>
+        <v>44615</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4524,14 +4524,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 34859-2023</t>
+          <t>A 12554-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45142.30226851852</v>
+        <v>45000.35256944445</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4581,14 +4581,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 2866-2023</t>
+          <t>A 4272-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44945</v>
+        <v>44951</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4638,14 +4638,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 8145-2024</t>
+          <t>A 46762-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45351</v>
+        <v>45198</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>7.3</v>
+        <v>0.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4695,14 +4695,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 24388-2025</t>
+          <t>A 26229-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45797.63533564815</v>
+        <v>45805.56230324074</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4752,14 +4752,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 60414-2024</t>
+          <t>A 26238-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45643.51864583333</v>
+        <v>45805.56920138889</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3.1</v>
+        <v>4.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4809,14 +4809,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 32518-2022</t>
+          <t>A 4243-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44782.91590277778</v>
+        <v>45685.58085648148</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4866,14 +4866,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 16395-2021</t>
+          <t>A 9773-2021</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44293</v>
+        <v>44252</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4923,14 +4923,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 25053-2025</t>
+          <t>A 53839-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45799.67575231481</v>
+        <v>45615.62634259259</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4980,14 +4980,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 24723-2025</t>
+          <t>A 22050-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45799.31555555556</v>
+        <v>45069</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4999,8 +4999,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5037,14 +5042,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 45736-2025</t>
+          <t>A 40629-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45923.46587962963</v>
+        <v>45557.69868055556</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5057,7 +5062,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.4</v>
+        <v>11.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5094,14 +5099,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 26238-2025</t>
+          <t>A 6369-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45805.56920138889</v>
+        <v>45699.38993055555</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5114,7 +5119,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>4.6</v>
+        <v>2.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5151,14 +5156,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 50152-2023</t>
+          <t>A 28211-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45215</v>
+        <v>45818.45789351852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5171,7 +5176,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>4.8</v>
+        <v>3.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5208,14 +5213,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 60318-2024</t>
+          <t>A 7722-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45643.36900462963</v>
+        <v>45349</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5228,7 +5233,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.7</v>
+        <v>1.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5265,14 +5270,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 26229-2025</t>
+          <t>A 25316-2021</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45805.56230324074</v>
+        <v>44342</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5285,7 +5290,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5322,14 +5327,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 45742-2025</t>
+          <t>A 29064-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45923.46953703704</v>
+        <v>45821</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5342,7 +5347,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5379,14 +5384,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 25316-2021</t>
+          <t>A 29019-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44342</v>
+        <v>45821.42359953704</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5399,7 +5404,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5436,14 +5441,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 4243-2025</t>
+          <t>A 29960-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45685.58085648148</v>
+        <v>45826.4806712963</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5456,7 +5461,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5493,14 +5498,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 53846-2024</t>
+          <t>A 44310-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45615.6309837963</v>
+        <v>45573.57309027778</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5513,7 +5518,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5550,14 +5555,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 20469-2021</t>
+          <t>A 59452-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44315</v>
+        <v>45254.37158564815</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5569,13 +5574,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5612,14 +5612,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 12554-2023</t>
+          <t>A 5770-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45000.35256944445</v>
+        <v>44963.37232638889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5669,14 +5669,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 20651-2021</t>
+          <t>A 60318-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44316.41503472222</v>
+        <v>45643.36900462963</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5688,13 +5688,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>5.1</v>
+        <v>3.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5731,14 +5726,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 59988-2024</t>
+          <t>A 14460-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45642.39239583333</v>
+        <v>45010</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5751,7 +5746,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.8</v>
+        <v>5.4</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5788,14 +5783,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 28211-2025</t>
+          <t>A 9473-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45818.45789351852</v>
+        <v>44981</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5808,7 +5803,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5845,14 +5840,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 10670-2024</t>
+          <t>A 30636-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45369.34828703704</v>
+        <v>45112.46046296296</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5864,8 +5859,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5902,14 +5902,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 29064-2025</t>
+          <t>A 39542-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45821</v>
+        <v>45167</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5959,14 +5959,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 29019-2025</t>
+          <t>A 9297-2022</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45821.42359953704</v>
+        <v>44616.47766203704</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6016,14 +6016,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 63239-2021</t>
+          <t>A 70743-2021</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44508.36662037037</v>
+        <v>44537.63103009259</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6073,14 +6073,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 14196-2023</t>
+          <t>A 21369-2021</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45009</v>
+        <v>44321.3083449074</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3.5</v>
+        <v>10.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6130,14 +6130,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 29960-2025</t>
+          <t>A 50711-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45826.4806712963</v>
+        <v>45602.38179398148</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6187,14 +6187,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 59452-2023</t>
+          <t>A 55003-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45254.37158564815</v>
+        <v>45621.32651620371</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6207,7 +6207,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6244,14 +6244,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 48359-2025</t>
+          <t>A 34859-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45933.66196759259</v>
+        <v>45142.30226851852</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6264,7 +6264,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6301,14 +6301,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 14460-2023</t>
+          <t>A 54902-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45010</v>
+        <v>45229</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>5.4</v>
+        <v>0.9</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6358,14 +6358,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 12275-2025</t>
+          <t>A 8814-2022</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45729</v>
+        <v>44614</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6377,8 +6377,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G101" t="n">
-        <v>7.5</v>
+        <v>4.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6415,14 +6420,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 55003-2024</t>
+          <t>A 14196-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45621.32651620371</v>
+        <v>45009</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6435,7 +6440,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.9</v>
+        <v>3.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6472,14 +6477,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 9773-2021</t>
+          <t>A 20469-2021</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44252</v>
+        <v>44315</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6491,8 +6496,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6536,7 +6546,7 @@
         <v>45596.48508101852</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6586,14 +6596,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 49278-2025</t>
+          <t>A 1094-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45938.50790509259</v>
+        <v>45665</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6606,7 +6616,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>4.8</v>
+        <v>0.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6643,14 +6653,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 35316-2025</t>
+          <t>A 59988-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45854.47652777778</v>
+        <v>45642.39239583333</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6662,13 +6672,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6705,14 +6710,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 35319-2025</t>
+          <t>A 53846-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45854.48293981481</v>
+        <v>45615.6309837963</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6724,13 +6729,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6767,14 +6767,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 50093-2025</t>
+          <t>A 20651-2021</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45943.49165509259</v>
+        <v>44316.41503472222</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6786,8 +6786,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>4.3</v>
+        <v>5.1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6824,14 +6829,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 13177-2025</t>
+          <t>A 35316-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45735.37274305556</v>
+        <v>45854.47652777778</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6843,8 +6848,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6881,14 +6891,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 50091-2025</t>
+          <t>A 35319-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45943.48703703703</v>
+        <v>45854.48293981481</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6900,8 +6910,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -6938,14 +6953,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 35768-2025</t>
+          <t>A 13177-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45860</v>
+        <v>45735.37274305556</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6958,7 +6973,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>5.7</v>
+        <v>2.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -6995,14 +7010,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 1635-2025</t>
+          <t>A 35768-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45670</v>
+        <v>45860</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7015,7 +7030,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.8</v>
+        <v>5.7</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7052,14 +7067,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 13703-2024</t>
+          <t>A 46790-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45390</v>
+        <v>45198.69354166667</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7072,7 +7087,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7109,14 +7124,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 36407-2025</t>
+          <t>A 1635-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45868.67938657408</v>
+        <v>45670</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7129,7 +7144,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7166,14 +7181,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 36409-2025</t>
+          <t>A 13703-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45868.68178240741</v>
+        <v>45390</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7186,7 +7201,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7223,14 +7238,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 138-2022</t>
+          <t>A 46787-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44560</v>
+        <v>45198.6809375</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7243,7 +7258,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7280,14 +7295,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 5773-2023</t>
+          <t>A 36407-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44963.37827546296</v>
+        <v>45868.67938657408</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7300,7 +7315,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7337,14 +7352,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 36961-2025</t>
+          <t>A 36409-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45874.62365740741</v>
+        <v>45868.68178240741</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7357,7 +7372,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7394,14 +7409,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 55119-2023</t>
+          <t>A 60413-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45237.47695601852</v>
+        <v>45643.51706018519</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7414,7 +7429,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7451,14 +7466,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 58597-2022</t>
+          <t>A 36961-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44894</v>
+        <v>45874.62365740741</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7471,7 +7486,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7508,14 +7523,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 50932-2025</t>
+          <t>A 29596-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45946.68842592592</v>
+        <v>45484</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7528,7 +7543,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7565,14 +7580,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 37803-2025</t>
+          <t>A 39538-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45881</v>
+        <v>45167</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7585,7 +7600,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>3.3</v>
+        <v>5.3</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7622,14 +7637,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 38052-2025</t>
+          <t>A 35486-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45882</v>
+        <v>45146</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7642,7 +7657,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7679,14 +7694,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 51362-2025</t>
+          <t>A 7392-2022</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45950.44516203704</v>
+        <v>44606.63405092592</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7699,7 +7714,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.6</v>
+        <v>5.2</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7736,14 +7751,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 38054-2025</t>
+          <t>A 55119-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45882</v>
+        <v>45237.47695601852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7793,14 +7808,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 52825-2025</t>
+          <t>A 38052-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45957.46645833334</v>
+        <v>45882</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7813,7 +7828,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7850,14 +7865,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 52831-2025</t>
+          <t>A 37803-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45957.46996527778</v>
+        <v>45881</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7870,7 +7885,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7907,14 +7922,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 53689-2025</t>
+          <t>A 38054-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45960.58104166666</v>
+        <v>45882</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7927,7 +7942,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>10.9</v>
+        <v>0.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -7964,14 +7979,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 29798-2024</t>
+          <t>A 26230-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45485.48961805556</v>
+        <v>45091</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7983,8 +7998,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G129" t="n">
-        <v>5.2</v>
+        <v>9.4</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8021,14 +8041,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 30636-2023</t>
+          <t>A 58597-2022</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45112.46046296296</v>
+        <v>44894</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8038,11 +8058,6 @@
       <c r="E130" t="inlineStr">
         <is>
           <t>HJO</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G130" t="n">
@@ -8083,14 +8098,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 35486-2023</t>
+          <t>A 20024-2022</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45146</v>
+        <v>44697.66332175926</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8103,7 +8118,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8140,14 +8155,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 9297-2022</t>
+          <t>A 46339-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44616.47766203704</v>
+        <v>45582.30826388889</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8160,7 +8175,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8197,14 +8212,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 8814-2022</t>
+          <t>A 5773-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44614</v>
+        <v>44963.37827546296</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8216,13 +8231,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G133" t="n">
-        <v>4.6</v>
+        <v>1.5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8259,14 +8269,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 60071-2025</t>
+          <t>A 30411-2021</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45993.67202546296</v>
+        <v>44364.53988425926</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8279,7 +8289,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8316,14 +8326,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 9338-2023</t>
+          <t>A 809-2022</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44980</v>
+        <v>44571</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8336,7 +8346,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.7</v>
+        <v>4.3</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8373,14 +8383,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 57647-2022</t>
+          <t>A 16395-2021</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44897</v>
+        <v>44293</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8393,7 +8403,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>8.699999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8430,14 +8440,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 40629-2024</t>
+          <t>A 27989-2022</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45557.69868055556</v>
+        <v>44745</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8450,7 +8460,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>11.5</v>
+        <v>2.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8487,14 +8497,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 61700-2023</t>
+          <t>A 63239-2021</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45265.65236111111</v>
+        <v>44508.36662037037</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8506,13 +8516,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G138" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8549,14 +8554,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 3569-2026</t>
+          <t>A 30970-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>46042.67932870371</v>
+        <v>45113.48916666667</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8569,7 +8574,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8606,14 +8611,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 53839-2024</t>
+          <t>A 9338-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45615.62634259259</v>
+        <v>44980</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8626,7 +8631,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8663,14 +8668,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 46787-2023</t>
+          <t>A 40859-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45198.6809375</v>
+        <v>45897.56069444444</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8683,7 +8688,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>8.800000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8720,14 +8725,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 54902-2023</t>
+          <t>A 42292-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45229</v>
+        <v>45904.62887731481</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8740,7 +8745,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8777,14 +8782,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 4783-2023</t>
+          <t>A 6497-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44957.59467592592</v>
+        <v>45699.63719907407</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8797,7 +8802,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8834,14 +8839,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 7722-2024</t>
+          <t>A 138-2022</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45349</v>
+        <v>44560</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8854,7 +8859,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8891,14 +8896,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 6705-2026</t>
+          <t>A 29798-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>46056</v>
+        <v>45485.48961805556</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8911,7 +8916,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>6.3</v>
+        <v>5.2</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8948,14 +8953,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 17806-2021</t>
+          <t>A 43370-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44300.64185185185</v>
+        <v>45911.34883101852</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8968,7 +8973,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>5.7</v>
+        <v>1.9</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9005,14 +9010,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 6686-2026</t>
+          <t>A 12275-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>46056.62666666666</v>
+        <v>45729</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9025,7 +9030,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9062,14 +9067,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 5770-2023</t>
+          <t>A 61925-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44963.37232638889</v>
+        <v>45266.51587962963</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9082,7 +9087,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9119,14 +9124,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 63802-2025</t>
+          <t>A 45742-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>46019.86751157408</v>
+        <v>45923.46953703704</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9139,7 +9144,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9176,14 +9181,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 6369-2025</t>
+          <t>A 45736-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45699.38993055555</v>
+        <v>45923.46587962963</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9196,7 +9201,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9233,14 +9238,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 26248-2024</t>
+          <t>A 39907-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45468.64033564815</v>
+        <v>45553.51288194444</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9253,7 +9258,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9290,14 +9295,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 47300-2022</t>
+          <t>A 26792-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44853</v>
+        <v>45470</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9309,8 +9314,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G152" t="n">
-        <v>2.4</v>
+        <v>7.1</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9347,14 +9357,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 47047-2021</t>
+          <t>A 36738-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44446.62215277777</v>
+        <v>45538.29486111111</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9367,7 +9377,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9404,14 +9414,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 62251-2023</t>
+          <t>A 48359-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45267.61526620371</v>
+        <v>45933.66196759259</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9423,13 +9433,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G154" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9466,14 +9471,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 7392-2022</t>
+          <t>A 19810-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44606.63405092592</v>
+        <v>45771</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9486,7 +9491,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>5.2</v>
+        <v>0.4</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9523,14 +9528,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 1094-2025</t>
+          <t>A 49278-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45665</v>
+        <v>45938.50790509259</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9543,7 +9548,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.8</v>
+        <v>4.8</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9580,14 +9585,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 27989-2022</t>
+          <t>A 50093-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44745</v>
+        <v>45943.49165509259</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9600,7 +9605,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.5</v>
+        <v>4.3</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9637,14 +9642,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 6497-2025</t>
+          <t>A 50091-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45699.63719907407</v>
+        <v>45943.48703703703</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9657,7 +9662,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2.6</v>
+        <v>4.1</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9694,14 +9699,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 26230-2023</t>
+          <t>A 50932-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45091</v>
+        <v>45946.68842592592</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9713,13 +9718,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G159" t="n">
-        <v>9.4</v>
+        <v>2.1</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9756,14 +9756,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 2060-2023</t>
+          <t>A 51362-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44939</v>
+        <v>45950.44516203704</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9813,14 +9813,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 2070-2023</t>
+          <t>A 8145-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44939</v>
+        <v>45351</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9833,7 +9833,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>11.6</v>
+        <v>7.3</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -9870,14 +9870,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 9177-2022</t>
+          <t>A 52825-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44615</v>
+        <v>45957.46645833334</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9890,7 +9890,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -9927,14 +9927,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 30411-2021</t>
+          <t>A 60414-2024</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44364.53988425926</v>
+        <v>45643.51864583333</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9947,7 +9947,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -9984,14 +9984,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 21369-2021</t>
+          <t>A 52831-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44321.3083449074</v>
+        <v>45957.46996527778</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10004,7 +10004,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>10.7</v>
+        <v>2.5</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10041,14 +10041,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 20024-2022</t>
+          <t>A 53689-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44697.66332175926</v>
+        <v>45960.58104166666</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10061,7 +10061,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.4</v>
+        <v>10.9</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10098,14 +10098,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 38186-2023</t>
+          <t>A 24388-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45161</v>
+        <v>45797.63533564815</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10118,7 +10118,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>4.9</v>
+        <v>1.6</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10155,14 +10155,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 50711-2024</t>
+          <t>A 25053-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45602.38179398148</v>
+        <v>45799.67575231481</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10175,7 +10175,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10212,14 +10212,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 70743-2021</t>
+          <t>A 24723-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44537.63103009259</v>
+        <v>45799.31555555556</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10232,7 +10232,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10269,14 +10269,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 39542-2023</t>
+          <t>A 60071-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45167</v>
+        <v>45993.67202546296</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10326,14 +10326,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 16352-2023</t>
+          <t>A 3569-2026</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45028.69456018518</v>
+        <v>46042.67932870371</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10383,14 +10383,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 39538-2023</t>
+          <t>A 6686-2026</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45167</v>
+        <v>46056.62666666666</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>5.3</v>
+        <v>4</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10440,14 +10440,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 61925-2023</t>
+          <t>A 6705-2026</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45266.51587962963</v>
+        <v>46056</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2.2</v>
+        <v>6.3</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10497,14 +10497,14 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 49025-2023</t>
+          <t>A 63802-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45209.82892361111</v>
+        <v>46019.86751157408</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>5.4</v>
+        <v>2</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>

--- a/Översikt HJO.xlsx
+++ b/Översikt HJO.xlsx
@@ -575,7 +575,7 @@
         <v>44272</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44593</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>45468</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>45719.46746527778</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44799.45684027778</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44729</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44525.73625</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>44616.29740740741</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>44692</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>44866.6278587963</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>44623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>44354.60260416667</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44846</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>44515</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1488,14 +1488,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 32158-2022</t>
+          <t>A 55091-2021</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44781</v>
+        <v>44474</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1545,14 +1545,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 63257-2021</t>
+          <t>A 46998-2022</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44508</v>
+        <v>44852.25016203704</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1602,14 +1602,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 50783-2021</t>
+          <t>A 35216-2022</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44456</v>
+        <v>44797.86921296296</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1659,14 +1659,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 55091-2021</t>
+          <t>A 58495-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44474</v>
+        <v>44488.62511574074</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1716,14 +1716,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 7786-2022</t>
+          <t>A 28512-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44608</v>
+        <v>44748.35234953704</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.1</v>
+        <v>4.4</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1773,14 +1773,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 12726-2022</t>
+          <t>A 32158-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44641</v>
+        <v>44781</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1830,14 +1830,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 32814-2022</t>
+          <t>A 63257-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44784.3796875</v>
+        <v>44508</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1887,14 +1887,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 46998-2022</t>
+          <t>A 7786-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44852.25016203704</v>
+        <v>44608</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1944,14 +1944,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 27872-2021</t>
+          <t>A 32814-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44354.6397337963</v>
+        <v>44784.3796875</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2001,14 +2001,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 35771-2021</t>
+          <t>A 50783-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44386</v>
+        <v>44456</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2058,14 +2058,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 47656-2022</t>
+          <t>A 12726-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44854.45597222223</v>
+        <v>44641</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2115,14 +2115,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 7231-2022</t>
+          <t>A 35771-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44606.37339120371</v>
+        <v>44386</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>4.7</v>
+        <v>2.2</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2172,14 +2172,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 44965-2021</t>
+          <t>A 47656-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44438.72671296296</v>
+        <v>44854.45597222223</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         <v>44456</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2286,14 +2286,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 32219-2022</t>
+          <t>A 27872-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44781.43912037037</v>
+        <v>44354.6397337963</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2343,14 +2343,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 22586-2022</t>
+          <t>A 7231-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44714</v>
+        <v>44606.37339120371</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>6</v>
+        <v>4.7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2400,14 +2400,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 35216-2022</t>
+          <t>A 44965-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44797.86921296296</v>
+        <v>44438.72671296296</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2457,14 +2457,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 12544-2022</t>
+          <t>A 32219-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44638.65868055556</v>
+        <v>44781.43912037037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2514,14 +2514,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 47300-2022</t>
+          <t>A 22586-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44853</v>
+        <v>44714</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2571,14 +2571,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 9184-2022</t>
+          <t>A 56175-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44615</v>
+        <v>44477</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2628,14 +2628,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 28512-2022</t>
+          <t>A 12544-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44748.35234953704</v>
+        <v>44638.65868055556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4.4</v>
+        <v>0.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2685,14 +2685,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 56175-2021</t>
+          <t>A 9184-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44477</v>
+        <v>44615</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2742,14 +2742,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 58495-2021</t>
+          <t>A 42295-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44488.62511574074</v>
+        <v>44427.35878472222</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2799,14 +2799,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 42295-2021</t>
+          <t>A 9210-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44427.35878472222</v>
+        <v>44616.2996875</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2856,14 +2856,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 61700-2023</t>
+          <t>A 62233-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45265.65236111111</v>
+        <v>44922</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2875,13 +2875,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G40" t="n">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2918,14 +2913,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 9210-2022</t>
+          <t>A 59986-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44616.2996875</v>
+        <v>45257.81895833334</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2938,7 +2933,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.4</v>
+        <v>7.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2975,14 +2970,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 16352-2023</t>
+          <t>A 22050-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45028.69456018518</v>
+        <v>45069</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2994,8 +2989,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3032,14 +3032,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 39537-2023</t>
+          <t>A 60413-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45167</v>
+        <v>45643.51706018519</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3089,14 +3089,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 39540-2023</t>
+          <t>A 30970-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45167</v>
+        <v>45113.48916666667</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3146,14 +3146,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 44684-2023</t>
+          <t>A 46339-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45186</v>
+        <v>45582.30826388889</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3203,14 +3203,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 2070-2023</t>
+          <t>A 46762-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44939</v>
+        <v>45198</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>11.6</v>
+        <v>0.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3260,14 +3260,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 2866-2023</t>
+          <t>A 46790-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44945</v>
+        <v>45198.69354166667</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3317,14 +3317,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 724-2024</t>
+          <t>A 44310-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45300</v>
+        <v>45573.57309027778</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3374,14 +3374,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 37789-2022</t>
+          <t>A 39537-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44810</v>
+        <v>45167</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3431,14 +3431,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 57647-2022</t>
+          <t>A 39540-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44897</v>
+        <v>45167</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>8.699999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3488,14 +3488,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 32518-2022</t>
+          <t>A 724-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44782.91590277778</v>
+        <v>45300</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3545,14 +3545,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 50152-2023</t>
+          <t>A 8145-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45215</v>
+        <v>45351</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4.8</v>
+        <v>7.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3602,14 +3602,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 49025-2023</t>
+          <t>A 24388-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45209.82892361111</v>
+        <v>45797.63533564815</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>5.4</v>
+        <v>1.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3659,14 +3659,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 10670-2024</t>
+          <t>A 60414-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45369.34828703704</v>
+        <v>45643.51864583333</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3716,14 +3716,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 17806-2021</t>
+          <t>A 25053-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44300.64185185185</v>
+        <v>45799.67575231481</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>5.7</v>
+        <v>1.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3773,14 +3773,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 62233-2022</t>
+          <t>A 24723-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44922</v>
+        <v>45799.31555555556</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>5</v>
+        <v>1.2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3830,14 +3830,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 2060-2023</t>
+          <t>A 1108-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44939</v>
+        <v>44935.59246527778</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3887,14 +3887,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 62171-2023</t>
+          <t>A 63802-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45267.42585648148</v>
+        <v>46019.86751157408</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3906,13 +3906,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3949,14 +3944,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 1108-2023</t>
+          <t>A 44684-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44935.59246527778</v>
+        <v>45186</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3969,7 +3964,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4006,14 +4001,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 26248-2024</t>
+          <t>A 9473-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45468.64033564815</v>
+        <v>44981</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4026,7 +4021,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4063,14 +4058,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 4783-2023</t>
+          <t>A 34859-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44957.59467592592</v>
+        <v>45142.30226851852</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4083,7 +4078,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4120,14 +4115,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 38186-2023</t>
+          <t>A 26238-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45161</v>
+        <v>45805.56920138889</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4140,7 +4135,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4177,14 +4172,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 13694-2024</t>
+          <t>A 2866-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45390</v>
+        <v>44945</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4197,7 +4192,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4234,14 +4229,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 59986-2023</t>
+          <t>A 26229-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45257.81895833334</v>
+        <v>45805.56230324074</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4254,7 +4249,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>7.7</v>
+        <v>1.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4291,14 +4286,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 47047-2021</t>
+          <t>A 4243-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44446.62215277777</v>
+        <v>45685.58085648148</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4311,7 +4306,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4348,14 +4343,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 62251-2023</t>
+          <t>A 32518-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45267.61526620371</v>
+        <v>44782.91590277778</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4367,13 +4362,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4410,14 +4400,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 46520-2023</t>
+          <t>A 16395-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45197</v>
+        <v>44293</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4467,14 +4457,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 9177-2022</t>
+          <t>A 28211-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44615</v>
+        <v>45818.45789351852</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4487,7 +4477,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4524,14 +4514,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 12554-2023</t>
+          <t>A 50152-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45000.35256944445</v>
+        <v>45215</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4544,7 +4534,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2</v>
+        <v>4.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4581,14 +4571,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 4272-2023</t>
+          <t>A 60318-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44951</v>
+        <v>45643.36900462963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4601,7 +4591,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4638,14 +4628,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 46762-2023</t>
+          <t>A 29064-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45198</v>
+        <v>45821</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4658,7 +4648,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4695,14 +4685,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 26229-2025</t>
+          <t>A 29019-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45805.56230324074</v>
+        <v>45821.42359953704</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4752,14 +4742,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 26238-2025</t>
+          <t>A 25316-2021</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45805.56920138889</v>
+        <v>44342</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4772,7 +4762,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>4.6</v>
+        <v>0.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4809,14 +4799,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 4243-2025</t>
+          <t>A 53846-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45685.58085648148</v>
+        <v>45615.6309837963</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4829,7 +4819,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4866,14 +4856,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 9773-2021</t>
+          <t>A 29960-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44252</v>
+        <v>45826.4806712963</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4886,7 +4876,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4923,14 +4913,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 53839-2024</t>
+          <t>A 59452-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45615.62634259259</v>
+        <v>45254.37158564815</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4943,7 +4933,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4980,14 +4970,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 22050-2023</t>
+          <t>A 20469-2021</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45069</v>
+        <v>44315</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5001,11 +4991,11 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5042,14 +5032,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 40629-2024</t>
+          <t>A 12554-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45557.69868055556</v>
+        <v>45000.35256944445</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5062,7 +5052,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>11.5</v>
+        <v>2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5099,14 +5089,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 6369-2025</t>
+          <t>A 20651-2021</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45699.38993055555</v>
+        <v>44316.41503472222</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5118,8 +5108,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>2.3</v>
+        <v>5.1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5156,14 +5151,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 28211-2025</t>
+          <t>A 59988-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45818.45789351852</v>
+        <v>45642.39239583333</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5176,7 +5171,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5213,14 +5208,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 7722-2024</t>
+          <t>A 10670-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45349</v>
+        <v>45369.34828703704</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5233,7 +5228,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5270,14 +5265,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 25316-2021</t>
+          <t>A 40859-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44342</v>
+        <v>45897.56069444444</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5290,7 +5285,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5327,14 +5322,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 29064-2025</t>
+          <t>A 63239-2021</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45821</v>
+        <v>44508.36662037037</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5384,14 +5379,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 29019-2025</t>
+          <t>A 14196-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45821.42359953704</v>
+        <v>45009</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5404,7 +5399,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5441,14 +5436,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 29960-2025</t>
+          <t>A 35316-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45826.4806712963</v>
+        <v>45854.47652777778</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5460,8 +5455,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5498,14 +5498,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 44310-2024</t>
+          <t>A 35319-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45573.57309027778</v>
+        <v>45854.48293981481</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5517,8 +5517,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G86" t="n">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5555,14 +5560,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 59452-2023</t>
+          <t>A 13177-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45254.37158564815</v>
+        <v>45735.37274305556</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5575,7 +5580,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5612,14 +5617,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 5770-2023</t>
+          <t>A 14460-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44963.37232638889</v>
+        <v>45010</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5632,7 +5637,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.7</v>
+        <v>5.4</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5669,14 +5674,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 60318-2024</t>
+          <t>A 12275-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45643.36900462963</v>
+        <v>45729</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5689,7 +5694,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3.7</v>
+        <v>7.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5726,14 +5731,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 14460-2023</t>
+          <t>A 35768-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45010</v>
+        <v>45860</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5746,7 +5751,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5783,14 +5788,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 9473-2023</t>
+          <t>A 1635-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44981</v>
+        <v>45670</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5803,7 +5808,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5840,14 +5845,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 30636-2023</t>
+          <t>A 55003-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45112.46046296296</v>
+        <v>45621.32651620371</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5859,13 +5864,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5902,14 +5902,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 39542-2023</t>
+          <t>A 42292-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45167</v>
+        <v>45904.62887731481</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5959,14 +5959,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 9297-2022</t>
+          <t>A 9773-2021</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44616.47766203704</v>
+        <v>44252</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6016,14 +6016,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 70743-2021</t>
+          <t>A 36407-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44537.63103009259</v>
+        <v>45868.67938657408</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6073,14 +6073,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 21369-2021</t>
+          <t>A 36409-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44321.3083449074</v>
+        <v>45868.68178240741</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>10.7</v>
+        <v>0.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6130,14 +6130,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 50711-2024</t>
+          <t>A 49564-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45602.38179398148</v>
+        <v>45596.48508101852</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6187,14 +6187,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 55003-2024</t>
+          <t>A 36961-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45621.32651620371</v>
+        <v>45874.62365740741</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6207,7 +6207,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6244,14 +6244,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 34859-2023</t>
+          <t>A 43370-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45142.30226851852</v>
+        <v>45911.34883101852</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6264,7 +6264,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6301,14 +6301,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 54902-2023</t>
+          <t>A 37803-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45229</v>
+        <v>45881</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.9</v>
+        <v>3.3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6358,14 +6358,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 8814-2022</t>
+          <t>A 38052-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44614</v>
+        <v>45882</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6377,13 +6377,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>4.6</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6420,14 +6415,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 14196-2023</t>
+          <t>A 38054-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45009</v>
+        <v>45882</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6440,7 +6435,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3.5</v>
+        <v>0.6</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6477,14 +6472,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 20469-2021</t>
+          <t>A 13703-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44315</v>
+        <v>45390</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6496,13 +6491,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6539,14 +6529,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 49564-2024</t>
+          <t>A 138-2022</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45596.48508101852</v>
+        <v>44560</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6559,7 +6549,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6596,14 +6586,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 1094-2025</t>
+          <t>A 45736-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45665</v>
+        <v>45923.46587962963</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6616,7 +6606,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6653,14 +6643,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 59988-2024</t>
+          <t>A 5773-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45642.39239583333</v>
+        <v>44963.37827546296</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6673,7 +6663,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6710,14 +6700,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 53846-2024</t>
+          <t>A 45742-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45615.6309837963</v>
+        <v>45923.46953703704</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6730,7 +6720,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6767,14 +6757,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 20651-2021</t>
+          <t>A 55119-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44316.41503472222</v>
+        <v>45237.47695601852</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6786,13 +6776,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>5.1</v>
+        <v>0.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6829,14 +6814,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 35316-2025</t>
+          <t>A 58597-2022</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45854.47652777778</v>
+        <v>44894</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6848,13 +6833,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6891,14 +6871,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 35319-2025</t>
+          <t>A 48359-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45854.48293981481</v>
+        <v>45933.66196759259</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6910,13 +6890,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G110" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -6953,14 +6928,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 13177-2025</t>
+          <t>A 49278-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45735.37274305556</v>
+        <v>45938.50790509259</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6973,7 +6948,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.4</v>
+        <v>4.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7010,14 +6985,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 35768-2025</t>
+          <t>A 50093-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45860</v>
+        <v>45943.49165509259</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7030,7 +7005,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>5.7</v>
+        <v>4.3</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7067,14 +7042,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 46790-2023</t>
+          <t>A 50091-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45198.69354166667</v>
+        <v>45943.48703703703</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7087,7 +7062,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>4.1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7124,14 +7099,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 1635-2025</t>
+          <t>A 50932-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45670</v>
+        <v>45946.68842592592</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7144,7 +7119,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7181,14 +7156,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 13703-2024</t>
+          <t>A 29798-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45390</v>
+        <v>45485.48961805556</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7201,7 +7176,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.6</v>
+        <v>5.2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7238,14 +7213,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 46787-2023</t>
+          <t>A 51362-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45198.6809375</v>
+        <v>45950.44516203704</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7258,7 +7233,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>8.800000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7295,14 +7270,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 36407-2025</t>
+          <t>A 30636-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45868.67938657408</v>
+        <v>45112.46046296296</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7314,8 +7289,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7352,14 +7332,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 36409-2025</t>
+          <t>A 35486-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45868.68178240741</v>
+        <v>45146</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7372,7 +7352,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7409,14 +7389,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 60413-2024</t>
+          <t>A 52825-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45643.51706018519</v>
+        <v>45957.46645833334</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7429,7 +7409,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7466,14 +7446,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 36961-2025</t>
+          <t>A 52831-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45874.62365740741</v>
+        <v>45957.46996527778</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7486,7 +7466,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7523,14 +7503,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 29596-2024</t>
+          <t>A 9297-2022</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45484</v>
+        <v>44616.47766203704</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7543,7 +7523,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7580,14 +7560,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 39538-2023</t>
+          <t>A 8814-2022</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45167</v>
+        <v>44614</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7599,8 +7579,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G122" t="n">
-        <v>5.3</v>
+        <v>4.6</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7637,14 +7622,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 35486-2023</t>
+          <t>A 53689-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45146</v>
+        <v>45960.58104166666</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7657,7 +7642,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.9</v>
+        <v>10.9</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7694,14 +7679,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 7392-2022</t>
+          <t>A 9338-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44606.63405092592</v>
+        <v>44980</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7714,7 +7699,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>5.2</v>
+        <v>0.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7751,14 +7736,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 55119-2023</t>
+          <t>A 57647-2022</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45237.47695601852</v>
+        <v>44897</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7771,7 +7756,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7808,14 +7793,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 38052-2025</t>
+          <t>A 40629-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45882</v>
+        <v>45557.69868055556</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7828,7 +7813,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1</v>
+        <v>11.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7865,14 +7850,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 37803-2025</t>
+          <t>A 61700-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45881</v>
+        <v>45265.65236111111</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7884,8 +7869,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G127" t="n">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7922,14 +7912,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 38054-2025</t>
+          <t>A 53839-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45882</v>
+        <v>45615.62634259259</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7979,14 +7969,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 26230-2023</t>
+          <t>A 46787-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45091</v>
+        <v>45198.6809375</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7998,13 +7988,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G129" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8041,14 +8026,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 58597-2022</t>
+          <t>A 54902-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44894</v>
+        <v>45229</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8061,7 +8046,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8098,14 +8083,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 20024-2022</t>
+          <t>A 60071-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44697.66332175926</v>
+        <v>45993.67202546296</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8118,7 +8103,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8155,14 +8140,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 46339-2024</t>
+          <t>A 4783-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45582.30826388889</v>
+        <v>44957.59467592592</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8175,7 +8160,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8212,14 +8197,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 5773-2023</t>
+          <t>A 7722-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44963.37827546296</v>
+        <v>45349</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8232,7 +8217,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8269,14 +8254,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 30411-2021</t>
+          <t>A 17806-2021</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44364.53988425926</v>
+        <v>44300.64185185185</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8289,7 +8274,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.7</v>
+        <v>5.7</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8326,14 +8311,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 809-2022</t>
+          <t>A 3569-2026</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44571</v>
+        <v>46042.67932870371</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8346,7 +8331,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>4.3</v>
+        <v>2.2</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8383,14 +8368,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 16395-2021</t>
+          <t>A 5770-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44293</v>
+        <v>44963.37232638889</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8403,7 +8388,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8440,14 +8425,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 27989-2022</t>
+          <t>A 6369-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44745</v>
+        <v>45699.38993055555</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8460,7 +8445,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8497,14 +8482,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 63239-2021</t>
+          <t>A 26248-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44508.36662037037</v>
+        <v>45468.64033564815</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8517,7 +8502,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8554,14 +8539,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 30970-2023</t>
+          <t>A 47300-2022</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45113.48916666667</v>
+        <v>44853</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8574,7 +8559,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8611,14 +8596,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 9338-2023</t>
+          <t>A 47047-2021</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44980</v>
+        <v>44446.62215277777</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8631,7 +8616,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8668,14 +8653,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 40859-2025</t>
+          <t>A 62251-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45897.56069444444</v>
+        <v>45267.61526620371</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8687,8 +8672,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G141" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8725,14 +8715,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 42292-2025</t>
+          <t>A 7392-2022</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45904.62887731481</v>
+        <v>44606.63405092592</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8745,7 +8735,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.6</v>
+        <v>5.2</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8782,14 +8772,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 6497-2025</t>
+          <t>A 1094-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45699.63719907407</v>
+        <v>45665</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8802,7 +8792,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8839,14 +8829,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 138-2022</t>
+          <t>A 27989-2022</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44560</v>
+        <v>44745</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8859,7 +8849,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.3</v>
+        <v>2.5</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8896,14 +8886,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 29798-2024</t>
+          <t>A 6497-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45485.48961805556</v>
+        <v>45699.63719907407</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8916,7 +8906,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>5.2</v>
+        <v>2.6</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8953,14 +8943,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 43370-2025</t>
+          <t>A 6705-2026</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45911.34883101852</v>
+        <v>46056</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8973,7 +8963,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.9</v>
+        <v>6.3</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9010,14 +9000,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 12275-2025</t>
+          <t>A 6686-2026</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45729</v>
+        <v>46056.62666666666</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9030,7 +9020,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9067,14 +9057,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 61925-2023</t>
+          <t>A 26230-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45266.51587962963</v>
+        <v>45091</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9086,8 +9076,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G148" t="n">
-        <v>2.2</v>
+        <v>9.4</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9124,14 +9119,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 45742-2025</t>
+          <t>A 2060-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45923.46953703704</v>
+        <v>44939</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9144,7 +9139,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9181,14 +9176,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 45736-2025</t>
+          <t>A 2070-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45923.46587962963</v>
+        <v>44939</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9201,7 +9196,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.4</v>
+        <v>11.6</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9238,14 +9233,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 39907-2024</t>
+          <t>A 9177-2022</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45553.51288194444</v>
+        <v>44615</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9258,7 +9253,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>6.5</v>
+        <v>1.2</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9295,14 +9290,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 26792-2024</t>
+          <t>A 30411-2021</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45470</v>
+        <v>44364.53988425926</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9314,13 +9309,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G152" t="n">
-        <v>7.1</v>
+        <v>1.7</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9357,14 +9347,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 36738-2024</t>
+          <t>A 21369-2021</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45538.29486111111</v>
+        <v>44321.3083449074</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9377,7 +9367,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.9</v>
+        <v>10.7</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9414,14 +9404,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 48359-2025</t>
+          <t>A 20024-2022</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45933.66196759259</v>
+        <v>44697.66332175926</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9434,7 +9424,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9471,14 +9461,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 19810-2025</t>
+          <t>A 38186-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45771</v>
+        <v>45161</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9491,7 +9481,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.4</v>
+        <v>4.9</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9528,14 +9518,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 49278-2025</t>
+          <t>A 50711-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45938.50790509259</v>
+        <v>45602.38179398148</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9548,7 +9538,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>4.8</v>
+        <v>1</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9585,14 +9575,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 50093-2025</t>
+          <t>A 70743-2021</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45943.49165509259</v>
+        <v>44537.63103009259</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9605,7 +9595,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>4.3</v>
+        <v>2.7</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9642,14 +9632,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 50091-2025</t>
+          <t>A 39542-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45943.48703703703</v>
+        <v>45167</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9662,7 +9652,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>4.1</v>
+        <v>0.6</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9699,14 +9689,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 50932-2025</t>
+          <t>A 16352-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45946.68842592592</v>
+        <v>45028.69456018518</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9719,7 +9709,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9756,14 +9746,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 51362-2025</t>
+          <t>A 39538-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45950.44516203704</v>
+        <v>45167</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9776,7 +9766,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0.6</v>
+        <v>5.3</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9813,14 +9803,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 8145-2024</t>
+          <t>A 61925-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45351</v>
+        <v>45266.51587962963</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9833,7 +9823,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>7.3</v>
+        <v>2.2</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -9870,14 +9860,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 52825-2025</t>
+          <t>A 49025-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45957.46645833334</v>
+        <v>45209.82892361111</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9890,7 +9880,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.6</v>
+        <v>5.4</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -9927,14 +9917,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 60414-2024</t>
+          <t>A 13694-2024</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45643.51864583333</v>
+        <v>45390</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9947,7 +9937,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -9984,14 +9974,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 52831-2025</t>
+          <t>A 46520-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45957.46996527778</v>
+        <v>45197</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10004,7 +9994,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10041,14 +10031,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 53689-2025</t>
+          <t>A 29596-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45960.58104166666</v>
+        <v>45484</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10061,7 +10051,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>10.9</v>
+        <v>0.8</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10098,14 +10088,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 24388-2025</t>
+          <t>A 4272-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45797.63533564815</v>
+        <v>44951</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10118,7 +10108,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10155,14 +10145,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 25053-2025</t>
+          <t>A 809-2022</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45799.67575231481</v>
+        <v>44571</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10175,7 +10165,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.7</v>
+        <v>4.3</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10212,14 +10202,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 24723-2025</t>
+          <t>A 37789-2022</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45799.31555555556</v>
+        <v>44810</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10232,7 +10222,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10269,14 +10259,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 60071-2025</t>
+          <t>A 62171-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45993.67202546296</v>
+        <v>45267.42585648148</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10288,8 +10278,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G169" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10326,14 +10321,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 3569-2026</t>
+          <t>A 39907-2024</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>46042.67932870371</v>
+        <v>45553.51288194444</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10346,7 +10341,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>2.2</v>
+        <v>6.5</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10383,14 +10378,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 6686-2026</t>
+          <t>A 19810-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>46056.62666666666</v>
+        <v>45771</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10403,7 +10398,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>4</v>
+        <v>0.4</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10440,14 +10435,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 6705-2026</t>
+          <t>A 26792-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>46056</v>
+        <v>45470</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10459,8 +10454,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G172" t="n">
-        <v>6.3</v>
+        <v>7.1</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10497,14 +10497,14 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 63802-2025</t>
+          <t>A 36738-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>46019.86751157408</v>
+        <v>45538.29486111111</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>

--- a/Översikt HJO.xlsx
+++ b/Översikt HJO.xlsx
@@ -575,7 +575,7 @@
         <v>44272</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44593</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -739,14 +739,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 26270-2024</t>
+          <t>A 10014-2025</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45468</v>
+        <v>45719.46746527778</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -759,10 +759,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -771,10 +771,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -793,123 +793,123 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1497/artfynd/A 10014-2025 artfynd.xlsx", "A 10014-2025")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1497/kartor/A 10014-2025 karta.png", "A 10014-2025")</f>
+        <v/>
+      </c>
+      <c r="U4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1497/knärot/A 10014-2025 karta knärot.png", "A 10014-2025")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1497/klagomål/A 10014-2025 FSC-klagomål.docx", "A 10014-2025")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1497/klagomålsmail/A 10014-2025 FSC-klagomål mail.docx", "A 10014-2025")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1497/tillsyn/A 10014-2025 tillsynsbegäran.docx", "A 10014-2025")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1497/tillsynsmail/A 10014-2025 tillsynsbegäran mail.docx", "A 10014-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 26270-2024</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45468</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>HJO</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
           <t>Ask</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1497/artfynd/A 26270-2024 artfynd.xlsx", "A 26270-2024")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1497/kartor/A 26270-2024 karta.png", "A 26270-2024")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1497/klagomål/A 26270-2024 FSC-klagomål.docx", "A 26270-2024")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1497/klagomålsmail/A 26270-2024 FSC-klagomål mail.docx", "A 26270-2024")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1497/tillsyn/A 26270-2024 tillsynsbegäran.docx", "A 26270-2024")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1497/tillsynsmail/A 26270-2024 tillsynsbegäran mail.docx", "A 26270-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 10014-2025</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45719.46746527778</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>HJO</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Knärot</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1497/artfynd/A 10014-2025 artfynd.xlsx", "A 10014-2025")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1497/kartor/A 10014-2025 karta.png", "A 10014-2025")</f>
-        <v/>
-      </c>
-      <c r="U5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1497/knärot/A 10014-2025 karta knärot.png", "A 10014-2025")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1497/klagomål/A 10014-2025 FSC-klagomål.docx", "A 10014-2025")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1497/klagomålsmail/A 10014-2025 FSC-klagomål mail.docx", "A 10014-2025")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1497/tillsyn/A 10014-2025 tillsynsbegäran.docx", "A 10014-2025")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1497/tillsynsmail/A 10014-2025 tillsynsbegäran mail.docx", "A 10014-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44799.45684027778</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44729</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44525.73625</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>44616.29740740741</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>44692</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>44866.6278587963</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>44623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>44354.60260416667</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44846</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>44515</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         <v>44474</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>44852.25016203704</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>44797.86921296296</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1659,14 +1659,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 58495-2021</t>
+          <t>A 28512-2022</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44488.62511574074</v>
+        <v>44748.35234953704</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>4.4</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1716,14 +1716,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 28512-2022</t>
+          <t>A 58495-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44748.35234953704</v>
+        <v>44488.62511574074</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>4.4</v>
+        <v>3</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>44781</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>44508</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>44608</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>44784.3796875</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>44456</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>44641</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>44386</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>44854.45597222223</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>44456</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>44354.6397337963</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>44606.37339120371</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>44438.72671296296</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>44781.43912037037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>44714</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>44477</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>44638.65868055556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>44615</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>44427.35878472222</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>44616.2996875</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2856,14 +2856,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 62233-2022</t>
+          <t>A 22050-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44922</v>
+        <v>45069</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2875,8 +2875,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G40" t="n">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2913,14 +2918,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 59986-2023</t>
+          <t>A 62233-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45257.81895833334</v>
+        <v>44922</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2933,7 +2938,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>7.7</v>
+        <v>5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2970,14 +2975,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 22050-2023</t>
+          <t>A 60413-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45069</v>
+        <v>45643.51706018519</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2989,13 +2994,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G42" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3032,14 +3032,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 60413-2024</t>
+          <t>A 30970-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45643.51706018519</v>
+        <v>45113.48916666667</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3089,14 +3089,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 30970-2023</t>
+          <t>A 46339-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45113.48916666667</v>
+        <v>45582.30826388889</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>4.2</v>
+        <v>1.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3146,14 +3146,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 46339-2024</t>
+          <t>A 59986-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45582.30826388889</v>
+        <v>45257.81895833334</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.1</v>
+        <v>7.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>45198</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>45198.69354166667</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>45573.57309027778</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>45167</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>45167</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>45300</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>45351</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>45797.63533564815</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>45643.51864583333</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>45799.67575231481</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>45799.31555555556</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>44935.59246527778</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3887,14 +3887,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 63802-2025</t>
+          <t>A 44684-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>46019.86751157408</v>
+        <v>45186</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3944,14 +3944,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 44684-2023</t>
+          <t>A 9473-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45186</v>
+        <v>44981</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4001,14 +4001,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 9473-2023</t>
+          <t>A 26238-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44981</v>
+        <v>45805.56920138889</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.1</v>
+        <v>4.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4058,14 +4058,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 34859-2023</t>
+          <t>A 40859-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45142.30226851852</v>
+        <v>45897.56069444444</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4115,14 +4115,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 26238-2025</t>
+          <t>A 26229-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45805.56920138889</v>
+        <v>45805.56230324074</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>4.6</v>
+        <v>1.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4172,14 +4172,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 2866-2023</t>
+          <t>A 34859-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44945</v>
+        <v>45142.30226851852</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4229,14 +4229,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 26229-2025</t>
+          <t>A 4243-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45805.56230324074</v>
+        <v>45685.58085648148</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4286,14 +4286,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 4243-2025</t>
+          <t>A 2866-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45685.58085648148</v>
+        <v>44945</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4350,7 +4350,7 @@
         <v>44782.91590277778</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         <v>44293</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4457,14 +4457,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 28211-2025</t>
+          <t>A 42292-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45818.45789351852</v>
+        <v>45904.62887731481</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4514,14 +4514,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 50152-2023</t>
+          <t>A 28211-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45215</v>
+        <v>45818.45789351852</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>4.8</v>
+        <v>3.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4571,14 +4571,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 60318-2024</t>
+          <t>A 29064-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45643.36900462963</v>
+        <v>45821</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.7</v>
+        <v>2.3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4628,14 +4628,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 29064-2025</t>
+          <t>A 29019-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45821</v>
+        <v>45821.42359953704</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4648,7 +4648,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4685,14 +4685,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 29019-2025</t>
+          <t>A 43370-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45821.42359953704</v>
+        <v>45911.34883101852</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4742,14 +4742,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 25316-2021</t>
+          <t>A 50152-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44342</v>
+        <v>45215</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.9</v>
+        <v>4.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4799,14 +4799,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 53846-2024</t>
+          <t>A 60318-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45615.6309837963</v>
+        <v>45643.36900462963</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.5</v>
+        <v>3.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4863,7 +4863,7 @@
         <v>45826.4806712963</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4913,14 +4913,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 59452-2023</t>
+          <t>A 25316-2021</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45254.37158564815</v>
+        <v>44342</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4970,14 +4970,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 20469-2021</t>
+          <t>A 59452-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44315</v>
+        <v>45254.37158564815</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4989,13 +4989,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5032,14 +5027,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 12554-2023</t>
+          <t>A 53846-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45000.35256944445</v>
+        <v>45615.6309837963</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5052,7 +5047,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5089,14 +5084,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 20651-2021</t>
+          <t>A 45736-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44316.41503472222</v>
+        <v>45923.46587962963</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5108,13 +5103,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>5.1</v>
+        <v>1.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5151,14 +5141,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 59988-2024</t>
+          <t>A 45742-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45642.39239583333</v>
+        <v>45923.46953703704</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5171,7 +5161,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5208,14 +5198,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 10670-2024</t>
+          <t>A 20469-2021</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45369.34828703704</v>
+        <v>44315</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5227,8 +5217,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5265,14 +5260,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 40859-2025</t>
+          <t>A 12554-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45897.56069444444</v>
+        <v>45000.35256944445</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5285,7 +5280,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5322,14 +5317,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 63239-2021</t>
+          <t>A 20651-2021</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44508.36662037037</v>
+        <v>44316.41503472222</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5341,8 +5336,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>2.3</v>
+        <v>5.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5379,14 +5379,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 14196-2023</t>
+          <t>A 59988-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45009</v>
+        <v>45642.39239583333</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5436,14 +5436,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 35316-2025</t>
+          <t>A 10670-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45854.47652777778</v>
+        <v>45369.34828703704</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5455,13 +5455,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5498,14 +5493,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 35319-2025</t>
+          <t>A 63239-2021</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45854.48293981481</v>
+        <v>44508.36662037037</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5517,13 +5512,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5560,14 +5550,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 13177-2025</t>
+          <t>A 48359-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45735.37274305556</v>
+        <v>45933.66196759259</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5580,7 +5570,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5617,14 +5607,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 14460-2023</t>
+          <t>A 14196-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45010</v>
+        <v>45009</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5637,7 +5627,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>5.4</v>
+        <v>3.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5674,14 +5664,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 12275-2025</t>
+          <t>A 35316-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45729</v>
+        <v>45854.47652777778</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5693,8 +5683,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G89" t="n">
-        <v>7.5</v>
+        <v>2.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5731,14 +5726,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 35768-2025</t>
+          <t>A 35319-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45860</v>
+        <v>45854.48293981481</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5750,8 +5745,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>5.7</v>
+        <v>3.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5788,14 +5788,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 1635-2025</t>
+          <t>A 13177-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45670</v>
+        <v>45735.37274305556</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5845,14 +5845,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 55003-2024</t>
+          <t>A 35768-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45621.32651620371</v>
+        <v>45860</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.9</v>
+        <v>5.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5902,14 +5902,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 42292-2025</t>
+          <t>A 1635-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45904.62887731481</v>
+        <v>45670</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5959,14 +5959,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 9773-2021</t>
+          <t>A 49278-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44252</v>
+        <v>45938.50790509259</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.4</v>
+        <v>4.8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6023,7 +6023,7 @@
         <v>45868.67938657408</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>45868.68178240741</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6130,14 +6130,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 49564-2024</t>
+          <t>A 50093-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45596.48508101852</v>
+        <v>45943.49165509259</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.6</v>
+        <v>4.3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6187,14 +6187,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 36961-2025</t>
+          <t>A 50091-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45874.62365740741</v>
+        <v>45943.48703703703</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6207,7 +6207,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.9</v>
+        <v>4.1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6244,14 +6244,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 43370-2025</t>
+          <t>A 14460-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45911.34883101852</v>
+        <v>45010</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6264,7 +6264,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.9</v>
+        <v>5.4</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6301,14 +6301,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 37803-2025</t>
+          <t>A 12275-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45881</v>
+        <v>45729</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6358,14 +6358,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 38052-2025</t>
+          <t>A 55003-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45882</v>
+        <v>45621.32651620371</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6415,14 +6415,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 38054-2025</t>
+          <t>A 36961-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45882</v>
+        <v>45874.62365740741</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6472,14 +6472,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 13703-2024</t>
+          <t>A 6705-2026</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45390</v>
+        <v>46056</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.6</v>
+        <v>6.3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6529,14 +6529,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 138-2022</t>
+          <t>A 50932-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44560</v>
+        <v>45946.68842592592</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6549,7 +6549,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.3</v>
+        <v>2.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6586,14 +6586,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 45736-2025</t>
+          <t>A 9773-2021</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45923.46587962963</v>
+        <v>44252</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6643,14 +6643,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 5773-2023</t>
+          <t>A 6686-2026</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44963.37827546296</v>
+        <v>46056.62666666666</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6663,7 +6663,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6700,14 +6700,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 45742-2025</t>
+          <t>A 51362-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45923.46953703704</v>
+        <v>45950.44516203704</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6757,14 +6757,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 55119-2023</t>
+          <t>A 49564-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45237.47695601852</v>
+        <v>45596.48508101852</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6814,14 +6814,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 58597-2022</t>
+          <t>A 37803-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44894</v>
+        <v>45881</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.8</v>
+        <v>3.3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6871,14 +6871,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 48359-2025</t>
+          <t>A 38052-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45933.66196759259</v>
+        <v>45882</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -6928,14 +6928,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 49278-2025</t>
+          <t>A 38054-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45938.50790509259</v>
+        <v>45882</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>4.8</v>
+        <v>0.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -6985,14 +6985,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 50093-2025</t>
+          <t>A 52825-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45943.49165509259</v>
+        <v>45957.46645833334</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7005,7 +7005,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>4.3</v>
+        <v>2.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7042,14 +7042,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 50091-2025</t>
+          <t>A 52831-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45943.48703703703</v>
+        <v>45957.46996527778</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7062,7 +7062,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>4.1</v>
+        <v>2.5</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7099,14 +7099,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 50932-2025</t>
+          <t>A 63802-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45946.68842592592</v>
+        <v>46019.86751157408</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7119,7 +7119,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7156,14 +7156,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 29798-2024</t>
+          <t>A 53689-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45485.48961805556</v>
+        <v>45960.58104166666</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7176,7 +7176,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>5.2</v>
+        <v>10.9</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7213,14 +7213,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 51362-2025</t>
+          <t>A 13703-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45950.44516203704</v>
+        <v>45390</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7233,7 +7233,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7270,14 +7270,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 30636-2023</t>
+          <t>A 138-2022</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45112.46046296296</v>
+        <v>44560</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7289,13 +7289,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7332,14 +7327,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 35486-2023</t>
+          <t>A 5773-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45146</v>
+        <v>44963.37827546296</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7352,7 +7347,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7389,14 +7384,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 52825-2025</t>
+          <t>A 55119-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45957.46645833334</v>
+        <v>45237.47695601852</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7409,7 +7404,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7446,14 +7441,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 52831-2025</t>
+          <t>A 58597-2022</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45957.46996527778</v>
+        <v>44894</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7466,7 +7461,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7503,14 +7498,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 9297-2022</t>
+          <t>A 60071-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44616.47766203704</v>
+        <v>45993.67202546296</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7523,7 +7518,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7560,14 +7555,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 8814-2022</t>
+          <t>A 29798-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44614</v>
+        <v>45485.48961805556</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7579,13 +7574,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G122" t="n">
-        <v>4.6</v>
+        <v>5.2</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7622,14 +7612,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 53689-2025</t>
+          <t>A 3569-2026</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45960.58104166666</v>
+        <v>46042.67932870371</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7642,7 +7632,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>10.9</v>
+        <v>2.2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7679,14 +7669,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 9338-2023</t>
+          <t>A 30636-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44980</v>
+        <v>45112.46046296296</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7698,8 +7688,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7736,14 +7731,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 57647-2022</t>
+          <t>A 35486-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44897</v>
+        <v>45146</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7756,7 +7751,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>8.699999999999999</v>
+        <v>2.9</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7793,14 +7788,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 40629-2024</t>
+          <t>A 9297-2022</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45557.69868055556</v>
+        <v>44616.47766203704</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7813,7 +7808,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>11.5</v>
+        <v>1.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7850,14 +7845,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 61700-2023</t>
+          <t>A 8814-2022</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45265.65236111111</v>
+        <v>44614</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7871,11 +7866,11 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.4</v>
+        <v>4.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7912,14 +7907,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 53839-2024</t>
+          <t>A 9338-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45615.62634259259</v>
+        <v>44980</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7932,7 +7927,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -7969,14 +7964,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 46787-2023</t>
+          <t>A 57647-2022</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45198.6809375</v>
+        <v>44897</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7989,7 +7984,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8026,14 +8021,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 54902-2023</t>
+          <t>A 40629-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45229</v>
+        <v>45557.69868055556</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8046,7 +8041,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.9</v>
+        <v>11.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8083,14 +8078,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 60071-2025</t>
+          <t>A 61700-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45993.67202546296</v>
+        <v>45265.65236111111</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8102,8 +8097,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G131" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8140,14 +8140,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 4783-2023</t>
+          <t>A 53839-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44957.59467592592</v>
+        <v>45615.62634259259</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8160,7 +8160,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8197,14 +8197,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 7722-2024</t>
+          <t>A 46787-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45349</v>
+        <v>45198.6809375</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8217,7 +8217,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8254,14 +8254,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 17806-2021</t>
+          <t>A 54902-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44300.64185185185</v>
+        <v>45229</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8274,7 +8274,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>5.7</v>
+        <v>0.9</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8311,14 +8311,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 3569-2026</t>
+          <t>A 4783-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>46042.67932870371</v>
+        <v>44957.59467592592</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8368,14 +8368,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 5770-2023</t>
+          <t>A 7722-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44963.37232638889</v>
+        <v>45349</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8388,7 +8388,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8425,14 +8425,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 6369-2025</t>
+          <t>A 17806-2021</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45699.38993055555</v>
+        <v>44300.64185185185</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.3</v>
+        <v>5.7</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8482,14 +8482,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 26248-2024</t>
+          <t>A 5770-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45468.64033564815</v>
+        <v>44963.37232638889</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8502,7 +8502,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8539,14 +8539,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 47300-2022</t>
+          <t>A 6369-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44853</v>
+        <v>45699.38993055555</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8559,7 +8559,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8596,14 +8596,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 47047-2021</t>
+          <t>A 26248-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44446.62215277777</v>
+        <v>45468.64033564815</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8616,7 +8616,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8653,14 +8653,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 62251-2023</t>
+          <t>A 47300-2022</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45267.61526620371</v>
+        <v>44853</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8672,13 +8672,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G141" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8715,14 +8710,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 7392-2022</t>
+          <t>A 47047-2021</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44606.63405092592</v>
+        <v>44446.62215277777</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8735,7 +8730,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>5.2</v>
+        <v>2.8</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8772,14 +8767,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 1094-2025</t>
+          <t>A 62251-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45665</v>
+        <v>45267.61526620371</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8791,8 +8786,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G143" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8829,14 +8829,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 27989-2022</t>
+          <t>A 7392-2022</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44745</v>
+        <v>44606.63405092592</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.5</v>
+        <v>5.2</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8886,14 +8886,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 6497-2025</t>
+          <t>A 1094-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45699.63719907407</v>
+        <v>45665</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8943,14 +8943,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 6705-2026</t>
+          <t>A 27989-2022</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>46056</v>
+        <v>44745</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>6.3</v>
+        <v>2.5</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9000,14 +9000,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 6686-2026</t>
+          <t>A 6497-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>46056.62666666666</v>
+        <v>45699.63719907407</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9064,7 +9064,7 @@
         <v>45091</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>44939</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>44939</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>44615</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>44364.53988425926</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>44321.3083449074</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>44697.66332175926</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9468,7 +9468,7 @@
         <v>45161</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>45602.38179398148</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>44537.63103009259</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>45167</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>45028.69456018518</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>45167</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>45266.51587962963</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>45209.82892361111</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>45390</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>45197</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>45484</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>44951</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>44571</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>44810</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>45267.42585648148</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>45553.51288194444</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>45771</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>45470</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10504,7 +10504,7 @@
         <v>45538.29486111111</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>

--- a/Översikt HJO.xlsx
+++ b/Översikt HJO.xlsx
@@ -575,7 +575,7 @@
         <v>44272</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44593</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>45719.46746527778</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45468</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44799.45684027778</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44729</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44525.73625</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>44616.29740740741</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>44692</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>44866.6278587963</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>44623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>44354.60260416667</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44846</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>44515</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         <v>44474</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>44852.25016203704</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>44797.86921296296</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>44748.35234953704</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>44488.62511574074</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>44781</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>44508</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>44608</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>44784.3796875</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>44456</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>44641</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>44386</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>44854.45597222223</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>44456</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>44354.6397337963</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>44606.37339120371</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>44438.72671296296</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>44781.43912037037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>44714</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>44477</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>44638.65868055556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>44615</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>44427.35878472222</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>44616.2996875</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2856,14 +2856,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 22050-2023</t>
+          <t>A 62233-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45069</v>
+        <v>44922</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2875,13 +2875,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G40" t="n">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2918,14 +2913,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 62233-2022</t>
+          <t>A 59986-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44922</v>
+        <v>45257.81895833334</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2938,7 +2933,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>5</v>
+        <v>7.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2982,7 +2977,7 @@
         <v>45643.51706018519</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3032,14 +3027,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 30970-2023</t>
+          <t>A 22050-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45113.48916666667</v>
+        <v>45069</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3051,8 +3046,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3089,14 +3089,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 46339-2024</t>
+          <t>A 30970-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45582.30826388889</v>
+        <v>45113.48916666667</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.1</v>
+        <v>4.2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3146,14 +3146,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 59986-2023</t>
+          <t>A 46339-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45257.81895833334</v>
+        <v>45582.30826388889</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>7.7</v>
+        <v>1.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3203,14 +3203,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 46762-2023</t>
+          <t>A 19810-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45198</v>
+        <v>45771</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3260,14 +3260,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 46790-2023</t>
+          <t>A 26792-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45198.69354166667</v>
+        <v>45470</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3279,8 +3279,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>7.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3317,14 +3322,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 44310-2024</t>
+          <t>A 46762-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45573.57309027778</v>
+        <v>45198</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3337,7 +3342,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3374,14 +3379,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 39537-2023</t>
+          <t>A 46790-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45167</v>
+        <v>45198.69354166667</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3394,7 +3399,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3431,14 +3436,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 39540-2023</t>
+          <t>A 36738-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45167</v>
+        <v>45538.29486111111</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3451,7 +3456,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3488,14 +3493,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 724-2024</t>
+          <t>A 44310-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45300</v>
+        <v>45573.57309027778</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3508,7 +3513,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3552,7 +3557,7 @@
         <v>45351</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3609,7 +3614,7 @@
         <v>45797.63533564815</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3659,14 +3664,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 60414-2024</t>
+          <t>A 39537-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45643.51864583333</v>
+        <v>45167</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3679,7 +3684,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3716,14 +3721,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 25053-2025</t>
+          <t>A 39540-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45799.67575231481</v>
+        <v>45167</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3736,7 +3741,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3773,14 +3778,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 24723-2025</t>
+          <t>A 60414-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45799.31555555556</v>
+        <v>45643.51864583333</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3793,7 +3798,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3830,14 +3835,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 1108-2023</t>
+          <t>A 724-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44935.59246527778</v>
+        <v>45300</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3850,7 +3855,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3887,14 +3892,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 44684-2023</t>
+          <t>A 25053-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45186</v>
+        <v>45799.67575231481</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3907,7 +3912,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3944,14 +3949,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 9473-2023</t>
+          <t>A 24723-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44981</v>
+        <v>45799.31555555556</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3964,7 +3969,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4001,14 +4006,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 26238-2025</t>
+          <t>A 40859-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45805.56920138889</v>
+        <v>45897.56069444444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4021,7 +4026,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4.6</v>
+        <v>0.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4058,14 +4063,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 40859-2025</t>
+          <t>A 26238-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45897.56069444444</v>
+        <v>45805.56920138889</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4078,7 +4083,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.7</v>
+        <v>4.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4122,7 +4127,7 @@
         <v>45805.56230324074</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4172,14 +4177,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 34859-2023</t>
+          <t>A 1108-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45142.30226851852</v>
+        <v>44935.59246527778</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4192,7 +4197,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4229,14 +4234,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 4243-2025</t>
+          <t>A 44684-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45685.58085648148</v>
+        <v>45186</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4249,7 +4254,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4286,14 +4291,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 2866-2023</t>
+          <t>A 9473-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44945</v>
+        <v>44981</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4306,7 +4311,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4343,14 +4348,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 32518-2022</t>
+          <t>A 4243-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44782.91590277778</v>
+        <v>45685.58085648148</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4363,7 +4368,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4400,14 +4405,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 16395-2021</t>
+          <t>A 34859-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44293</v>
+        <v>45142.30226851852</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4420,7 +4425,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4464,7 +4469,7 @@
         <v>45904.62887731481</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4514,14 +4519,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 28211-2025</t>
+          <t>A 2866-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45818.45789351852</v>
+        <v>44945</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4534,7 +4539,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4571,14 +4576,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 29064-2025</t>
+          <t>A 43370-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45821</v>
+        <v>45911.34883101852</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4591,7 +4596,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4628,14 +4633,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 29019-2025</t>
+          <t>A 32518-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45821.42359953704</v>
+        <v>44782.91590277778</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4648,7 +4653,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4685,14 +4690,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 43370-2025</t>
+          <t>A 16395-2021</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45911.34883101852</v>
+        <v>44293</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4742,14 +4747,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 50152-2023</t>
+          <t>A 28211-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45215</v>
+        <v>45818.45789351852</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4762,7 +4767,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>4.8</v>
+        <v>3.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4799,14 +4804,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 60318-2024</t>
+          <t>A 29064-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45643.36900462963</v>
+        <v>45821</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4819,7 +4824,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.7</v>
+        <v>2.3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4856,14 +4861,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 29960-2025</t>
+          <t>A 29019-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45826.4806712963</v>
+        <v>45821.42359953704</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4876,7 +4881,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4913,14 +4918,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 25316-2021</t>
+          <t>A 45736-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44342</v>
+        <v>45923.46587962963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4933,7 +4938,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4970,14 +4975,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 59452-2023</t>
+          <t>A 45742-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45254.37158564815</v>
+        <v>45923.46953703704</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4990,7 +4995,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5027,14 +5032,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 53846-2024</t>
+          <t>A 50152-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45615.6309837963</v>
+        <v>45215</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5047,7 +5052,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.5</v>
+        <v>4.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5084,14 +5089,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 45736-2025</t>
+          <t>A 60318-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45923.46587962963</v>
+        <v>45643.36900462963</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5104,7 +5109,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.4</v>
+        <v>3.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5141,14 +5146,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 45742-2025</t>
+          <t>A 29960-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45923.46953703704</v>
+        <v>45826.4806712963</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5161,7 +5166,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5198,14 +5203,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 20469-2021</t>
+          <t>A 25316-2021</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44315</v>
+        <v>44342</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5217,13 +5222,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5260,14 +5260,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 12554-2023</t>
+          <t>A 59452-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45000.35256944445</v>
+        <v>45254.37158564815</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5317,14 +5317,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 20651-2021</t>
+          <t>A 53846-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44316.41503472222</v>
+        <v>45615.6309837963</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5336,13 +5336,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>5.1</v>
+        <v>0.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5379,14 +5374,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 59988-2024</t>
+          <t>A 48359-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45642.39239583333</v>
+        <v>45933.66196759259</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5399,7 +5394,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5436,14 +5431,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 10670-2024</t>
+          <t>A 20469-2021</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45369.34828703704</v>
+        <v>44315</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5455,8 +5450,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5493,14 +5493,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 63239-2021</t>
+          <t>A 12554-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44508.36662037037</v>
+        <v>45000.35256944445</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5550,14 +5550,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 48359-2025</t>
+          <t>A 20651-2021</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45933.66196759259</v>
+        <v>44316.41503472222</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5569,8 +5569,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>3.5</v>
+        <v>5.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5607,14 +5612,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 14196-2023</t>
+          <t>A 59988-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45009</v>
+        <v>45642.39239583333</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5627,7 +5632,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5664,14 +5669,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 35316-2025</t>
+          <t>A 10670-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45854.47652777778</v>
+        <v>45369.34828703704</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5683,13 +5688,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5726,14 +5726,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 35319-2025</t>
+          <t>A 49278-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45854.48293981481</v>
+        <v>45938.50790509259</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5745,13 +5745,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>3.3</v>
+        <v>4.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5788,14 +5783,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 13177-2025</t>
+          <t>A 63239-2021</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45735.37274305556</v>
+        <v>44508.36662037037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5808,7 +5803,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5845,14 +5840,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 35768-2025</t>
+          <t>A 50093-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45860</v>
+        <v>45943.49165509259</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5865,7 +5860,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>5.7</v>
+        <v>4.3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5902,14 +5897,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 1635-2025</t>
+          <t>A 50091-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45670</v>
+        <v>45943.48703703703</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5922,7 +5917,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.8</v>
+        <v>4.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5959,14 +5954,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 49278-2025</t>
+          <t>A 14196-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45938.50790509259</v>
+        <v>45009</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5979,7 +5974,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6016,14 +6011,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 36407-2025</t>
+          <t>A 50932-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45868.67938657408</v>
+        <v>45946.68842592592</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6036,7 +6031,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6073,14 +6068,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 36409-2025</t>
+          <t>A 35316-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45868.68178240741</v>
+        <v>45854.47652777778</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6092,8 +6087,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6130,14 +6130,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 50093-2025</t>
+          <t>A 35319-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45943.49165509259</v>
+        <v>45854.48293981481</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6149,8 +6149,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6187,14 +6192,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 50091-2025</t>
+          <t>A 51362-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45943.48703703703</v>
+        <v>45950.44516203704</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6207,7 +6212,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>4.1</v>
+        <v>0.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6244,14 +6249,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 14460-2023</t>
+          <t>A 13177-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45010</v>
+        <v>45735.37274305556</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6264,7 +6269,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>5.4</v>
+        <v>2.4</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6301,14 +6306,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 12275-2025</t>
+          <t>A 35768-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45729</v>
+        <v>45860</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6321,7 +6326,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>7.5</v>
+        <v>5.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6358,14 +6363,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 55003-2024</t>
+          <t>A 1635-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45621.32651620371</v>
+        <v>45670</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6378,7 +6383,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6415,14 +6420,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 36961-2025</t>
+          <t>A 14460-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45874.62365740741</v>
+        <v>45010</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6435,7 +6440,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.9</v>
+        <v>5.4</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6472,14 +6477,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 6705-2026</t>
+          <t>A 12275-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>46056</v>
+        <v>45729</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6492,7 +6497,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>6.3</v>
+        <v>7.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6529,14 +6534,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 50932-2025</t>
+          <t>A 55003-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45946.68842592592</v>
+        <v>45621.32651620371</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6549,7 +6554,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6586,14 +6591,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 9773-2021</t>
+          <t>A 36407-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44252</v>
+        <v>45868.67938657408</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6606,7 +6611,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6643,14 +6648,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 6686-2026</t>
+          <t>A 52825-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>46056.62666666666</v>
+        <v>45957.46645833334</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6663,7 +6668,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6700,14 +6705,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 51362-2025</t>
+          <t>A 52831-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45950.44516203704</v>
+        <v>45957.46996527778</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6720,7 +6725,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6757,14 +6762,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 49564-2024</t>
+          <t>A 36409-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45596.48508101852</v>
+        <v>45868.68178240741</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6814,14 +6819,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 37803-2025</t>
+          <t>A 9773-2021</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45881</v>
+        <v>44252</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6834,7 +6839,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6871,14 +6876,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 38052-2025</t>
+          <t>A 49564-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45882</v>
+        <v>45596.48508101852</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6891,7 +6896,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -6928,14 +6933,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 38054-2025</t>
+          <t>A 53689-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45882</v>
+        <v>45960.58104166666</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6948,7 +6953,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.6</v>
+        <v>10.9</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -6985,14 +6990,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 52825-2025</t>
+          <t>A 36961-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45957.46645833334</v>
+        <v>45874.62365740741</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7005,7 +7010,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7042,14 +7047,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 52831-2025</t>
+          <t>A 37803-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45957.46996527778</v>
+        <v>45881</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7062,7 +7067,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7099,14 +7104,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 63802-2025</t>
+          <t>A 38052-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>46019.86751157408</v>
+        <v>45882</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7119,7 +7124,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7156,14 +7161,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 53689-2025</t>
+          <t>A 38054-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45960.58104166666</v>
+        <v>45882</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7176,7 +7181,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>10.9</v>
+        <v>0.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7220,7 +7225,7 @@
         <v>45390</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7270,14 +7275,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 138-2022</t>
+          <t>A 60071-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44560</v>
+        <v>45993.67202546296</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7290,7 +7295,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7327,14 +7332,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 5773-2023</t>
+          <t>A 138-2022</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44963.37827546296</v>
+        <v>44560</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7347,7 +7352,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7384,14 +7389,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 55119-2023</t>
+          <t>A 5773-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45237.47695601852</v>
+        <v>44963.37827546296</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7404,7 +7409,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7441,14 +7446,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 58597-2022</t>
+          <t>A 55119-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44894</v>
+        <v>45237.47695601852</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7461,7 +7466,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7498,14 +7503,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 60071-2025</t>
+          <t>A 58597-2022</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45993.67202546296</v>
+        <v>44894</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7518,7 +7523,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7555,14 +7560,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 29798-2024</t>
+          <t>A 3569-2026</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45485.48961805556</v>
+        <v>46042.67932870371</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7575,7 +7580,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>5.2</v>
+        <v>2.2</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7612,14 +7617,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 3569-2026</t>
+          <t>A 29798-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>46042.67932870371</v>
+        <v>45485.48961805556</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7632,7 +7637,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.2</v>
+        <v>5.2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7676,7 +7681,7 @@
         <v>45112.46046296296</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7731,14 +7736,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 35486-2023</t>
+          <t>A 6705-2026</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45146</v>
+        <v>46056</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7751,7 +7756,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.9</v>
+        <v>6.3</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7788,14 +7793,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 9297-2022</t>
+          <t>A 6686-2026</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44616.47766203704</v>
+        <v>46056.62666666666</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7808,7 +7813,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7845,14 +7850,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 8814-2022</t>
+          <t>A 35486-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44614</v>
+        <v>45146</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7864,13 +7869,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>4.6</v>
+        <v>2.9</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7907,14 +7907,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 9338-2023</t>
+          <t>A 9297-2022</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44980</v>
+        <v>44616.47766203704</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -7964,14 +7964,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 57647-2022</t>
+          <t>A 63802-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44897</v>
+        <v>46019.86751157408</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>8.699999999999999</v>
+        <v>2</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8021,14 +8021,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 40629-2024</t>
+          <t>A 8814-2022</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45557.69868055556</v>
+        <v>44614</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8040,8 +8040,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G130" t="n">
-        <v>11.5</v>
+        <v>4.6</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8078,14 +8083,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 61700-2023</t>
+          <t>A 9338-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45265.65236111111</v>
+        <v>44980</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8097,13 +8102,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G131" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8140,14 +8140,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 53839-2024</t>
+          <t>A 57647-2022</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45615.62634259259</v>
+        <v>44897</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8160,7 +8160,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8197,14 +8197,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 46787-2023</t>
+          <t>A 40629-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45198.6809375</v>
+        <v>45557.69868055556</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8217,7 +8217,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>8.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8254,14 +8254,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 54902-2023</t>
+          <t>A 61700-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45229</v>
+        <v>45265.65236111111</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8273,8 +8273,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G134" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8311,14 +8316,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 4783-2023</t>
+          <t>A 53839-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44957.59467592592</v>
+        <v>45615.62634259259</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8331,7 +8336,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8368,14 +8373,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 7722-2024</t>
+          <t>A 46787-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45349</v>
+        <v>45198.6809375</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8388,7 +8393,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8425,14 +8430,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 17806-2021</t>
+          <t>A 54902-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44300.64185185185</v>
+        <v>45229</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8445,7 +8450,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>5.7</v>
+        <v>0.9</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8482,14 +8487,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 5770-2023</t>
+          <t>A 4783-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44963.37232638889</v>
+        <v>44957.59467592592</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8502,7 +8507,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8539,14 +8544,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 6369-2025</t>
+          <t>A 7722-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45699.38993055555</v>
+        <v>45349</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8559,7 +8564,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8596,14 +8601,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 26248-2024</t>
+          <t>A 17806-2021</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45468.64033564815</v>
+        <v>44300.64185185185</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8616,7 +8621,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>3.1</v>
+        <v>5.7</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8653,14 +8658,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 47300-2022</t>
+          <t>A 5770-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44853</v>
+        <v>44963.37232638889</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8673,7 +8678,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8710,14 +8715,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 47047-2021</t>
+          <t>A 6369-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44446.62215277777</v>
+        <v>45699.38993055555</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8730,7 +8735,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8767,14 +8772,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 62251-2023</t>
+          <t>A 26248-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45267.61526620371</v>
+        <v>45468.64033564815</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8786,13 +8791,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G143" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8829,14 +8829,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 7392-2022</t>
+          <t>A 47300-2022</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44606.63405092592</v>
+        <v>44853</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>5.2</v>
+        <v>2.4</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8886,14 +8886,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 1094-2025</t>
+          <t>A 47047-2021</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45665</v>
+        <v>44446.62215277777</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8943,14 +8943,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 27989-2022</t>
+          <t>A 62251-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44745</v>
+        <v>45267.61526620371</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8962,8 +8962,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G146" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9000,14 +9005,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 6497-2025</t>
+          <t>A 7392-2022</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45699.63719907407</v>
+        <v>44606.63405092592</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9020,7 +9025,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.6</v>
+        <v>5.2</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9057,14 +9062,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 26230-2023</t>
+          <t>A 1094-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45091</v>
+        <v>45665</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9076,13 +9081,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G148" t="n">
-        <v>9.4</v>
+        <v>0.8</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9119,14 +9119,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 2060-2023</t>
+          <t>A 27989-2022</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44939</v>
+        <v>44745</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9176,14 +9176,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 2070-2023</t>
+          <t>A 6497-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44939</v>
+        <v>45699.63719907407</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>11.6</v>
+        <v>2.6</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9233,14 +9233,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 9177-2022</t>
+          <t>A 26230-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44615</v>
+        <v>45091</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9252,8 +9252,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G151" t="n">
-        <v>1.2</v>
+        <v>9.4</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9290,14 +9295,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 30411-2021</t>
+          <t>A 2060-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44364.53988425926</v>
+        <v>44939</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9310,7 +9315,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9347,14 +9352,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 21369-2021</t>
+          <t>A 2070-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44321.3083449074</v>
+        <v>44939</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9367,7 +9372,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>10.7</v>
+        <v>11.6</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9404,14 +9409,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 20024-2022</t>
+          <t>A 9177-2022</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44697.66332175926</v>
+        <v>44615</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9424,7 +9429,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9461,14 +9466,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 38186-2023</t>
+          <t>A 30411-2021</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45161</v>
+        <v>44364.53988425926</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9481,7 +9486,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>4.9</v>
+        <v>1.7</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9518,14 +9523,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 50711-2024</t>
+          <t>A 21369-2021</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45602.38179398148</v>
+        <v>44321.3083449074</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9538,7 +9543,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1</v>
+        <v>10.7</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9575,14 +9580,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 70743-2021</t>
+          <t>A 20024-2022</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44537.63103009259</v>
+        <v>44697.66332175926</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9595,7 +9600,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9632,14 +9637,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 39542-2023</t>
+          <t>A 38186-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45167</v>
+        <v>45161</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9652,7 +9657,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.6</v>
+        <v>4.9</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9689,14 +9694,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 16352-2023</t>
+          <t>A 50711-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45028.69456018518</v>
+        <v>45602.38179398148</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9709,7 +9714,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9746,14 +9751,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 39538-2023</t>
+          <t>A 70743-2021</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45167</v>
+        <v>44537.63103009259</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9766,7 +9771,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>5.3</v>
+        <v>2.7</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9803,14 +9808,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 61925-2023</t>
+          <t>A 39542-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45266.51587962963</v>
+        <v>45167</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9823,7 +9828,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -9860,14 +9865,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 49025-2023</t>
+          <t>A 16352-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45209.82892361111</v>
+        <v>45028.69456018518</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9880,7 +9885,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>5.4</v>
+        <v>3.1</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -9917,14 +9922,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 13694-2024</t>
+          <t>A 39538-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45390</v>
+        <v>45167</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9937,7 +9942,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2.2</v>
+        <v>5.3</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -9974,14 +9979,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 46520-2023</t>
+          <t>A 61925-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45197</v>
+        <v>45266.51587962963</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9994,7 +9999,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10031,14 +10036,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 29596-2024</t>
+          <t>A 49025-2023</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45484</v>
+        <v>45209.82892361111</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10051,7 +10056,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.8</v>
+        <v>5.4</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10088,14 +10093,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 4272-2023</t>
+          <t>A 13694-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44951</v>
+        <v>45390</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10108,7 +10113,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10145,14 +10150,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 809-2022</t>
+          <t>A 46520-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44571</v>
+        <v>45197</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10165,7 +10170,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>4.3</v>
+        <v>1.9</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10202,14 +10207,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 37789-2022</t>
+          <t>A 29596-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44810</v>
+        <v>45484</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10222,7 +10227,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10259,14 +10264,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 62171-2023</t>
+          <t>A 4272-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45267.42585648148</v>
+        <v>44951</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10278,13 +10283,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G169" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10321,14 +10321,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 39907-2024</t>
+          <t>A 809-2022</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45553.51288194444</v>
+        <v>44571</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>6.5</v>
+        <v>4.3</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10378,14 +10378,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 19810-2025</t>
+          <t>A 37789-2022</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45771</v>
+        <v>44810</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10398,7 +10398,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.4</v>
+        <v>2.6</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10435,14 +10435,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 26792-2024</t>
+          <t>A 62171-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45470</v>
+        <v>45267.42585648148</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10456,11 +10456,11 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G172" t="n">
-        <v>7.1</v>
+        <v>1.9</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10497,14 +10497,14 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 36738-2024</t>
+          <t>A 39907-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45538.29486111111</v>
+        <v>45553.51288194444</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>0.9</v>
+        <v>6.5</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>

--- a/Översikt HJO.xlsx
+++ b/Översikt HJO.xlsx
@@ -575,7 +575,7 @@
         <v>44272</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44593</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>45719.46746527778</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45468</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44799.45684027778</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44729</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44525.73625</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>44616.29740740741</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>44692</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>44866.6278587963</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>44623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>44354.60260416667</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44846</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>44515</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         <v>44474</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>44852.25016203704</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>44797.86921296296</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>44748.35234953704</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>44488.62511574074</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>44781</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>44508</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>44608</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>44784.3796875</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>44456</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>44641</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>44386</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>44854.45597222223</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>44456</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>44354.6397337963</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>44606.37339120371</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>44438.72671296296</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>44781.43912037037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>44714</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>44477</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>44638.65868055556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>44615</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>44427.35878472222</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>44616.2996875</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2856,14 +2856,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 62233-2022</t>
+          <t>A 44684-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44922</v>
+        <v>45186</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2913,14 +2913,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 59986-2023</t>
+          <t>A 12275-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45257.81895833334</v>
+        <v>45729</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2970,14 +2970,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 60413-2024</t>
+          <t>A 724-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45643.51706018519</v>
+        <v>45300</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3027,14 +3027,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 22050-2023</t>
+          <t>A 61925-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45069</v>
+        <v>45266.51587962963</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3046,13 +3046,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3089,14 +3084,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 30970-2023</t>
+          <t>A 37789-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45113.48916666667</v>
+        <v>44810</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3109,7 +3104,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3146,14 +3141,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 46339-2024</t>
+          <t>A 32518-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45582.30826388889</v>
+        <v>44782.91590277778</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3166,7 +3161,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3203,14 +3198,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 19810-2025</t>
+          <t>A 50152-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45771</v>
+        <v>45215</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3223,7 +3218,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.4</v>
+        <v>4.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3260,14 +3255,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 26792-2024</t>
+          <t>A 49025-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45470</v>
+        <v>45209.82892361111</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3279,13 +3274,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G47" t="n">
-        <v>7.1</v>
+        <v>5.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3322,14 +3312,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 46762-2023</t>
+          <t>A 48359-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45198</v>
+        <v>45933.66196759259</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3342,7 +3332,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3379,14 +3369,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 46790-2023</t>
+          <t>A 17806-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45198.69354166667</v>
+        <v>44300.64185185185</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3399,7 +3389,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>5.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3436,14 +3426,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 36738-2024</t>
+          <t>A 39907-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45538.29486111111</v>
+        <v>45553.51288194444</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3456,7 +3446,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.9</v>
+        <v>6.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3493,14 +3483,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 44310-2024</t>
+          <t>A 26792-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45573.57309027778</v>
+        <v>45470</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3512,8 +3502,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G51" t="n">
-        <v>2.6</v>
+        <v>7.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3550,14 +3545,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 8145-2024</t>
+          <t>A 26248-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45351</v>
+        <v>45468.64033564815</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3570,7 +3565,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>7.3</v>
+        <v>3.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3607,14 +3602,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 24388-2025</t>
+          <t>A 36738-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45797.63533564815</v>
+        <v>45538.29486111111</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3627,7 +3622,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3664,14 +3659,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 39537-2023</t>
+          <t>A 19810-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45167</v>
+        <v>45771</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3684,7 +3679,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3721,14 +3716,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 39540-2023</t>
+          <t>A 59986-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45167</v>
+        <v>45257.81895833334</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3741,7 +3736,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.3</v>
+        <v>7.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3778,14 +3773,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 60414-2024</t>
+          <t>A 47047-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45643.51864583333</v>
+        <v>44446.62215277777</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3798,7 +3793,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3835,14 +3830,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 724-2024</t>
+          <t>A 62251-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45300</v>
+        <v>45267.61526620371</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3854,8 +3849,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3892,14 +3892,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 25053-2025</t>
+          <t>A 49278-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45799.67575231481</v>
+        <v>45938.50790509259</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.7</v>
+        <v>4.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3949,14 +3949,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 24723-2025</t>
+          <t>A 40859-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45799.31555555556</v>
+        <v>45897.56069444444</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3969,7 +3969,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4006,14 +4006,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 40859-2025</t>
+          <t>A 47300-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45897.56069444444</v>
+        <v>44853</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4026,7 +4026,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4063,14 +4063,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 26238-2025</t>
+          <t>A 8145-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45805.56920138889</v>
+        <v>45351</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>4.6</v>
+        <v>7.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4120,14 +4120,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 26229-2025</t>
+          <t>A 42292-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45805.56230324074</v>
+        <v>45904.62887731481</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4177,14 +4177,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 1108-2023</t>
+          <t>A 61700-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44935.59246527778</v>
+        <v>45265.65236111111</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4196,8 +4196,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4234,14 +4239,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 44684-2023</t>
+          <t>A 50093-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45186</v>
+        <v>45943.49165509259</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4254,7 +4259,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.7</v>
+        <v>4.3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4291,14 +4296,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 9473-2023</t>
+          <t>A 50091-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44981</v>
+        <v>45943.48703703703</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4311,7 +4316,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.1</v>
+        <v>4.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4348,14 +4353,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 4243-2025</t>
+          <t>A 50932-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45685.58085648148</v>
+        <v>45946.68842592592</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4368,7 +4373,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4405,14 +4410,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 34859-2023</t>
+          <t>A 60414-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45142.30226851852</v>
+        <v>45643.51864583333</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4425,7 +4430,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4462,14 +4467,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 42292-2025</t>
+          <t>A 51362-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45904.62887731481</v>
+        <v>45950.44516203704</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4482,7 +4487,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4519,14 +4524,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 2866-2023</t>
+          <t>A 2070-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44945</v>
+        <v>44939</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4539,7 +4544,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.6</v>
+        <v>11.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4576,14 +4581,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 43370-2025</t>
+          <t>A 2866-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45911.34883101852</v>
+        <v>44945</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4596,7 +4601,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4633,14 +4638,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 32518-2022</t>
+          <t>A 24388-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44782.91590277778</v>
+        <v>45797.63533564815</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4653,7 +4658,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4690,14 +4695,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 16395-2021</t>
+          <t>A 52825-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44293</v>
+        <v>45957.46645833334</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4710,7 +4715,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4747,14 +4752,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 28211-2025</t>
+          <t>A 52831-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45818.45789351852</v>
+        <v>45957.46996527778</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4767,7 +4772,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4804,14 +4809,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 29064-2025</t>
+          <t>A 53689-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45821</v>
+        <v>45960.58104166666</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4824,7 +4829,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.3</v>
+        <v>10.9</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4861,14 +4866,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 29019-2025</t>
+          <t>A 25053-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45821.42359953704</v>
+        <v>45799.67575231481</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4881,7 +4886,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4918,14 +4923,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 45736-2025</t>
+          <t>A 24723-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45923.46587962963</v>
+        <v>45799.31555555556</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4938,7 +4943,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4975,14 +4980,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 45742-2025</t>
+          <t>A 43370-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45923.46953703704</v>
+        <v>45911.34883101852</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4995,7 +5000,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5032,14 +5037,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 50152-2023</t>
+          <t>A 57647-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45215</v>
+        <v>44897</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5052,7 +5057,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5089,14 +5094,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 60318-2024</t>
+          <t>A 26229-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45643.36900462963</v>
+        <v>45805.56230324074</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5109,7 +5114,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3.7</v>
+        <v>1.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5146,14 +5151,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 29960-2025</t>
+          <t>A 26238-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45826.4806712963</v>
+        <v>45805.56920138889</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5166,7 +5171,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.6</v>
+        <v>4.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5203,14 +5208,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 25316-2021</t>
+          <t>A 62233-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44342</v>
+        <v>44922</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5223,7 +5228,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.9</v>
+        <v>5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5260,14 +5265,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 59452-2023</t>
+          <t>A 4243-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45254.37158564815</v>
+        <v>45685.58085648148</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5280,7 +5285,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5317,14 +5322,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 53846-2024</t>
+          <t>A 2060-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45615.6309837963</v>
+        <v>44939</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5337,7 +5342,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5374,14 +5379,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 48359-2025</t>
+          <t>A 45742-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45933.66196759259</v>
+        <v>45923.46953703704</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5394,7 +5399,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.5</v>
+        <v>0.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5431,14 +5436,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 20469-2021</t>
+          <t>A 1108-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44315</v>
+        <v>44935.59246527778</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5450,13 +5455,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5493,14 +5493,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 12554-2023</t>
+          <t>A 45736-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45000.35256944445</v>
+        <v>45923.46587962963</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5550,14 +5550,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 20651-2021</t>
+          <t>A 13694-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44316.41503472222</v>
+        <v>45390</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5569,13 +5569,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>5.1</v>
+        <v>2.2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5612,14 +5607,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 59988-2024</t>
+          <t>A 28211-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45642.39239583333</v>
+        <v>45818.45789351852</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5632,7 +5627,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5669,14 +5664,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 10670-2024</t>
+          <t>A 46520-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45369.34828703704</v>
+        <v>45197</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5689,7 +5684,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5726,14 +5721,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 49278-2025</t>
+          <t>A 9177-2022</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45938.50790509259</v>
+        <v>44615</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5746,7 +5741,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>4.8</v>
+        <v>1.2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5783,14 +5778,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 63239-2021</t>
+          <t>A 29064-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44508.36662037037</v>
+        <v>45821</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5840,14 +5835,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 50093-2025</t>
+          <t>A 29019-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45943.49165509259</v>
+        <v>45821.42359953704</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5860,7 +5855,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>4.3</v>
+        <v>1.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5897,14 +5892,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 50091-2025</t>
+          <t>A 46762-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45943.48703703703</v>
+        <v>45198</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5917,7 +5912,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>4.1</v>
+        <v>0.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5954,14 +5949,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 14196-2023</t>
+          <t>A 29960-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45009</v>
+        <v>45826.4806712963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5974,7 +5969,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6011,14 +6006,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 50932-2025</t>
+          <t>A 59452-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45946.68842592592</v>
+        <v>45254.37158564815</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6031,7 +6026,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6068,14 +6063,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 35316-2025</t>
+          <t>A 9773-2021</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45854.47652777778</v>
+        <v>44252</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6087,13 +6082,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6130,14 +6120,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 35319-2025</t>
+          <t>A 22050-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45854.48293981481</v>
+        <v>45069</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6155,7 +6145,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6192,14 +6182,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 51362-2025</t>
+          <t>A 6369-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45950.44516203704</v>
+        <v>45699.38993055555</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6212,7 +6202,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6249,14 +6239,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 13177-2025</t>
+          <t>A 35316-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45735.37274305556</v>
+        <v>45854.47652777778</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6268,8 +6258,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6306,14 +6301,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 35768-2025</t>
+          <t>A 35319-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45860</v>
+        <v>45854.48293981481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6325,8 +6320,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>5.7</v>
+        <v>3.3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6363,14 +6363,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 1635-2025</t>
+          <t>A 60071-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45670</v>
+        <v>45993.67202546296</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6383,7 +6383,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6420,14 +6420,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 14460-2023</t>
+          <t>A 44310-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45010</v>
+        <v>45573.57309027778</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6440,7 +6440,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>5.4</v>
+        <v>2.6</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6477,14 +6477,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 12275-2025</t>
+          <t>A 13177-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45729</v>
+        <v>45735.37274305556</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6497,7 +6497,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>7.5</v>
+        <v>2.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6534,14 +6534,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 55003-2024</t>
+          <t>A 35768-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45621.32651620371</v>
+        <v>45860</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6554,7 +6554,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.9</v>
+        <v>5.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6591,14 +6591,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 36407-2025</t>
+          <t>A 1635-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45868.67938657408</v>
+        <v>45670</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6611,7 +6611,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6648,14 +6648,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 52825-2025</t>
+          <t>A 36407-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45957.46645833334</v>
+        <v>45868.67938657408</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6668,7 +6668,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6705,14 +6705,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 52831-2025</t>
+          <t>A 36409-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45957.46996527778</v>
+        <v>45868.68178240741</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6725,7 +6725,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6762,14 +6762,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 36409-2025</t>
+          <t>A 60318-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45868.68178240741</v>
+        <v>45643.36900462963</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6782,7 +6782,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.6</v>
+        <v>3.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6819,14 +6819,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 9773-2021</t>
+          <t>A 9473-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44252</v>
+        <v>44981</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6839,7 +6839,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6876,14 +6876,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 49564-2024</t>
+          <t>A 30636-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45596.48508101852</v>
+        <v>45112.46046296296</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6895,8 +6895,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -6933,14 +6938,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 53689-2025</t>
+          <t>A 39542-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45960.58104166666</v>
+        <v>45167</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6953,7 +6958,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>10.9</v>
+        <v>0.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -6990,14 +6995,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 36961-2025</t>
+          <t>A 21369-2021</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45874.62365740741</v>
+        <v>44321.3083449074</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7010,7 +7015,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.9</v>
+        <v>10.7</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7047,14 +7052,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 37803-2025</t>
+          <t>A 36961-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45881</v>
+        <v>45874.62365740741</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7067,7 +7072,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3.3</v>
+        <v>0.9</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7104,14 +7109,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 38052-2025</t>
+          <t>A 50711-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45882</v>
+        <v>45602.38179398148</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7161,14 +7166,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 38054-2025</t>
+          <t>A 34859-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45882</v>
+        <v>45142.30226851852</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7181,7 +7186,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7218,14 +7223,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 13703-2024</t>
+          <t>A 49564-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45390</v>
+        <v>45596.48508101852</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7238,7 +7243,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7275,14 +7280,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 60071-2025</t>
+          <t>A 20651-2021</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45993.67202546296</v>
+        <v>44316.41503472222</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7294,8 +7299,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>0.5</v>
+        <v>5.1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7332,14 +7342,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 138-2022</t>
+          <t>A 38052-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44560</v>
+        <v>45882</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7352,7 +7362,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7389,14 +7399,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 5773-2023</t>
+          <t>A 37803-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44963.37827546296</v>
+        <v>45881</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7409,7 +7419,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7446,14 +7456,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 55119-2023</t>
+          <t>A 38054-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45237.47695601852</v>
+        <v>45882</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7503,14 +7513,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 58597-2022</t>
+          <t>A 3569-2026</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44894</v>
+        <v>46042.67932870371</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7523,7 +7533,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7560,14 +7570,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 3569-2026</t>
+          <t>A 46787-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>46042.67932870371</v>
+        <v>45198.6809375</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7580,7 +7590,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7617,14 +7627,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 29798-2024</t>
+          <t>A 29596-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45485.48961805556</v>
+        <v>45484</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7637,7 +7647,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>5.2</v>
+        <v>0.8</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7674,14 +7684,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 30636-2023</t>
+          <t>A 6686-2026</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45112.46046296296</v>
+        <v>46056.62666666666</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7693,13 +7703,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G124" t="n">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7743,7 +7748,7 @@
         <v>46056</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7793,14 +7798,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 6686-2026</t>
+          <t>A 16352-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>46056.62666666666</v>
+        <v>45028.69456018518</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7813,7 +7818,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7850,14 +7855,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 35486-2023</t>
+          <t>A 39537-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45146</v>
+        <v>45167</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7870,7 +7875,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7907,14 +7912,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 9297-2022</t>
+          <t>A 39540-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44616.47766203704</v>
+        <v>45167</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7927,7 +7932,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -7971,7 +7976,7 @@
         <v>46019.86751157408</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8021,14 +8026,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 8814-2022</t>
+          <t>A 10670-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44614</v>
+        <v>45369.34828703704</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8040,13 +8045,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G130" t="n">
-        <v>4.6</v>
+        <v>1.1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8083,14 +8083,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 9338-2023</t>
+          <t>A 62171-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44980</v>
+        <v>45267.42585648148</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8102,8 +8102,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G131" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8140,14 +8145,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 57647-2022</t>
+          <t>A 4783-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44897</v>
+        <v>44957.59467592592</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8160,7 +8165,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>8.699999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8197,14 +8202,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 40629-2024</t>
+          <t>A 38186-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45557.69868055556</v>
+        <v>45161</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8217,7 +8222,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>11.5</v>
+        <v>4.9</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8254,14 +8259,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 61700-2023</t>
+          <t>A 12554-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45265.65236111111</v>
+        <v>45000.35256944445</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8273,13 +8278,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G134" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8323,7 +8323,7 @@
         <v>45615.62634259259</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8373,14 +8373,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 46787-2023</t>
+          <t>A 40629-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45198.6809375</v>
+        <v>45557.69868055556</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>8.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8430,14 +8430,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 54902-2023</t>
+          <t>A 7722-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45229</v>
+        <v>45349</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8487,14 +8487,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 4783-2023</t>
+          <t>A 25316-2021</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44957.59467592592</v>
+        <v>44342</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8544,14 +8544,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 7722-2024</t>
+          <t>A 54902-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45349</v>
+        <v>45229</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8601,14 +8601,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 17806-2021</t>
+          <t>A 1094-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44300.64185185185</v>
+        <v>45665</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>5.7</v>
+        <v>0.8</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8658,14 +8658,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 5770-2023</t>
+          <t>A 59988-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44963.37232638889</v>
+        <v>45642.39239583333</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8715,14 +8715,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 6369-2025</t>
+          <t>A 53846-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45699.38993055555</v>
+        <v>45615.6309837963</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8772,14 +8772,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 26248-2024</t>
+          <t>A 46790-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45468.64033564815</v>
+        <v>45198.69354166667</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8829,14 +8829,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 47300-2022</t>
+          <t>A 13703-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44853</v>
+        <v>45390</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8886,14 +8886,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 47047-2021</t>
+          <t>A 60413-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44446.62215277777</v>
+        <v>45643.51706018519</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8943,14 +8943,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 62251-2023</t>
+          <t>A 55119-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45267.61526620371</v>
+        <v>45237.47695601852</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8962,13 +8962,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G146" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9005,14 +9000,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 7392-2022</t>
+          <t>A 58597-2022</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44606.63405092592</v>
+        <v>44894</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9025,7 +9020,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>5.2</v>
+        <v>0.8</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9062,14 +9057,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 1094-2025</t>
+          <t>A 20024-2022</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45665</v>
+        <v>44697.66332175926</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9082,7 +9077,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9119,14 +9114,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 27989-2022</t>
+          <t>A 5773-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44745</v>
+        <v>44963.37827546296</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9139,7 +9134,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9176,14 +9171,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 6497-2025</t>
+          <t>A 30411-2021</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45699.63719907407</v>
+        <v>44364.53988425926</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9196,7 +9191,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9233,14 +9228,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 26230-2023</t>
+          <t>A 809-2022</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45091</v>
+        <v>44571</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9252,13 +9247,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G151" t="n">
-        <v>9.4</v>
+        <v>4.3</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9295,14 +9285,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 2060-2023</t>
+          <t>A 27989-2022</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44939</v>
+        <v>44745</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9315,7 +9305,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9352,14 +9342,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 2070-2023</t>
+          <t>A 63239-2021</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44939</v>
+        <v>44508.36662037037</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9372,7 +9362,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>11.6</v>
+        <v>2.3</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9409,14 +9399,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 9177-2022</t>
+          <t>A 4272-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44615</v>
+        <v>44951</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9429,7 +9419,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9466,14 +9456,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 30411-2021</t>
+          <t>A 5770-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44364.53988425926</v>
+        <v>44963.37232638889</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9523,14 +9513,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 21369-2021</t>
+          <t>A 14460-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44321.3083449074</v>
+        <v>45010</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9543,7 +9533,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>10.7</v>
+        <v>5.4</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9580,14 +9570,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 20024-2022</t>
+          <t>A 9297-2022</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44697.66332175926</v>
+        <v>44616.47766203704</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9600,7 +9590,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9637,14 +9627,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 38186-2023</t>
+          <t>A 70743-2021</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45161</v>
+        <v>44537.63103009259</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9657,7 +9647,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>4.9</v>
+        <v>2.7</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9694,14 +9684,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 50711-2024</t>
+          <t>A 55003-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45602.38179398148</v>
+        <v>45621.32651620371</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9714,7 +9704,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9751,14 +9741,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 70743-2021</t>
+          <t>A 8814-2022</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44537.63103009259</v>
+        <v>44614</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9770,8 +9760,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G160" t="n">
-        <v>2.7</v>
+        <v>4.6</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9808,14 +9803,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 39542-2023</t>
+          <t>A 14196-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45167</v>
+        <v>45009</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9828,7 +9823,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -9865,14 +9860,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 16352-2023</t>
+          <t>A 20469-2021</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45028.69456018518</v>
+        <v>44315</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9884,8 +9879,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G162" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -9929,7 +9929,7 @@
         <v>45167</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9979,14 +9979,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 61925-2023</t>
+          <t>A 35486-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45266.51587962963</v>
+        <v>45146</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9999,7 +9999,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10036,14 +10036,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 49025-2023</t>
+          <t>A 7392-2022</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45209.82892361111</v>
+        <v>44606.63405092592</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10056,7 +10056,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10093,14 +10093,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 13694-2024</t>
+          <t>A 26230-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45390</v>
+        <v>45091</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10112,8 +10112,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G166" t="n">
-        <v>2.2</v>
+        <v>9.4</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10150,14 +10155,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 46520-2023</t>
+          <t>A 46339-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45197</v>
+        <v>45582.30826388889</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10170,7 +10175,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10207,14 +10212,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 29596-2024</t>
+          <t>A 16395-2021</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45484</v>
+        <v>44293</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10227,7 +10232,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10264,14 +10269,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 4272-2023</t>
+          <t>A 30970-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44951</v>
+        <v>45113.48916666667</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10284,7 +10289,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10321,14 +10326,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 809-2022</t>
+          <t>A 9338-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44571</v>
+        <v>44980</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10341,7 +10346,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>4.3</v>
+        <v>0.7</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10378,14 +10383,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 37789-2022</t>
+          <t>A 6497-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44810</v>
+        <v>45699.63719907407</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10435,14 +10440,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 62171-2023</t>
+          <t>A 138-2022</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45267.42585648148</v>
+        <v>44560</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10454,13 +10459,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G172" t="n">
-        <v>1.9</v>
+        <v>0.3</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10497,14 +10497,14 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 39907-2024</t>
+          <t>A 29798-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45553.51288194444</v>
+        <v>45485.48961805556</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>6.5</v>
+        <v>5.2</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>

--- a/Översikt HJO.xlsx
+++ b/Översikt HJO.xlsx
@@ -575,7 +575,7 @@
         <v>44272</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44593</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -739,14 +739,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 10014-2025</t>
+          <t>A 26270-2024</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45719.46746527778</v>
+        <v>45468</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -759,22 +759,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
         <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -793,123 +793,123 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
+          <t>Ask</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1497/artfynd/A 26270-2024 artfynd.xlsx", "A 26270-2024")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1497/kartor/A 26270-2024 karta.png", "A 26270-2024")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1497/klagomål/A 26270-2024 FSC-klagomål.docx", "A 26270-2024")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1497/klagomålsmail/A 26270-2024 FSC-klagomål mail.docx", "A 26270-2024")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1497/tillsyn/A 26270-2024 tillsynsbegäran.docx", "A 26270-2024")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1497/tillsynsmail/A 26270-2024 tillsynsbegäran mail.docx", "A 26270-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 10014-2025</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45719.46746527778</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>HJO</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
           <t>Knärot</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1497/artfynd/A 10014-2025 artfynd.xlsx", "A 10014-2025")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1497/kartor/A 10014-2025 karta.png", "A 10014-2025")</f>
         <v/>
       </c>
-      <c r="U4">
+      <c r="U5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1497/knärot/A 10014-2025 karta knärot.png", "A 10014-2025")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1497/klagomål/A 10014-2025 FSC-klagomål.docx", "A 10014-2025")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1497/klagomålsmail/A 10014-2025 FSC-klagomål mail.docx", "A 10014-2025")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1497/tillsyn/A 10014-2025 tillsynsbegäran.docx", "A 10014-2025")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1497/tillsynsmail/A 10014-2025 tillsynsbegäran mail.docx", "A 10014-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 26270-2024</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45468</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>HJO</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Ask</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1497/artfynd/A 26270-2024 artfynd.xlsx", "A 26270-2024")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1497/kartor/A 26270-2024 karta.png", "A 26270-2024")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1497/klagomål/A 26270-2024 FSC-klagomål.docx", "A 26270-2024")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1497/klagomålsmail/A 26270-2024 FSC-klagomål mail.docx", "A 26270-2024")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1497/tillsyn/A 26270-2024 tillsynsbegäran.docx", "A 26270-2024")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1497/tillsynsmail/A 26270-2024 tillsynsbegäran mail.docx", "A 26270-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44799.45684027778</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44729</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44525.73625</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>44616.29740740741</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>44692</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>44866.6278587963</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>44623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>44354.60260416667</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44846</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>44515</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         <v>44474</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>44852.25016203704</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>44797.86921296296</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>44748.35234953704</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>44488.62511574074</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>44781</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>44508</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>44608</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>44784.3796875</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>44456</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>44641</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2115,14 +2115,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 35771-2021</t>
+          <t>A 47656-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44386</v>
+        <v>44854.45597222223</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2172,14 +2172,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 47656-2022</t>
+          <t>A 35771-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44854.45597222223</v>
+        <v>44386</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         <v>44456</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>44354.6397337963</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>44606.37339120371</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>44438.72671296296</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>44781.43912037037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>44714</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>44477</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>44638.65868055556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>44615</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>44427.35878472222</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>44616.2996875</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2856,14 +2856,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 44684-2023</t>
+          <t>A 62233-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45186</v>
+        <v>44922</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.7</v>
+        <v>5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2913,14 +2913,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 12275-2025</t>
+          <t>A 59986-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45729</v>
+        <v>45257.81895833334</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2970,14 +2970,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 724-2024</t>
+          <t>A 22050-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45300</v>
+        <v>45069</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2989,8 +2989,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3027,14 +3032,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 61925-2023</t>
+          <t>A 60413-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45266.51587962963</v>
+        <v>45643.51706018519</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3047,7 +3052,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3084,14 +3089,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 37789-2022</t>
+          <t>A 30970-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44810</v>
+        <v>45113.48916666667</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3104,7 +3109,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3141,14 +3146,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 32518-2022</t>
+          <t>A 46339-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44782.91590277778</v>
+        <v>45582.30826388889</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3161,7 +3166,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3198,14 +3203,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 50152-2023</t>
+          <t>A 46762-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45215</v>
+        <v>45198</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3218,7 +3223,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>4.8</v>
+        <v>0.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3255,14 +3260,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 49025-2023</t>
+          <t>A 46790-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45209.82892361111</v>
+        <v>45198.69354166667</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3275,7 +3280,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>5.4</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3312,14 +3317,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 48359-2025</t>
+          <t>A 44310-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45933.66196759259</v>
+        <v>45573.57309027778</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3332,7 +3337,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3369,14 +3374,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 17806-2021</t>
+          <t>A 39537-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44300.64185185185</v>
+        <v>45167</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3389,7 +3394,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>5.7</v>
+        <v>0.6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3426,14 +3431,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 39907-2024</t>
+          <t>A 39540-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45553.51288194444</v>
+        <v>45167</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3446,7 +3451,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>6.5</v>
+        <v>1.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3483,14 +3488,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 26792-2024</t>
+          <t>A 724-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45470</v>
+        <v>45300</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3502,13 +3507,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>7.1</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3545,14 +3545,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 26248-2024</t>
+          <t>A 9473-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45468.64033564815</v>
+        <v>44981</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3602,14 +3602,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 36738-2024</t>
+          <t>A 1108-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45538.29486111111</v>
+        <v>44935.59246527778</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3659,14 +3659,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 19810-2025</t>
+          <t>A 44684-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45771</v>
+        <v>45186</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3716,14 +3716,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 59986-2023</t>
+          <t>A 34859-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45257.81895833334</v>
+        <v>45142.30226851852</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>7.7</v>
+        <v>2.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3773,14 +3773,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 47047-2021</t>
+          <t>A 2866-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44446.62215277777</v>
+        <v>44945</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3830,14 +3830,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 62251-2023</t>
+          <t>A 32518-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45267.61526620371</v>
+        <v>44782.91590277778</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3849,13 +3849,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3892,14 +3887,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 49278-2025</t>
+          <t>A 16395-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45938.50790509259</v>
+        <v>44293</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3912,7 +3907,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4.8</v>
+        <v>1.9</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3949,14 +3944,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 40859-2025</t>
+          <t>A 50152-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45897.56069444444</v>
+        <v>45215</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3969,7 +3964,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.7</v>
+        <v>4.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4006,14 +4001,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 47300-2022</t>
+          <t>A 60318-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44853</v>
+        <v>45643.36900462963</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4026,7 +4021,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4063,14 +4058,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 8145-2024</t>
+          <t>A 25316-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45351</v>
+        <v>44342</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4083,7 +4078,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>7.3</v>
+        <v>0.9</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4120,14 +4115,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 42292-2025</t>
+          <t>A 28211-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45904.62887731481</v>
+        <v>45818.45789351852</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4140,7 +4135,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4177,14 +4172,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 61700-2023</t>
+          <t>A 29064-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45265.65236111111</v>
+        <v>45821</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4196,13 +4191,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4239,14 +4229,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 50093-2025</t>
+          <t>A 29019-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45943.49165509259</v>
+        <v>45821.42359953704</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4259,7 +4249,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>4.3</v>
+        <v>1.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4296,14 +4286,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 50091-2025</t>
+          <t>A 53846-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45943.48703703703</v>
+        <v>45615.6309837963</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4316,7 +4306,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>4.1</v>
+        <v>0.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4353,14 +4343,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 50932-2025</t>
+          <t>A 20469-2021</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45946.68842592592</v>
+        <v>44315</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4372,8 +4362,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4410,14 +4405,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 60414-2024</t>
+          <t>A 12554-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45643.51864583333</v>
+        <v>45000.35256944445</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4430,7 +4425,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4467,14 +4462,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 51362-2025</t>
+          <t>A 20651-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45950.44516203704</v>
+        <v>44316.41503472222</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4486,8 +4481,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>0.6</v>
+        <v>5.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4524,14 +4524,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 2070-2023</t>
+          <t>A 29960-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44939</v>
+        <v>45826.4806712963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>11.6</v>
+        <v>2.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4581,14 +4581,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 2866-2023</t>
+          <t>A 59988-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44945</v>
+        <v>45642.39239583333</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.6</v>
+        <v>2.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4638,14 +4638,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 24388-2025</t>
+          <t>A 40859-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45797.63533564815</v>
+        <v>45897.56069444444</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4695,14 +4695,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 52825-2025</t>
+          <t>A 59452-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45957.46645833334</v>
+        <v>45254.37158564815</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4752,14 +4752,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 52831-2025</t>
+          <t>A 10670-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45957.46996527778</v>
+        <v>45369.34828703704</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4809,14 +4809,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 53689-2025</t>
+          <t>A 63239-2021</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45960.58104166666</v>
+        <v>44508.36662037037</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>10.9</v>
+        <v>2.3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4866,14 +4866,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 25053-2025</t>
+          <t>A 14196-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45799.67575231481</v>
+        <v>45009</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4923,14 +4923,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 24723-2025</t>
+          <t>A 42292-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45799.31555555556</v>
+        <v>45904.62887731481</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4987,7 +4987,7 @@
         <v>45911.34883101852</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5037,14 +5037,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 57647-2022</t>
+          <t>A 14460-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44897</v>
+        <v>45010</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>8.699999999999999</v>
+        <v>5.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5094,14 +5094,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 26229-2025</t>
+          <t>A 12275-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45805.56230324074</v>
+        <v>45729</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.6</v>
+        <v>7.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5151,14 +5151,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 26238-2025</t>
+          <t>A 55003-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45805.56920138889</v>
+        <v>45621.32651620371</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>4.6</v>
+        <v>1.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5208,14 +5208,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 62233-2022</t>
+          <t>A 9773-2021</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44922</v>
+        <v>44252</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5265,14 +5265,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 4243-2025</t>
+          <t>A 35316-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45685.58085648148</v>
+        <v>45854.47652777778</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5284,8 +5284,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5322,14 +5327,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 2060-2023</t>
+          <t>A 35319-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44939</v>
+        <v>45854.48293981481</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5341,8 +5346,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5379,14 +5389,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 45742-2025</t>
+          <t>A 49564-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45923.46953703704</v>
+        <v>45596.48508101852</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5436,14 +5446,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 1108-2023</t>
+          <t>A 45736-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44935.59246527778</v>
+        <v>45923.46587962963</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5456,7 +5466,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5493,14 +5503,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 45736-2025</t>
+          <t>A 13177-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45923.46587962963</v>
+        <v>45735.37274305556</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5513,7 +5523,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5550,14 +5560,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 13694-2024</t>
+          <t>A 45742-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45390</v>
+        <v>45923.46953703704</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5570,7 +5580,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5607,14 +5617,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 28211-2025</t>
+          <t>A 35768-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45818.45789351852</v>
+        <v>45860</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5627,7 +5637,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.1</v>
+        <v>5.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5664,14 +5674,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 46520-2023</t>
+          <t>A 1635-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45197</v>
+        <v>45670</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5684,7 +5694,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5721,14 +5731,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 9177-2022</t>
+          <t>A 36407-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44615</v>
+        <v>45868.67938657408</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5741,7 +5751,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5778,14 +5788,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 29064-2025</t>
+          <t>A 36409-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45821</v>
+        <v>45868.68178240741</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5798,7 +5808,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5835,14 +5845,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 29019-2025</t>
+          <t>A 36961-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45821.42359953704</v>
+        <v>45874.62365740741</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5855,7 +5865,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5892,14 +5902,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 46762-2023</t>
+          <t>A 48359-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45198</v>
+        <v>45933.66196759259</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5912,7 +5922,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5949,14 +5959,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 29960-2025</t>
+          <t>A 13703-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45826.4806712963</v>
+        <v>45390</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5969,7 +5979,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6006,14 +6016,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 59452-2023</t>
+          <t>A 37803-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45254.37158564815</v>
+        <v>45881</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6026,7 +6036,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6063,14 +6073,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 9773-2021</t>
+          <t>A 38052-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44252</v>
+        <v>45882</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6083,7 +6093,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6120,14 +6130,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 22050-2023</t>
+          <t>A 38054-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45069</v>
+        <v>45882</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6139,13 +6149,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6182,14 +6187,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 6369-2025</t>
+          <t>A 138-2022</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45699.38993055555</v>
+        <v>44560</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6202,7 +6207,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.3</v>
+        <v>0.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6239,14 +6244,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 35316-2025</t>
+          <t>A 49278-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45854.47652777778</v>
+        <v>45938.50790509259</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6258,13 +6263,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>2.2</v>
+        <v>4.8</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6301,14 +6301,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 35319-2025</t>
+          <t>A 5773-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45854.48293981481</v>
+        <v>44963.37827546296</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6320,13 +6320,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G100" t="n">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6363,14 +6358,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 60071-2025</t>
+          <t>A 50093-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45993.67202546296</v>
+        <v>45943.49165509259</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6383,7 +6378,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.5</v>
+        <v>4.3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6420,14 +6415,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 44310-2024</t>
+          <t>A 50091-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45573.57309027778</v>
+        <v>45943.48703703703</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6440,7 +6435,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.6</v>
+        <v>4.1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6477,14 +6472,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 13177-2025</t>
+          <t>A 55119-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45735.37274305556</v>
+        <v>45237.47695601852</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6497,7 +6492,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6534,14 +6529,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 35768-2025</t>
+          <t>A 58597-2022</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45860</v>
+        <v>44894</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6554,7 +6549,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>5.7</v>
+        <v>0.8</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6591,14 +6586,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 1635-2025</t>
+          <t>A 50932-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45670</v>
+        <v>45946.68842592592</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6611,7 +6606,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6648,14 +6643,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 36407-2025</t>
+          <t>A 51362-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45868.67938657408</v>
+        <v>45950.44516203704</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6668,7 +6663,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6705,14 +6700,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 36409-2025</t>
+          <t>A 52825-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45868.68178240741</v>
+        <v>45957.46645833334</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6725,7 +6720,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6762,14 +6757,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 60318-2024</t>
+          <t>A 52831-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45643.36900462963</v>
+        <v>45957.46996527778</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6782,7 +6777,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3.7</v>
+        <v>2.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6819,14 +6814,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 9473-2023</t>
+          <t>A 53689-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44981</v>
+        <v>45960.58104166666</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6839,7 +6834,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.1</v>
+        <v>10.9</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6876,14 +6871,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 30636-2023</t>
+          <t>A 29798-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45112.46046296296</v>
+        <v>45485.48961805556</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6895,13 +6890,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G110" t="n">
-        <v>0.8</v>
+        <v>5.2</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -6938,14 +6928,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 39542-2023</t>
+          <t>A 30636-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45167</v>
+        <v>45112.46046296296</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6957,8 +6947,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G111" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -6995,14 +6990,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 21369-2021</t>
+          <t>A 35486-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44321.3083449074</v>
+        <v>45146</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7015,7 +7010,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>10.7</v>
+        <v>2.9</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7052,14 +7047,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 36961-2025</t>
+          <t>A 9297-2022</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45874.62365740741</v>
+        <v>44616.47766203704</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7072,7 +7067,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7109,14 +7104,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 50711-2024</t>
+          <t>A 8814-2022</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45602.38179398148</v>
+        <v>44614</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7128,8 +7123,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>4.6</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7166,14 +7166,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 34859-2023</t>
+          <t>A 9338-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45142.30226851852</v>
+        <v>44980</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7223,14 +7223,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 49564-2024</t>
+          <t>A 57647-2022</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45596.48508101852</v>
+        <v>44897</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7280,14 +7280,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 20651-2021</t>
+          <t>A 60071-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44316.41503472222</v>
+        <v>45993.67202546296</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7299,13 +7299,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>5.1</v>
+        <v>0.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7342,14 +7337,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 38052-2025</t>
+          <t>A 40629-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45882</v>
+        <v>45557.69868055556</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7362,7 +7357,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>11.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7399,14 +7394,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 37803-2025</t>
+          <t>A 61700-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45881</v>
+        <v>45265.65236111111</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7418,8 +7413,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G119" t="n">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7456,14 +7456,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 38054-2025</t>
+          <t>A 3569-2026</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45882</v>
+        <v>46042.67932870371</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7513,14 +7513,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 3569-2026</t>
+          <t>A 53839-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>46042.67932870371</v>
+        <v>45615.62634259259</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7577,7 +7577,7 @@
         <v>45198.6809375</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7627,14 +7627,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 29596-2024</t>
+          <t>A 54902-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45484</v>
+        <v>45229</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7647,7 +7647,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7684,14 +7684,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 6686-2026</t>
+          <t>A 6705-2026</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>46056.62666666666</v>
+        <v>46056</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>4</v>
+        <v>6.3</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7741,14 +7741,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 6705-2026</t>
+          <t>A 6686-2026</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>46056</v>
+        <v>46056.62666666666</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>6.3</v>
+        <v>4</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7798,14 +7798,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 16352-2023</t>
+          <t>A 4783-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45028.69456018518</v>
+        <v>44957.59467592592</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7855,14 +7855,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 39537-2023</t>
+          <t>A 7722-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45167</v>
+        <v>45349</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7912,14 +7912,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 39540-2023</t>
+          <t>A 63802-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45167</v>
+        <v>46019.86751157408</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7932,7 +7932,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -7969,14 +7969,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 63802-2025</t>
+          <t>A 17806-2021</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>46019.86751157408</v>
+        <v>44300.64185185185</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7989,7 +7989,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2</v>
+        <v>5.7</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8026,14 +8026,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 10670-2024</t>
+          <t>A 5770-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45369.34828703704</v>
+        <v>44963.37232638889</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8083,14 +8083,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 62171-2023</t>
+          <t>A 6369-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45267.42585648148</v>
+        <v>45699.38993055555</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8102,13 +8102,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G131" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8145,14 +8140,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 4783-2023</t>
+          <t>A 26248-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44957.59467592592</v>
+        <v>45468.64033564815</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8165,7 +8160,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8202,14 +8197,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 38186-2023</t>
+          <t>A 47300-2022</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45161</v>
+        <v>44853</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8222,7 +8217,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>4.9</v>
+        <v>2.4</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8259,14 +8254,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 12554-2023</t>
+          <t>A 47047-2021</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45000.35256944445</v>
+        <v>44446.62215277777</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8279,7 +8274,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8316,14 +8311,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 53839-2024</t>
+          <t>A 62251-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45615.62634259259</v>
+        <v>45267.61526620371</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8335,8 +8330,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G135" t="n">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8373,14 +8373,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 40629-2024</t>
+          <t>A 7392-2022</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45557.69868055556</v>
+        <v>44606.63405092592</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>11.5</v>
+        <v>5.2</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8430,14 +8430,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 7722-2024</t>
+          <t>A 1094-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45349</v>
+        <v>45665</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8487,14 +8487,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 25316-2021</t>
+          <t>A 27989-2022</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44342</v>
+        <v>44745</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8544,14 +8544,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 54902-2023</t>
+          <t>A 6497-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45229</v>
+        <v>45699.63719907407</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8601,14 +8601,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 1094-2025</t>
+          <t>A 26230-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45665</v>
+        <v>45091</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8620,8 +8620,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G140" t="n">
-        <v>0.8</v>
+        <v>9.4</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8658,14 +8663,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 59988-2024</t>
+          <t>A 2060-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45642.39239583333</v>
+        <v>44939</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8678,7 +8683,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8715,14 +8720,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 53846-2024</t>
+          <t>A 2070-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45615.6309837963</v>
+        <v>44939</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8735,7 +8740,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.5</v>
+        <v>11.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8772,14 +8777,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 46790-2023</t>
+          <t>A 9177-2022</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45198.69354166667</v>
+        <v>44615</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8792,7 +8797,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8829,14 +8834,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 13703-2024</t>
+          <t>A 30411-2021</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45390</v>
+        <v>44364.53988425926</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8849,7 +8854,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8886,14 +8891,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 60413-2024</t>
+          <t>A 21369-2021</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45643.51706018519</v>
+        <v>44321.3083449074</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8906,7 +8911,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.9</v>
+        <v>10.7</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8943,14 +8948,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 55119-2023</t>
+          <t>A 20024-2022</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45237.47695601852</v>
+        <v>44697.66332175926</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8963,7 +8968,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9000,14 +9005,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 58597-2022</t>
+          <t>A 38186-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44894</v>
+        <v>45161</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9020,7 +9025,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.8</v>
+        <v>4.9</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9057,14 +9062,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 20024-2022</t>
+          <t>A 50711-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44697.66332175926</v>
+        <v>45602.38179398148</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9077,7 +9082,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9114,14 +9119,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 5773-2023</t>
+          <t>A 70743-2021</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44963.37827546296</v>
+        <v>44537.63103009259</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9134,7 +9139,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9171,14 +9176,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 30411-2021</t>
+          <t>A 39542-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44364.53988425926</v>
+        <v>45167</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9191,7 +9196,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9228,14 +9233,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 809-2022</t>
+          <t>A 16352-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44571</v>
+        <v>45028.69456018518</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9248,7 +9253,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>4.3</v>
+        <v>3.1</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9285,14 +9290,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 27989-2022</t>
+          <t>A 39538-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44745</v>
+        <v>45167</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9305,7 +9310,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.5</v>
+        <v>5.3</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9342,14 +9347,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 63239-2021</t>
+          <t>A 61925-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44508.36662037037</v>
+        <v>45266.51587962963</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9362,7 +9367,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9399,14 +9404,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 4272-2023</t>
+          <t>A 49025-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44951</v>
+        <v>45209.82892361111</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9419,7 +9424,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.8</v>
+        <v>5.4</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9456,14 +9461,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 5770-2023</t>
+          <t>A 13694-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44963.37232638889</v>
+        <v>45390</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9476,7 +9481,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9513,14 +9518,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 14460-2023</t>
+          <t>A 46520-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45010</v>
+        <v>45197</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9533,7 +9538,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>5.4</v>
+        <v>1.9</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9570,14 +9575,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 9297-2022</t>
+          <t>A 29596-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44616.47766203704</v>
+        <v>45484</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9590,7 +9595,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9627,14 +9632,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 70743-2021</t>
+          <t>A 4272-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44537.63103009259</v>
+        <v>44951</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9647,7 +9652,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9684,14 +9689,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 55003-2024</t>
+          <t>A 809-2022</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45621.32651620371</v>
+        <v>44571</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9704,7 +9709,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.9</v>
+        <v>4.3</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9741,14 +9746,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 8814-2022</t>
+          <t>A 37789-2022</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44614</v>
+        <v>44810</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9760,13 +9765,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G160" t="n">
-        <v>4.6</v>
+        <v>2.6</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9803,14 +9803,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 14196-2023</t>
+          <t>A 62171-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45009</v>
+        <v>45267.42585648148</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9822,8 +9822,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G161" t="n">
-        <v>3.5</v>
+        <v>1.9</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -9860,14 +9865,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 20469-2021</t>
+          <t>A 39907-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44315</v>
+        <v>45553.51288194444</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9879,13 +9884,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G162" t="n">
-        <v>2.2</v>
+        <v>6.5</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -9922,14 +9922,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 39538-2023</t>
+          <t>A 19810-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45167</v>
+        <v>45771</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9942,7 +9942,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>5.3</v>
+        <v>0.4</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -9979,14 +9979,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 35486-2023</t>
+          <t>A 26792-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45146</v>
+        <v>45470</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9998,8 +9998,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G164" t="n">
-        <v>2.9</v>
+        <v>7.1</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10036,14 +10041,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 7392-2022</t>
+          <t>A 36738-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44606.63405092592</v>
+        <v>45538.29486111111</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10056,7 +10061,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>5.2</v>
+        <v>0.9</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10093,14 +10098,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 26230-2023</t>
+          <t>A 8145-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45091</v>
+        <v>45351</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10112,13 +10117,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G166" t="n">
-        <v>9.4</v>
+        <v>7.3</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10155,14 +10155,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 46339-2024</t>
+          <t>A 24388-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45582.30826388889</v>
+        <v>45797.63533564815</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10175,7 +10175,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10212,14 +10212,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 16395-2021</t>
+          <t>A 60414-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44293</v>
+        <v>45643.51864583333</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10232,7 +10232,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10269,14 +10269,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 30970-2023</t>
+          <t>A 25053-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45113.48916666667</v>
+        <v>45799.67575231481</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10326,14 +10326,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 9338-2023</t>
+          <t>A 24723-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44980</v>
+        <v>45799.31555555556</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10383,14 +10383,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 6497-2025</t>
+          <t>A 26238-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45699.63719907407</v>
+        <v>45805.56920138889</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2.6</v>
+        <v>4.6</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10440,14 +10440,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 138-2022</t>
+          <t>A 26229-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44560</v>
+        <v>45805.56230324074</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.3</v>
+        <v>1.6</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10497,14 +10497,14 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 29798-2024</t>
+          <t>A 4243-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45485.48961805556</v>
+        <v>45685.58085648148</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>5.2</v>
+        <v>1.5</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>

--- a/Översikt HJO.xlsx
+++ b/Översikt HJO.xlsx
@@ -575,7 +575,7 @@
         <v>44272</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44593</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>45468</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>45719.46746527778</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44799.45684027778</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44729</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44525.73625</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>44616.29740740741</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>44692</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>44866.6278587963</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>44623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>44354.60260416667</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44846</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>44515</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         <v>44474</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>44852.25016203704</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>44797.86921296296</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>44748.35234953704</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>44488.62511574074</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>44781</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>44508</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>44608</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>44784.3796875</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>44456</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>44641</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>44854.45597222223</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>44386</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>44456</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>44354.6397337963</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>44606.37339120371</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>44438.72671296296</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>44781.43912037037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>44714</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>44477</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>44638.65868055556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>44615</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>44427.35878472222</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>44616.2996875</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>44922</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>45257.81895833334</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>45069</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>45643.51706018519</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>45113.48916666667</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>45582.30826388889</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>45198</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>45198.69354166667</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>45573.57309027778</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>45167</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>45167</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>45300</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>44981</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>44935.59246527778</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>45186</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>45142.30226851852</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>44945</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>44782.91590277778</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>44293</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>45215</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>45643.36900462963</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>44342</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>45818.45789351852</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>45821</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>45821.42359953704</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         <v>45615.6309837963</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4350,7 +4350,7 @@
         <v>44315</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>45000.35256944445</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>44316.41503472222</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>45826.4806712963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>45642.39239583333</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>45897.56069444444</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>45254.37158564815</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>45369.34828703704</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>44508.36662037037</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>45009</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>45904.62887731481</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>45911.34883101852</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>45010</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>45729</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>45621.32651620371</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>44252</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>45854.47652777778</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>45854.48293981481</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>45596.48508101852</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>45923.46587962963</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>45735.37274305556</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>45923.46953703704</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>45860</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>45670</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>45868.67938657408</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>45868.68178240741</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>45874.62365740741</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>45933.66196759259</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>45390</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>45881</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>45882</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>45882</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44560</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>45938.50790509259</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>44963.37827546296</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>45943.49165509259</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>45943.48703703703</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         <v>45237.47695601852</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>44894</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>45946.68842592592</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>45950.44516203704</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>45957.46645833334</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>45957.46996527778</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>45960.58104166666</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>45485.48961805556</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>45112.46046296296</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>45146</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>44616.47766203704</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>44614</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>44980</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>44897</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>45993.67202546296</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>45557.69868055556</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>45265.65236111111</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>46042.67932870371</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>45615.62634259259</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>45198.6809375</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>45229</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>46056</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>46056.62666666666</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>44957.59467592592</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>45349</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>46019.86751157408</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>44300.64185185185</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>44963.37232638889</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>45699.38993055555</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>45468.64033564815</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44853</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44446.62215277777</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>45267.61526620371</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>44606.63405092592</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>45665</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>44745</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>45699.63719907407</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>45091</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>44939</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>44939</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>44615</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44364.53988425926</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>44321.3083449074</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>44697.66332175926</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>45161</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>45602.38179398148</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>44537.63103009259</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>45167</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>45028.69456018518</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>45167</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>45266.51587962963</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>45209.82892361111</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9468,7 +9468,7 @@
         <v>45390</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>45197</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>45484</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>44951</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>44571</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>44810</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>45267.42585648148</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>45553.51288194444</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>45771</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>45470</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>45538.29486111111</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
         <v>45351</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10162,7 +10162,7 @@
         <v>45797.63533564815</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10219,7 +10219,7 @@
         <v>45643.51864583333</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10276,7 +10276,7 @@
         <v>45799.67575231481</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10333,7 +10333,7 @@
         <v>45799.31555555556</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10390,7 +10390,7 @@
         <v>45805.56920138889</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10447,7 +10447,7 @@
         <v>45805.56230324074</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10504,7 +10504,7 @@
         <v>45685.58085648148</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>

--- a/Översikt HJO.xlsx
+++ b/Översikt HJO.xlsx
@@ -575,7 +575,7 @@
         <v>44272</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44593</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>45468</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>45719.46746527778</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44799.45684027778</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44729</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44525.73625</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>44616.29740740741</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>44692</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>44866.6278587963</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>44623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>44354.60260416667</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44846</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>44515</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         <v>44474</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>44852.25016203704</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>44797.86921296296</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>44748.35234953704</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>44488.62511574074</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>44781</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>44508</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>44608</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>44784.3796875</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>44456</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>44641</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>44854.45597222223</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>44386</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>44456</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>44354.6397337963</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>44606.37339120371</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>44438.72671296296</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>44781.43912037037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>44714</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>44477</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>44638.65868055556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>44615</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>44427.35878472222</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>44616.2996875</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>44922</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>45257.81895833334</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>45069</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>45643.51706018519</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>45113.48916666667</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>45582.30826388889</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>45198</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>45198.69354166667</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>45573.57309027778</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>45167</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>45167</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>45300</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>44981</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>44935.59246527778</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>45186</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>45142.30226851852</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>44945</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>44782.91590277778</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>44293</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>45215</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>45643.36900462963</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>44342</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>45818.45789351852</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>45821</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>45821.42359953704</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         <v>45615.6309837963</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4350,7 +4350,7 @@
         <v>44315</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>45000.35256944445</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>44316.41503472222</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>45826.4806712963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>45642.39239583333</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>45897.56069444444</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>45254.37158564815</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>45369.34828703704</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>44508.36662037037</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>45009</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>45904.62887731481</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>45911.34883101852</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>45010</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>45729</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>45621.32651620371</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>44252</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>45854.47652777778</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>45854.48293981481</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>45596.48508101852</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>45923.46587962963</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>45735.37274305556</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>45923.46953703704</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>45860</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>45670</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>45868.67938657408</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>45868.68178240741</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>45874.62365740741</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>45933.66196759259</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>45390</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>45881</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>45882</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>45882</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44560</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>45938.50790509259</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>44963.37827546296</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>45943.49165509259</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>45943.48703703703</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         <v>45237.47695601852</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>44894</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>45946.68842592592</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>45950.44516203704</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>45957.46645833334</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>45957.46996527778</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>45960.58104166666</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>45485.48961805556</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>45112.46046296296</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>45146</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>44616.47766203704</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>44614</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>44980</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>44897</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>45993.67202546296</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>45557.69868055556</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>45265.65236111111</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>46042.67932870371</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>45615.62634259259</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>45198.6809375</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>45229</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>46056</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>46056.62666666666</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>44957.59467592592</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>45349</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>46019.86751157408</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>44300.64185185185</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>44963.37232638889</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>45699.38993055555</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>45468.64033564815</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44853</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44446.62215277777</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>45267.61526620371</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>44606.63405092592</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>45665</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>44745</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>45699.63719907407</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>45091</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>44939</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>44939</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>44615</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44364.53988425926</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>44321.3083449074</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>44697.66332175926</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>45161</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>45602.38179398148</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>44537.63103009259</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>45167</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>45028.69456018518</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>45167</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>45266.51587962963</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>45209.82892361111</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9468,7 +9468,7 @@
         <v>45390</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>45197</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>45484</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>44951</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>44571</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>44810</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>45267.42585648148</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>45553.51288194444</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>45771</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>45470</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>45538.29486111111</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
         <v>45351</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10162,7 +10162,7 @@
         <v>45797.63533564815</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10219,7 +10219,7 @@
         <v>45643.51864583333</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10276,7 +10276,7 @@
         <v>45799.67575231481</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10333,7 +10333,7 @@
         <v>45799.31555555556</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10390,7 +10390,7 @@
         <v>45805.56920138889</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10447,7 +10447,7 @@
         <v>45805.56230324074</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10504,7 +10504,7 @@
         <v>45685.58085648148</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>

--- a/Översikt HJO.xlsx
+++ b/Översikt HJO.xlsx
@@ -575,7 +575,7 @@
         <v>44272</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44593</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>45468</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>45719.46746527778</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44799.45684027778</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44729</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44525.73625</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>44616.29740740741</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1146,14 +1146,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 19341-2022</t>
+          <t>A 10337-2022</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44692</v>
+        <v>44623</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1166,7 +1166,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.3</v>
+        <v>8.4</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1203,14 +1203,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 50559-2022</t>
+          <t>A 65329-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44866.6278587963</v>
+        <v>44515</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>7.7</v>
+        <v>1.2</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1260,14 +1260,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 10337-2022</t>
+          <t>A 27849-2021</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44623</v>
+        <v>44354.60260416667</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>8.4</v>
+        <v>1.4</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1317,14 +1317,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 27849-2021</t>
+          <t>A 19341-2022</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44354.60260416667</v>
+        <v>44692</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>44846</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1431,14 +1431,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 65329-2021</t>
+          <t>A 50559-2022</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44515</v>
+        <v>44866.6278587963</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.2</v>
+        <v>7.7</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>44474</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>44852.25016203704</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>44797.86921296296</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1659,14 +1659,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 28512-2022</t>
+          <t>A 58495-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44748.35234953704</v>
+        <v>44488.62511574074</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4.4</v>
+        <v>3</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1716,14 +1716,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 58495-2021</t>
+          <t>A 28512-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44488.62511574074</v>
+        <v>44748.35234953704</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>4.4</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1773,14 +1773,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 32158-2022</t>
+          <t>A 63257-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44781</v>
+        <v>44508</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1830,14 +1830,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 63257-2021</t>
+          <t>A 7786-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44508</v>
+        <v>44608</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.6</v>
+        <v>0.1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1887,14 +1887,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 7786-2022</t>
+          <t>A 32158-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44608</v>
+        <v>44781</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.1</v>
+        <v>1.4</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1951,7 +1951,7 @@
         <v>44784.3796875</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>44456</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>44641</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2115,14 +2115,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 47656-2022</t>
+          <t>A 35771-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44854.45597222223</v>
+        <v>44386</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2172,14 +2172,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 35771-2021</t>
+          <t>A 50738-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44386</v>
+        <v>44456</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2229,14 +2229,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 50738-2021</t>
+          <t>A 47656-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44456</v>
+        <v>44854.45597222223</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2286,14 +2286,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 27872-2021</t>
+          <t>A 44965-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44354.6397337963</v>
+        <v>44438.72671296296</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2343,14 +2343,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 7231-2022</t>
+          <t>A 27872-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44606.37339120371</v>
+        <v>44354.6397337963</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>4.7</v>
+        <v>3.1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2400,14 +2400,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 44965-2021</t>
+          <t>A 32219-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44438.72671296296</v>
+        <v>44781.43912037037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2457,14 +2457,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 32219-2022</t>
+          <t>A 56175-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44781.43912037037</v>
+        <v>44477</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2514,14 +2514,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 22586-2022</t>
+          <t>A 7231-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44714</v>
+        <v>44606.37339120371</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>6</v>
+        <v>4.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2571,14 +2571,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 56175-2021</t>
+          <t>A 12544-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44477</v>
+        <v>44638.65868055556</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2628,14 +2628,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 12544-2022</t>
+          <t>A 22586-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44638.65868055556</v>
+        <v>44714</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>44615</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2742,14 +2742,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 42295-2021</t>
+          <t>A 1108-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44427.35878472222</v>
+        <v>44935.59246527778</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2799,14 +2799,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 9210-2022</t>
+          <t>A 42295-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44616.2996875</v>
+        <v>44427.35878472222</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2856,14 +2856,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 62233-2022</t>
+          <t>A 44684-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44922</v>
+        <v>45186</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2913,14 +2913,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 59986-2023</t>
+          <t>A 26248-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45257.81895833334</v>
+        <v>45468.64033564815</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>7.7</v>
+        <v>3.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2970,14 +2970,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 22050-2023</t>
+          <t>A 9210-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45069</v>
+        <v>44616.2996875</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2989,13 +2989,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G42" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3032,14 +3027,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 60413-2024</t>
+          <t>A 13694-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45643.51706018519</v>
+        <v>45390</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3052,7 +3047,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3089,14 +3084,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 30970-2023</t>
+          <t>A 60318-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45113.48916666667</v>
+        <v>45643.36900462963</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3109,7 +3104,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3146,14 +3141,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 46339-2024</t>
+          <t>A 724-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45582.30826388889</v>
+        <v>45300</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3166,7 +3161,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3203,14 +3198,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 46762-2023</t>
+          <t>A 9473-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45198</v>
+        <v>44981</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3223,7 +3218,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3260,14 +3255,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 46790-2023</t>
+          <t>A 30636-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45198.69354166667</v>
+        <v>45112.46046296296</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3279,8 +3274,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3317,14 +3317,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 44310-2024</t>
+          <t>A 46520-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45573.57309027778</v>
+        <v>45197</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3374,14 +3374,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 39537-2023</t>
+          <t>A 9177-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45167</v>
+        <v>44615</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3431,14 +3431,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 39540-2023</t>
+          <t>A 39542-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
         <v>45167</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3488,14 +3488,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 724-2024</t>
+          <t>A 37789-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45300</v>
+        <v>44810</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3545,14 +3545,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 9473-2023</t>
+          <t>A 21369-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44981</v>
+        <v>44321.3083449074</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.1</v>
+        <v>10.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3602,14 +3602,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 1108-2023</t>
+          <t>A 32518-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44935.59246527778</v>
+        <v>44782.91590277778</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3659,14 +3659,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 44684-2023</t>
+          <t>A 50711-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45186</v>
+        <v>45602.38179398148</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3716,14 +3716,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 34859-2023</t>
+          <t>A 50152-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45142.30226851852</v>
+        <v>45215</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.1</v>
+        <v>4.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3773,14 +3773,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 2866-2023</t>
+          <t>A 49025-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44945</v>
+        <v>45209.82892361111</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.6</v>
+        <v>5.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3830,14 +3830,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 32518-2022</t>
+          <t>A 34859-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44782.91590277778</v>
+        <v>45142.30226851852</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3887,14 +3887,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 16395-2021</t>
+          <t>A 46762-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44293</v>
+        <v>45198</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3944,14 +3944,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 50152-2023</t>
+          <t>A 49564-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45215</v>
+        <v>45596.48508101852</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4.8</v>
+        <v>0.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4001,14 +4001,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 60318-2024</t>
+          <t>A 17806-2021</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45643.36900462963</v>
+        <v>44300.64185185185</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.7</v>
+        <v>5.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4058,14 +4058,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 25316-2021</t>
+          <t>A 20651-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44342</v>
+        <v>44316.41503472222</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4077,8 +4077,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>0.9</v>
+        <v>5.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4115,14 +4120,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 28211-2025</t>
+          <t>A 9773-2021</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45818.45789351852</v>
+        <v>44252</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4135,7 +4140,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4172,14 +4177,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 29064-2025</t>
+          <t>A 59986-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45821</v>
+        <v>45257.81895833334</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4192,7 +4197,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.3</v>
+        <v>7.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4229,14 +4234,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 29019-2025</t>
+          <t>A 47047-2021</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45821.42359953704</v>
+        <v>44446.62215277777</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4249,7 +4254,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4286,14 +4291,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 53846-2024</t>
+          <t>A 46787-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45615.6309837963</v>
+        <v>45198.6809375</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4306,7 +4311,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4343,14 +4348,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 20469-2021</t>
+          <t>A 62251-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44315</v>
+        <v>45267.61526620371</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4364,11 +4369,11 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4405,14 +4410,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 12554-2023</t>
+          <t>A 22050-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45000.35256944445</v>
+        <v>45069</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4424,8 +4429,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4462,14 +4472,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 20651-2021</t>
+          <t>A 6369-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44316.41503472222</v>
+        <v>45699.38993055555</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4481,13 +4491,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>5.1</v>
+        <v>2.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4524,14 +4529,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 29960-2025</t>
+          <t>A 29596-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45826.4806712963</v>
+        <v>45484</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4544,7 +4549,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4581,14 +4586,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 59988-2024</t>
+          <t>A 16352-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45642.39239583333</v>
+        <v>45028.69456018518</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4601,7 +4606,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4638,14 +4643,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 40859-2025</t>
+          <t>A 39537-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45897.56069444444</v>
+        <v>45167</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4658,7 +4663,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4695,14 +4700,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 59452-2023</t>
+          <t>A 39540-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45254.37158564815</v>
+        <v>45167</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4715,7 +4720,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4752,14 +4757,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 10670-2024</t>
+          <t>A 12554-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45369.34828703704</v>
+        <v>45000.35256944445</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4772,7 +4777,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4809,14 +4814,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 63239-2021</t>
+          <t>A 47300-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44508.36662037037</v>
+        <v>44853</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4829,7 +4834,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4866,14 +4871,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 14196-2023</t>
+          <t>A 44310-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45009</v>
+        <v>45573.57309027778</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4886,7 +4891,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4923,14 +4928,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 42292-2025</t>
+          <t>A 53839-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45904.62887731481</v>
+        <v>45615.62634259259</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4943,7 +4948,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4980,14 +4985,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 43370-2025</t>
+          <t>A 10670-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45911.34883101852</v>
+        <v>45369.34828703704</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5000,7 +5005,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5037,14 +5042,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 14460-2023</t>
+          <t>A 46790-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45010</v>
+        <v>45198.69354166667</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5057,7 +5062,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>5.4</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5094,14 +5099,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 12275-2025</t>
+          <t>A 40629-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45729</v>
+        <v>45557.69868055556</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5114,7 +5119,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>7.5</v>
+        <v>11.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5151,14 +5156,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 55003-2024</t>
+          <t>A 13703-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45621.32651620371</v>
+        <v>45390</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5171,7 +5176,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5208,14 +5213,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 9773-2021</t>
+          <t>A 7722-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44252</v>
+        <v>45349</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5228,7 +5233,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5265,14 +5270,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 35316-2025</t>
+          <t>A 25316-2021</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45854.47652777778</v>
+        <v>44342</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5284,13 +5289,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5327,14 +5327,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 35319-2025</t>
+          <t>A 62171-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45854.48293981481</v>
+        <v>45267.42585648148</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.3</v>
+        <v>1.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5389,14 +5389,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 49564-2024</t>
+          <t>A 61700-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45596.48508101852</v>
+        <v>45265.65236111111</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5408,8 +5408,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5446,14 +5451,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 45736-2025</t>
+          <t>A 4783-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45923.46587962963</v>
+        <v>44957.59467592592</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5466,7 +5471,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5503,14 +5508,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 13177-2025</t>
+          <t>A 60413-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45735.37274305556</v>
+        <v>45643.51706018519</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5523,7 +5528,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5560,14 +5565,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 45742-2025</t>
+          <t>A 38186-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45923.46953703704</v>
+        <v>45161</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5580,7 +5585,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.6</v>
+        <v>4.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5617,14 +5622,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 35768-2025</t>
+          <t>A 2070-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45860</v>
+        <v>44939</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5637,7 +5642,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>5.7</v>
+        <v>11.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5674,14 +5679,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 1635-2025</t>
+          <t>A 55119-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45670</v>
+        <v>45237.47695601852</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5694,7 +5699,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5731,14 +5736,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 36407-2025</t>
+          <t>A 2866-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45868.67938657408</v>
+        <v>44945</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5751,7 +5756,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5788,14 +5793,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 36409-2025</t>
+          <t>A 54902-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45868.68178240741</v>
+        <v>45229</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5808,7 +5813,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5845,14 +5850,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 36961-2025</t>
+          <t>A 58597-2022</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45874.62365740741</v>
+        <v>44894</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5865,7 +5870,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5902,14 +5907,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 48359-2025</t>
+          <t>A 57647-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45933.66196759259</v>
+        <v>44897</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5922,7 +5927,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5959,14 +5964,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 13703-2024</t>
+          <t>A 20024-2022</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45390</v>
+        <v>44697.66332175926</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5979,7 +5984,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6016,14 +6021,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 37803-2025</t>
+          <t>A 1094-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45881</v>
+        <v>45665</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6036,7 +6041,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3.3</v>
+        <v>0.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6073,14 +6078,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 38052-2025</t>
+          <t>A 59988-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45882</v>
+        <v>45642.39239583333</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6093,7 +6098,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6130,14 +6135,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 38054-2025</t>
+          <t>A 53846-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45882</v>
+        <v>45615.6309837963</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6150,7 +6155,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6187,14 +6192,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 138-2022</t>
+          <t>A 62233-2022</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44560</v>
+        <v>44922</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6207,7 +6212,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6244,14 +6249,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 49278-2025</t>
+          <t>A 5773-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45938.50790509259</v>
+        <v>44963.37827546296</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6264,7 +6269,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>4.8</v>
+        <v>1.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6301,14 +6306,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 5773-2023</t>
+          <t>A 40859-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44963.37827546296</v>
+        <v>45897.56069444444</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6321,7 +6326,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6358,14 +6363,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 50093-2025</t>
+          <t>A 30411-2021</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45943.49165509259</v>
+        <v>44364.53988425926</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6378,7 +6383,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>4.3</v>
+        <v>1.7</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6415,14 +6420,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 50091-2025</t>
+          <t>A 809-2022</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45943.48703703703</v>
+        <v>44571</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6435,7 +6440,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6472,14 +6477,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 55119-2023</t>
+          <t>A 2060-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45237.47695601852</v>
+        <v>44939</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6492,7 +6497,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6529,14 +6534,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 58597-2022</t>
+          <t>A 42292-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44894</v>
+        <v>45904.62887731481</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6549,7 +6554,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6586,14 +6591,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 50932-2025</t>
+          <t>A 27989-2022</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45946.68842592592</v>
+        <v>44745</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6606,7 +6611,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6643,14 +6648,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 51362-2025</t>
+          <t>A 63239-2021</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45950.44516203704</v>
+        <v>44508.36662037037</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6663,7 +6668,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6700,14 +6705,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 52825-2025</t>
+          <t>A 4272-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45957.46645833334</v>
+        <v>44951</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6720,7 +6725,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6757,14 +6762,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 52831-2025</t>
+          <t>A 5770-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45957.46996527778</v>
+        <v>44963.37232638889</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6777,7 +6782,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6814,14 +6819,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 53689-2025</t>
+          <t>A 43370-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45960.58104166666</v>
+        <v>45911.34883101852</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6834,7 +6839,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>10.9</v>
+        <v>1.9</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6871,14 +6876,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 29798-2024</t>
+          <t>A 14460-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45485.48961805556</v>
+        <v>45010</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6891,7 +6896,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -6928,14 +6933,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 30636-2023</t>
+          <t>A 9297-2022</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45112.46046296296</v>
+        <v>44616.47766203704</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6947,13 +6952,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G111" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -6990,14 +6990,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 35486-2023</t>
+          <t>A 70743-2021</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45146</v>
+        <v>44537.63103009259</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7010,7 +7010,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7047,14 +7047,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 9297-2022</t>
+          <t>A 55003-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44616.47766203704</v>
+        <v>45621.32651620371</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7067,7 +7067,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7104,14 +7104,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 8814-2022</t>
+          <t>A 45742-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44614</v>
+        <v>45923.46953703704</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7123,13 +7123,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G114" t="n">
-        <v>4.6</v>
+        <v>0.6</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7166,14 +7161,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 9338-2023</t>
+          <t>A 45736-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44980</v>
+        <v>45923.46587962963</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7186,7 +7181,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7223,14 +7218,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 57647-2022</t>
+          <t>A 8814-2022</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44897</v>
+        <v>44614</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7242,8 +7237,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G116" t="n">
-        <v>8.699999999999999</v>
+        <v>4.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7280,14 +7280,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 60071-2025</t>
+          <t>A 14196-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45993.67202546296</v>
+        <v>45009</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7337,14 +7337,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 40629-2024</t>
+          <t>A 20469-2021</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45557.69868055556</v>
+        <v>44315</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7356,8 +7356,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G118" t="n">
-        <v>11.5</v>
+        <v>2.2</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7394,14 +7399,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 61700-2023</t>
+          <t>A 48359-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45265.65236111111</v>
+        <v>45933.66196759259</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7413,13 +7418,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G119" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7456,14 +7456,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 3569-2026</t>
+          <t>A 39538-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>46042.67932870371</v>
+        <v>45167</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.2</v>
+        <v>5.3</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7513,14 +7513,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 53839-2024</t>
+          <t>A 35486-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45615.62634259259</v>
+        <v>45146</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7570,14 +7570,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 46787-2023</t>
+          <t>A 7392-2022</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45198.6809375</v>
+        <v>44606.63405092592</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>8.800000000000001</v>
+        <v>5.2</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7627,14 +7627,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 54902-2023</t>
+          <t>A 26230-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45229</v>
+        <v>45091</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7646,8 +7646,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>0.9</v>
+        <v>9.4</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7684,14 +7689,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 6705-2026</t>
+          <t>A 49278-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>46056</v>
+        <v>45938.50790509259</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7704,7 +7709,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>6.3</v>
+        <v>4.8</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7741,14 +7746,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 6686-2026</t>
+          <t>A 46339-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>46056.62666666666</v>
+        <v>45582.30826388889</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7761,7 +7766,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>4</v>
+        <v>1.1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7798,14 +7803,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 4783-2023</t>
+          <t>A 50093-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44957.59467592592</v>
+        <v>45943.49165509259</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7818,7 +7823,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.5</v>
+        <v>4.3</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7855,14 +7860,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 7722-2024</t>
+          <t>A 16395-2021</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45349</v>
+        <v>44293</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7875,7 +7880,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7912,14 +7917,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 63802-2025</t>
+          <t>A 50091-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>46019.86751157408</v>
+        <v>45943.48703703703</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7932,7 +7937,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2</v>
+        <v>4.1</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -7969,14 +7974,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 17806-2021</t>
+          <t>A 50932-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44300.64185185185</v>
+        <v>45946.68842592592</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7989,7 +7994,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>5.7</v>
+        <v>2.1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8026,14 +8031,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 5770-2023</t>
+          <t>A 51362-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44963.37232638889</v>
+        <v>45950.44516203704</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8046,7 +8051,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8083,14 +8088,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 6369-2025</t>
+          <t>A 30970-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45699.38993055555</v>
+        <v>45113.48916666667</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8103,7 +8108,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8140,14 +8145,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 26248-2024</t>
+          <t>A 9338-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45468.64033564815</v>
+        <v>44980</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8160,7 +8165,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8197,14 +8202,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 47300-2022</t>
+          <t>A 52825-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44853</v>
+        <v>45957.46645833334</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8217,7 +8222,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8254,14 +8259,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 47047-2021</t>
+          <t>A 52831-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44446.62215277777</v>
+        <v>45957.46996527778</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8274,7 +8279,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8311,14 +8316,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 62251-2023</t>
+          <t>A 53689-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45267.61526620371</v>
+        <v>45960.58104166666</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8330,13 +8335,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G135" t="n">
-        <v>2.9</v>
+        <v>10.9</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8373,14 +8373,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 7392-2022</t>
+          <t>A 6497-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44606.63405092592</v>
+        <v>45699.63719907407</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>5.2</v>
+        <v>2.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8430,14 +8430,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 1094-2025</t>
+          <t>A 138-2022</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45665</v>
+        <v>44560</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8487,14 +8487,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 27989-2022</t>
+          <t>A 29798-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44745</v>
+        <v>45485.48961805556</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.5</v>
+        <v>5.2</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8544,14 +8544,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 6497-2025</t>
+          <t>A 12275-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45699.63719907407</v>
+        <v>45729</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.6</v>
+        <v>7.5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8601,14 +8601,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 26230-2023</t>
+          <t>A 61925-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45091</v>
+        <v>45266.51587962963</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8620,13 +8620,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G140" t="n">
-        <v>9.4</v>
+        <v>2.2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8663,14 +8658,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 2060-2023</t>
+          <t>A 39907-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44939</v>
+        <v>45553.51288194444</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8683,7 +8678,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.6</v>
+        <v>6.5</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8720,14 +8715,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 2070-2023</t>
+          <t>A 26792-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44939</v>
+        <v>45470</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8739,8 +8734,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G142" t="n">
-        <v>11.6</v>
+        <v>7.1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8777,14 +8777,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 9177-2022</t>
+          <t>A 36738-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44615</v>
+        <v>45538.29486111111</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8834,14 +8834,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 30411-2021</t>
+          <t>A 60071-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44364.53988425926</v>
+        <v>45993.67202546296</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8891,14 +8891,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 21369-2021</t>
+          <t>A 19810-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44321.3083449074</v>
+        <v>45771</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>10.7</v>
+        <v>0.4</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8948,14 +8948,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 20024-2022</t>
+          <t>A 3569-2026</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44697.66332175926</v>
+        <v>46042.67932870371</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9005,14 +9005,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 38186-2023</t>
+          <t>A 8145-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45161</v>
+        <v>45351</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>4.9</v>
+        <v>7.3</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9062,14 +9062,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 50711-2024</t>
+          <t>A 60414-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45602.38179398148</v>
+        <v>45643.51864583333</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9119,14 +9119,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 70743-2021</t>
+          <t>A 24388-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44537.63103009259</v>
+        <v>45797.63533564815</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9176,14 +9176,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 39542-2023</t>
+          <t>A 25053-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45167</v>
+        <v>45799.67575231481</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9233,14 +9233,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 16352-2023</t>
+          <t>A 24723-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45028.69456018518</v>
+        <v>45799.31555555556</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9290,14 +9290,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 39538-2023</t>
+          <t>A 26229-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45167</v>
+        <v>45805.56230324074</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>5.3</v>
+        <v>1.6</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9347,14 +9347,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 61925-2023</t>
+          <t>A 26238-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45266.51587962963</v>
+        <v>45805.56920138889</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.2</v>
+        <v>4.6</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9404,14 +9404,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 49025-2023</t>
+          <t>A 4243-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45209.82892361111</v>
+        <v>45685.58085648148</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>5.4</v>
+        <v>1.5</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9461,14 +9461,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 13694-2024</t>
+          <t>A 6686-2026</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45390</v>
+        <v>46056.62666666666</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9518,14 +9518,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 46520-2023</t>
+          <t>A 6705-2026</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45197</v>
+        <v>46056</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.9</v>
+        <v>6.3</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9575,14 +9575,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 29596-2024</t>
+          <t>A 28211-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45484</v>
+        <v>45818.45789351852</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0.8</v>
+        <v>3.1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9632,14 +9632,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 4272-2023</t>
+          <t>A 63802-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44951</v>
+        <v>46019.86751157408</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9689,14 +9689,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 809-2022</t>
+          <t>A 29064-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44571</v>
+        <v>45821</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>4.3</v>
+        <v>2.3</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9746,14 +9746,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 37789-2022</t>
+          <t>A 29019-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44810</v>
+        <v>45821.42359953704</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9803,14 +9803,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 62171-2023</t>
+          <t>A 29960-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45267.42585648148</v>
+        <v>45826.4806712963</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9822,13 +9822,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G161" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -9865,14 +9860,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 39907-2024</t>
+          <t>A 59452-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45553.51288194444</v>
+        <v>45254.37158564815</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9885,7 +9880,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>6.5</v>
+        <v>1.2</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -9922,14 +9917,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 19810-2025</t>
+          <t>A 35316-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45771</v>
+        <v>45854.47652777778</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9941,8 +9936,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G163" t="n">
-        <v>0.4</v>
+        <v>2.2</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -9979,14 +9979,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 26792-2024</t>
+          <t>A 35319-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45470</v>
+        <v>45854.48293981481</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10000,11 +10000,11 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G164" t="n">
-        <v>7.1</v>
+        <v>3.3</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10041,14 +10041,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 36738-2024</t>
+          <t>A 13177-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45538.29486111111</v>
+        <v>45735.37274305556</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10061,7 +10061,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10098,14 +10098,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 8145-2024</t>
+          <t>A 35768-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45351</v>
+        <v>45860</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10118,7 +10118,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>7.3</v>
+        <v>5.7</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10155,14 +10155,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 24388-2025</t>
+          <t>A 1635-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45797.63533564815</v>
+        <v>45670</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10175,7 +10175,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10212,14 +10212,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 60414-2024</t>
+          <t>A 36407-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45643.51864583333</v>
+        <v>45868.67938657408</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10232,7 +10232,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10269,14 +10269,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 25053-2025</t>
+          <t>A 36409-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45799.67575231481</v>
+        <v>45868.68178240741</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10326,14 +10326,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 24723-2025</t>
+          <t>A 36961-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45799.31555555556</v>
+        <v>45874.62365740741</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10383,14 +10383,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 26238-2025</t>
+          <t>A 38052-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45805.56920138889</v>
+        <v>45882</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>4.6</v>
+        <v>1</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10440,14 +10440,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 26229-2025</t>
+          <t>A 37803-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45805.56230324074</v>
+        <v>45881</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10497,14 +10497,14 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 4243-2025</t>
+          <t>A 38054-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45685.58085648148</v>
+        <v>45882</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>

--- a/Översikt HJO.xlsx
+++ b/Översikt HJO.xlsx
@@ -575,7 +575,7 @@
         <v>44272</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44593</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -739,14 +739,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 26270-2024</t>
+          <t>A 10014-2025</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45468</v>
+        <v>45719.46746527778</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -759,10 +759,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -771,10 +771,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -793,123 +793,123 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1497/artfynd/A 10014-2025 artfynd.xlsx", "A 10014-2025")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1497/kartor/A 10014-2025 karta.png", "A 10014-2025")</f>
+        <v/>
+      </c>
+      <c r="U4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1497/knärot/A 10014-2025 karta knärot.png", "A 10014-2025")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1497/klagomål/A 10014-2025 FSC-klagomål.docx", "A 10014-2025")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1497/klagomålsmail/A 10014-2025 FSC-klagomål mail.docx", "A 10014-2025")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1497/tillsyn/A 10014-2025 tillsynsbegäran.docx", "A 10014-2025")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1497/tillsynsmail/A 10014-2025 tillsynsbegäran mail.docx", "A 10014-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 26270-2024</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45468</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>HJO</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
           <t>Ask</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1497/artfynd/A 26270-2024 artfynd.xlsx", "A 26270-2024")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1497/kartor/A 26270-2024 karta.png", "A 26270-2024")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1497/klagomål/A 26270-2024 FSC-klagomål.docx", "A 26270-2024")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1497/klagomålsmail/A 26270-2024 FSC-klagomål mail.docx", "A 26270-2024")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1497/tillsyn/A 26270-2024 tillsynsbegäran.docx", "A 26270-2024")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1497/tillsynsmail/A 26270-2024 tillsynsbegäran mail.docx", "A 26270-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 10014-2025</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45719.46746527778</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>HJO</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Knärot</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1497/artfynd/A 10014-2025 artfynd.xlsx", "A 10014-2025")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1497/kartor/A 10014-2025 karta.png", "A 10014-2025")</f>
-        <v/>
-      </c>
-      <c r="U5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1497/knärot/A 10014-2025 karta knärot.png", "A 10014-2025")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1497/klagomål/A 10014-2025 FSC-klagomål.docx", "A 10014-2025")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1497/klagomålsmail/A 10014-2025 FSC-klagomål mail.docx", "A 10014-2025")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1497/tillsyn/A 10014-2025 tillsynsbegäran.docx", "A 10014-2025")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1497/tillsynsmail/A 10014-2025 tillsynsbegäran mail.docx", "A 10014-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44799.45684027778</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44729</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44525.73625</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>44616.29740740741</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1146,14 +1146,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 10337-2022</t>
+          <t>A 19341-2022</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44623</v>
+        <v>44692</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1166,7 +1166,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>8.4</v>
+        <v>2.3</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1203,14 +1203,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 65329-2021</t>
+          <t>A 50559-2022</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44515</v>
+        <v>44866.6278587963</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.2</v>
+        <v>7.7</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1260,14 +1260,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 27849-2021</t>
+          <t>A 10337-2022</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44354.60260416667</v>
+        <v>44623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.4</v>
+        <v>8.4</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1317,14 +1317,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 19341-2022</t>
+          <t>A 27849-2021</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44692</v>
+        <v>44354.60260416667</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>44846</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1431,14 +1431,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 50559-2022</t>
+          <t>A 65329-2021</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44866.6278587963</v>
+        <v>44515</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>7.7</v>
+        <v>1.2</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>44474</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>44852.25016203704</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>44797.86921296296</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1659,14 +1659,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 58495-2021</t>
+          <t>A 28512-2022</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44488.62511574074</v>
+        <v>44748.35234953704</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>4.4</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1716,14 +1716,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 28512-2022</t>
+          <t>A 58495-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44748.35234953704</v>
+        <v>44488.62511574074</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>4.4</v>
+        <v>3</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1773,14 +1773,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 63257-2021</t>
+          <t>A 32158-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44508</v>
+        <v>44781</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1830,14 +1830,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 7786-2022</t>
+          <t>A 63257-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44608</v>
+        <v>44508</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.1</v>
+        <v>1.6</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1887,14 +1887,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 32158-2022</t>
+          <t>A 7786-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44781</v>
+        <v>44608</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.4</v>
+        <v>0.1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1951,7 +1951,7 @@
         <v>44784.3796875</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>44456</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>44641</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>44386</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2172,14 +2172,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 50738-2021</t>
+          <t>A 47656-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44456</v>
+        <v>44854.45597222223</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2229,14 +2229,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 47656-2022</t>
+          <t>A 50738-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44854.45597222223</v>
+        <v>44456</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2286,14 +2286,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 44965-2021</t>
+          <t>A 27872-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44438.72671296296</v>
+        <v>44354.6397337963</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2343,14 +2343,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 27872-2021</t>
+          <t>A 7231-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44354.6397337963</v>
+        <v>44606.37339120371</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.1</v>
+        <v>4.7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2400,14 +2400,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 32219-2022</t>
+          <t>A 44965-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44781.43912037037</v>
+        <v>44438.72671296296</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2457,14 +2457,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 56175-2021</t>
+          <t>A 32219-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44477</v>
+        <v>44781.43912037037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2514,14 +2514,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 7231-2022</t>
+          <t>A 22586-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44606.37339120371</v>
+        <v>44714</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>4.7</v>
+        <v>6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2571,14 +2571,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 12544-2022</t>
+          <t>A 56175-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44638.65868055556</v>
+        <v>44477</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2628,14 +2628,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 22586-2022</t>
+          <t>A 12544-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44714</v>
+        <v>44638.65868055556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>44615</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2742,14 +2742,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 1108-2023</t>
+          <t>A 42295-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44935.59246527778</v>
+        <v>44427.35878472222</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2799,14 +2799,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 42295-2021</t>
+          <t>A 9210-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44427.35878472222</v>
+        <v>44616.2996875</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2856,14 +2856,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 44684-2023</t>
+          <t>A 62233-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45186</v>
+        <v>44922</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.7</v>
+        <v>5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2913,14 +2913,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 26248-2024</t>
+          <t>A 59986-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45468.64033564815</v>
+        <v>45257.81895833334</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.1</v>
+        <v>7.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2970,14 +2970,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 9210-2022</t>
+          <t>A 22050-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44616.2996875</v>
+        <v>45069</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2989,8 +2989,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3027,14 +3032,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 13694-2024</t>
+          <t>A 60413-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45390</v>
+        <v>45643.51706018519</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3047,7 +3052,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3084,14 +3089,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 60318-2024</t>
+          <t>A 30970-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45643.36900462963</v>
+        <v>45113.48916666667</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3104,7 +3109,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3141,14 +3146,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 724-2024</t>
+          <t>A 46339-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45300</v>
+        <v>45582.30826388889</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3161,7 +3166,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3198,14 +3203,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 9473-2023</t>
+          <t>A 48359-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44981</v>
+        <v>45933.66196759259</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3218,7 +3223,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3255,14 +3260,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 30636-2023</t>
+          <t>A 39907-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45112.46046296296</v>
+        <v>45553.51288194444</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3274,13 +3279,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G47" t="n">
-        <v>0.8</v>
+        <v>6.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3317,14 +3317,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 46520-2023</t>
+          <t>A 46762-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45197</v>
+        <v>45198</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3374,14 +3374,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 9177-2022</t>
+          <t>A 46790-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44615</v>
+        <v>45198.69354166667</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3431,14 +3431,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 39542-2023</t>
+          <t>A 44310-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45167</v>
+        <v>45573.57309027778</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3488,14 +3488,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 37789-2022</t>
+          <t>A 19810-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44810</v>
+        <v>45771</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3545,14 +3545,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 21369-2021</t>
+          <t>A 26792-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44321.3083449074</v>
+        <v>45470</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3564,8 +3564,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>10.7</v>
+        <v>7.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3602,14 +3607,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 32518-2022</t>
+          <t>A 39537-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44782.91590277778</v>
+        <v>45167</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3622,7 +3627,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3659,14 +3664,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 50711-2024</t>
+          <t>A 39540-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45602.38179398148</v>
+        <v>45167</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3679,7 +3684,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3716,14 +3721,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 50152-2023</t>
+          <t>A 36738-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45215</v>
+        <v>45538.29486111111</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3736,7 +3741,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>4.8</v>
+        <v>0.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3773,14 +3778,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 49025-2023</t>
+          <t>A 724-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45209.82892361111</v>
+        <v>45300</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3793,7 +3798,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>5.4</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3830,14 +3835,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 34859-2023</t>
+          <t>A 40859-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45142.30226851852</v>
+        <v>45897.56069444444</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3850,7 +3855,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3887,14 +3892,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 46762-2023</t>
+          <t>A 8145-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45198</v>
+        <v>45351</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3907,7 +3912,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.9</v>
+        <v>7.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3944,14 +3949,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 49564-2024</t>
+          <t>A 24388-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45596.48508101852</v>
+        <v>45797.63533564815</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3964,7 +3969,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4001,14 +4006,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 17806-2021</t>
+          <t>A 60414-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44300.64185185185</v>
+        <v>45643.51864583333</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4021,7 +4026,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>5.7</v>
+        <v>3.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4058,14 +4063,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 20651-2021</t>
+          <t>A 42292-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44316.41503472222</v>
+        <v>45904.62887731481</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4077,13 +4082,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>5.1</v>
+        <v>1.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4120,14 +4120,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 9773-2021</t>
+          <t>A 1108-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44252</v>
+        <v>44935.59246527778</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4177,14 +4177,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 59986-2023</t>
+          <t>A 44684-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45257.81895833334</v>
+        <v>45186</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4197,7 +4197,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>7.7</v>
+        <v>0.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4234,14 +4234,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 47047-2021</t>
+          <t>A 25053-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44446.62215277777</v>
+        <v>45799.67575231481</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4254,7 +4254,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4291,14 +4291,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 46787-2023</t>
+          <t>A 9473-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45198.6809375</v>
+        <v>44981</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>8.800000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4348,14 +4348,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 62251-2023</t>
+          <t>A 24723-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45267.61526620371</v>
+        <v>45799.31555555556</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4367,13 +4367,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4410,14 +4405,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 22050-2023</t>
+          <t>A 34859-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45069</v>
+        <v>45142.30226851852</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4429,13 +4424,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4472,14 +4462,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 6369-2025</t>
+          <t>A 43370-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45699.38993055555</v>
+        <v>45911.34883101852</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4492,7 +4482,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4529,14 +4519,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 29596-2024</t>
+          <t>A 26238-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45484</v>
+        <v>45805.56920138889</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4549,7 +4539,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.8</v>
+        <v>4.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4586,14 +4576,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 16352-2023</t>
+          <t>A 2866-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45028.69456018518</v>
+        <v>44945</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4606,7 +4596,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4643,14 +4633,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 39537-2023</t>
+          <t>A 26229-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45167</v>
+        <v>45805.56230324074</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4663,7 +4653,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4700,14 +4690,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 39540-2023</t>
+          <t>A 4243-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45167</v>
+        <v>45685.58085648148</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4720,7 +4710,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4757,14 +4747,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 12554-2023</t>
+          <t>A 32518-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45000.35256944445</v>
+        <v>44782.91590277778</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4777,7 +4767,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4814,14 +4804,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 47300-2022</t>
+          <t>A 49278-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44853</v>
+        <v>45938.50790509259</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4834,7 +4824,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.4</v>
+        <v>4.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4871,14 +4861,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 44310-2024</t>
+          <t>A 16395-2021</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45573.57309027778</v>
+        <v>44293</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4891,7 +4881,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4928,14 +4918,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 53839-2024</t>
+          <t>A 45736-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45615.62634259259</v>
+        <v>45923.46587962963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4948,7 +4938,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4985,14 +4975,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 10670-2024</t>
+          <t>A 45742-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45369.34828703704</v>
+        <v>45923.46953703704</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5005,7 +4995,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5042,14 +5032,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 46790-2023</t>
+          <t>A 50152-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45198.69354166667</v>
+        <v>45215</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5062,7 +5052,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>4.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5099,14 +5089,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 40629-2024</t>
+          <t>A 28211-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45557.69868055556</v>
+        <v>45818.45789351852</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5119,7 +5109,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>11.5</v>
+        <v>3.1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5156,14 +5146,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 13703-2024</t>
+          <t>A 60318-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45390</v>
+        <v>45643.36900462963</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5176,7 +5166,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.6</v>
+        <v>3.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5213,14 +5203,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 7722-2024</t>
+          <t>A 29064-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45349</v>
+        <v>45821</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5233,7 +5223,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5270,14 +5260,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 25316-2021</t>
+          <t>A 29019-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44342</v>
+        <v>45821.42359953704</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5290,7 +5280,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5327,14 +5317,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 62171-2023</t>
+          <t>A 25316-2021</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45267.42585648148</v>
+        <v>44342</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5346,13 +5336,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5389,14 +5374,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 61700-2023</t>
+          <t>A 50093-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45265.65236111111</v>
+        <v>45943.49165509259</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5408,13 +5393,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>2.4</v>
+        <v>4.3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5451,14 +5431,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 4783-2023</t>
+          <t>A 50091-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44957.59467592592</v>
+        <v>45943.48703703703</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5471,7 +5451,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.5</v>
+        <v>4.1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5508,14 +5488,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 60413-2024</t>
+          <t>A 53846-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45643.51706018519</v>
+        <v>45615.6309837963</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5528,7 +5508,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5565,14 +5545,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 38186-2023</t>
+          <t>A 29960-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45161</v>
+        <v>45826.4806712963</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5585,7 +5565,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>4.9</v>
+        <v>2.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5622,14 +5602,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 2070-2023</t>
+          <t>A 20469-2021</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44939</v>
+        <v>44315</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5641,8 +5621,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G88" t="n">
-        <v>11.6</v>
+        <v>2.2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5679,14 +5664,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 55119-2023</t>
+          <t>A 12554-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45237.47695601852</v>
+        <v>45000.35256944445</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5699,7 +5684,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5736,14 +5721,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 2866-2023</t>
+          <t>A 20651-2021</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44945</v>
+        <v>44316.41503472222</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5755,8 +5740,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>0.6</v>
+        <v>5.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5793,14 +5783,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 54902-2023</t>
+          <t>A 59452-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45229</v>
+        <v>45254.37158564815</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5813,7 +5803,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5850,14 +5840,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 58597-2022</t>
+          <t>A 59988-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44894</v>
+        <v>45642.39239583333</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5870,7 +5860,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5907,14 +5897,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 57647-2022</t>
+          <t>A 10670-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44897</v>
+        <v>45369.34828703704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5927,7 +5917,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>8.699999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5964,14 +5954,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 20024-2022</t>
+          <t>A 63239-2021</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44697.66332175926</v>
+        <v>44508.36662037037</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5984,7 +5974,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6021,14 +6011,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 1094-2025</t>
+          <t>A 14196-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45665</v>
+        <v>45009</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6041,7 +6031,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.8</v>
+        <v>3.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6078,14 +6068,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 59988-2024</t>
+          <t>A 50932-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45642.39239583333</v>
+        <v>45946.68842592592</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6098,7 +6088,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6135,14 +6125,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 53846-2024</t>
+          <t>A 51362-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45615.6309837963</v>
+        <v>45950.44516203704</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6155,7 +6145,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6192,14 +6182,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 62233-2022</t>
+          <t>A 14460-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44922</v>
+        <v>45010</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6212,7 +6202,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6249,14 +6239,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 5773-2023</t>
+          <t>A 35316-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44963.37827546296</v>
+        <v>45854.47652777778</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6268,8 +6258,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6306,14 +6301,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 40859-2025</t>
+          <t>A 12275-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45897.56069444444</v>
+        <v>45729</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6326,7 +6321,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.7</v>
+        <v>7.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6363,14 +6358,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 30411-2021</t>
+          <t>A 35319-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44364.53988425926</v>
+        <v>45854.48293981481</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6382,8 +6377,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G101" t="n">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6420,14 +6420,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 809-2022</t>
+          <t>A 55003-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44571</v>
+        <v>45621.32651620371</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6440,7 +6440,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>4.3</v>
+        <v>1.9</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6477,14 +6477,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 2060-2023</t>
+          <t>A 13177-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44939</v>
+        <v>45735.37274305556</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6497,7 +6497,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6534,14 +6534,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 42292-2025</t>
+          <t>A 9773-2021</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45904.62887731481</v>
+        <v>44252</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6554,7 +6554,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6591,14 +6591,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 27989-2022</t>
+          <t>A 35768-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44745</v>
+        <v>45860</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6611,7 +6611,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.5</v>
+        <v>5.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6648,14 +6648,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 63239-2021</t>
+          <t>A 1635-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44508.36662037037</v>
+        <v>45670</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6668,7 +6668,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6705,14 +6705,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 4272-2023</t>
+          <t>A 49564-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44951</v>
+        <v>45596.48508101852</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6725,7 +6725,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6762,14 +6762,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 5770-2023</t>
+          <t>A 36407-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44963.37232638889</v>
+        <v>45868.67938657408</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6782,7 +6782,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6819,14 +6819,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 43370-2025</t>
+          <t>A 36409-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45911.34883101852</v>
+        <v>45868.68178240741</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6839,7 +6839,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6876,14 +6876,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 14460-2023</t>
+          <t>A 52825-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45010</v>
+        <v>45957.46645833334</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>5.4</v>
+        <v>2.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -6933,14 +6933,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 9297-2022</t>
+          <t>A 52831-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44616.47766203704</v>
+        <v>45957.46996527778</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -6990,14 +6990,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 70743-2021</t>
+          <t>A 36961-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44537.63103009259</v>
+        <v>45874.62365740741</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7010,7 +7010,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7047,14 +7047,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 55003-2024</t>
+          <t>A 13703-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45621.32651620371</v>
+        <v>45390</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7067,7 +7067,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7104,14 +7104,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 45742-2025</t>
+          <t>A 37803-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45923.46953703704</v>
+        <v>45881</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7124,7 +7124,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.6</v>
+        <v>3.3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7161,14 +7161,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 45736-2025</t>
+          <t>A 38052-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45923.46587962963</v>
+        <v>45882</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7181,7 +7181,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7218,14 +7218,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 8814-2022</t>
+          <t>A 38054-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44614</v>
+        <v>45882</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7237,13 +7237,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G116" t="n">
-        <v>4.6</v>
+        <v>0.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7280,14 +7275,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 14196-2023</t>
+          <t>A 53689-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45009</v>
+        <v>45960.58104166666</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7300,7 +7295,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3.5</v>
+        <v>10.9</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7337,14 +7332,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 20469-2021</t>
+          <t>A 138-2022</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44315</v>
+        <v>44560</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7356,13 +7351,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G118" t="n">
-        <v>2.2</v>
+        <v>0.3</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7399,14 +7389,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 48359-2025</t>
+          <t>A 5773-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45933.66196759259</v>
+        <v>44963.37827546296</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7419,7 +7409,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7456,14 +7446,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 39538-2023</t>
+          <t>A 55119-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45167</v>
+        <v>45237.47695601852</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7476,7 +7466,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>5.3</v>
+        <v>0.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7513,14 +7503,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 35486-2023</t>
+          <t>A 58597-2022</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45146</v>
+        <v>44894</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7533,7 +7523,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7570,14 +7560,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 7392-2022</t>
+          <t>A 29798-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44606.63405092592</v>
+        <v>45485.48961805556</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7627,14 +7617,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 26230-2023</t>
+          <t>A 60071-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45091</v>
+        <v>45993.67202546296</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7646,13 +7636,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G123" t="n">
-        <v>9.4</v>
+        <v>0.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7689,14 +7674,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 49278-2025</t>
+          <t>A 30636-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45938.50790509259</v>
+        <v>45112.46046296296</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7708,8 +7693,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>4.8</v>
+        <v>0.8</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7746,14 +7736,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 46339-2024</t>
+          <t>A 35486-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45582.30826388889</v>
+        <v>45146</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7766,7 +7756,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7803,14 +7793,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 50093-2025</t>
+          <t>A 9297-2022</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45943.49165509259</v>
+        <v>44616.47766203704</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7823,7 +7813,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>4.3</v>
+        <v>1.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7860,14 +7850,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 16395-2021</t>
+          <t>A 3569-2026</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44293</v>
+        <v>46042.67932870371</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7880,7 +7870,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7917,14 +7907,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 50091-2025</t>
+          <t>A 8814-2022</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45943.48703703703</v>
+        <v>44614</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7936,8 +7926,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G128" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -7974,14 +7969,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 50932-2025</t>
+          <t>A 9338-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45946.68842592592</v>
+        <v>44980</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7994,7 +7989,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8031,14 +8026,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 51362-2025</t>
+          <t>A 57647-2022</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45950.44516203704</v>
+        <v>44897</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8051,7 +8046,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8088,14 +8083,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 30970-2023</t>
+          <t>A 40629-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45113.48916666667</v>
+        <v>45557.69868055556</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8108,7 +8103,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>4.2</v>
+        <v>11.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8145,14 +8140,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 9338-2023</t>
+          <t>A 61700-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44980</v>
+        <v>45265.65236111111</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8164,8 +8159,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G132" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8202,14 +8202,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 52825-2025</t>
+          <t>A 53839-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45957.46645833334</v>
+        <v>45615.62634259259</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8259,14 +8259,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 52831-2025</t>
+          <t>A 6705-2026</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45957.46996527778</v>
+        <v>46056</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.5</v>
+        <v>6.3</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8316,14 +8316,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 53689-2025</t>
+          <t>A 6686-2026</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45960.58104166666</v>
+        <v>46056.62666666666</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>10.9</v>
+        <v>4</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8373,14 +8373,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 6497-2025</t>
+          <t>A 63802-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45699.63719907407</v>
+        <v>46019.86751157408</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8430,14 +8430,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 138-2022</t>
+          <t>A 46787-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44560</v>
+        <v>45198.6809375</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8487,14 +8487,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 29798-2024</t>
+          <t>A 54902-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45485.48961805556</v>
+        <v>45229</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>5.2</v>
+        <v>0.9</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8544,14 +8544,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 12275-2025</t>
+          <t>A 4783-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45729</v>
+        <v>44957.59467592592</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>7.5</v>
+        <v>0.5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8601,14 +8601,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 61925-2023</t>
+          <t>A 7722-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45266.51587962963</v>
+        <v>45349</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8658,14 +8658,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 39907-2024</t>
+          <t>A 17806-2021</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45553.51288194444</v>
+        <v>44300.64185185185</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>6.5</v>
+        <v>5.7</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8715,14 +8715,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 26792-2024</t>
+          <t>A 5770-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45470</v>
+        <v>44963.37232638889</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8734,13 +8734,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G142" t="n">
-        <v>7.1</v>
+        <v>1.7</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8777,14 +8772,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 36738-2024</t>
+          <t>A 6369-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45538.29486111111</v>
+        <v>45699.38993055555</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8797,7 +8792,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8834,14 +8829,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 60071-2025</t>
+          <t>A 26248-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45993.67202546296</v>
+        <v>45468.64033564815</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8854,7 +8849,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8891,14 +8886,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 19810-2025</t>
+          <t>A 47300-2022</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45771</v>
+        <v>44853</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8911,7 +8906,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.4</v>
+        <v>2.4</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8948,14 +8943,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 3569-2026</t>
+          <t>A 47047-2021</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>46042.67932870371</v>
+        <v>44446.62215277777</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8968,7 +8963,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9005,14 +9000,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 8145-2024</t>
+          <t>A 62251-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45351</v>
+        <v>45267.61526620371</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9024,8 +9019,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G147" t="n">
-        <v>7.3</v>
+        <v>2.9</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9062,14 +9062,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 60414-2024</t>
+          <t>A 7392-2022</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45643.51864583333</v>
+        <v>44606.63405092592</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>3.1</v>
+        <v>5.2</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9119,14 +9119,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 24388-2025</t>
+          <t>A 1094-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45797.63533564815</v>
+        <v>45665</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9176,14 +9176,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 25053-2025</t>
+          <t>A 27989-2022</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45799.67575231481</v>
+        <v>44745</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9233,14 +9233,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 24723-2025</t>
+          <t>A 6497-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45799.31555555556</v>
+        <v>45699.63719907407</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9290,14 +9290,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 26229-2025</t>
+          <t>A 26230-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45805.56230324074</v>
+        <v>45091</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9309,8 +9309,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G152" t="n">
-        <v>1.6</v>
+        <v>9.4</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9347,14 +9352,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 26238-2025</t>
+          <t>A 2060-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45805.56920138889</v>
+        <v>44939</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9367,7 +9372,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>4.6</v>
+        <v>2.6</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9404,14 +9409,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 4243-2025</t>
+          <t>A 2070-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45685.58085648148</v>
+        <v>44939</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9424,7 +9429,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.5</v>
+        <v>11.6</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9461,14 +9466,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 6686-2026</t>
+          <t>A 9177-2022</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>46056.62666666666</v>
+        <v>44615</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9481,7 +9486,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9518,14 +9523,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 6705-2026</t>
+          <t>A 30411-2021</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>46056</v>
+        <v>44364.53988425926</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9538,7 +9543,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>6.3</v>
+        <v>1.7</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9575,14 +9580,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 28211-2025</t>
+          <t>A 21369-2021</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45818.45789351852</v>
+        <v>44321.3083449074</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9595,7 +9600,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>3.1</v>
+        <v>10.7</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9632,14 +9637,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 63802-2025</t>
+          <t>A 20024-2022</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>46019.86751157408</v>
+        <v>44697.66332175926</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9652,7 +9657,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9689,14 +9694,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 29064-2025</t>
+          <t>A 38186-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45821</v>
+        <v>45161</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9709,7 +9714,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.3</v>
+        <v>4.9</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9746,14 +9751,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 29019-2025</t>
+          <t>A 50711-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45821.42359953704</v>
+        <v>45602.38179398148</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9766,7 +9771,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9803,14 +9808,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 29960-2025</t>
+          <t>A 70743-2021</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45826.4806712963</v>
+        <v>44537.63103009259</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9823,7 +9828,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -9860,14 +9865,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 59452-2023</t>
+          <t>A 39542-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45254.37158564815</v>
+        <v>45167</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9880,7 +9885,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -9917,14 +9922,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 35316-2025</t>
+          <t>A 16352-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45854.47652777778</v>
+        <v>45028.69456018518</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9936,13 +9941,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G163" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -9979,14 +9979,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 35319-2025</t>
+          <t>A 39538-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45854.48293981481</v>
+        <v>45167</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9998,13 +9998,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G164" t="n">
-        <v>3.3</v>
+        <v>5.3</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10041,14 +10036,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 13177-2025</t>
+          <t>A 61925-2023</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45735.37274305556</v>
+        <v>45266.51587962963</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10061,7 +10056,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10098,14 +10093,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 35768-2025</t>
+          <t>A 49025-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45860</v>
+        <v>45209.82892361111</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10118,7 +10113,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10155,14 +10150,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 1635-2025</t>
+          <t>A 13694-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45670</v>
+        <v>45390</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10175,7 +10170,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10212,14 +10207,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 36407-2025</t>
+          <t>A 46520-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45868.67938657408</v>
+        <v>45197</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10232,7 +10227,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10269,14 +10264,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 36409-2025</t>
+          <t>A 29596-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45868.68178240741</v>
+        <v>45484</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10289,7 +10284,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10326,14 +10321,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 36961-2025</t>
+          <t>A 4272-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45874.62365740741</v>
+        <v>44951</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10346,7 +10341,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10383,14 +10378,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 38052-2025</t>
+          <t>A 809-2022</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45882</v>
+        <v>44571</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10403,7 +10398,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1</v>
+        <v>4.3</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10440,14 +10435,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 37803-2025</t>
+          <t>A 37789-2022</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45881</v>
+        <v>44810</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10460,7 +10455,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10497,14 +10492,14 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 38054-2025</t>
+          <t>A 62171-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45882</v>
+        <v>45267.42585648148</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10516,8 +10511,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G173" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>

--- a/Översikt HJO.xlsx
+++ b/Översikt HJO.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z173"/>
+  <dimension ref="A1:Z172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44272</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44593</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>45719.46746527778</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45468</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44799.45684027778</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44729</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44525.73625</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>44616.29740740741</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>44692</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>44866.6278587963</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>44623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>44354.60260416667</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44846</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>44515</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1488,14 +1488,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 55091-2021</t>
+          <t>A 46998-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44474</v>
+        <v>44852.25016203704</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1545,14 +1545,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 46998-2022</t>
+          <t>A 28512-2022</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44852.25016203704</v>
+        <v>44748.35234953704</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.5</v>
+        <v>4.4</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1602,14 +1602,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 35216-2022</t>
+          <t>A 58495-2021</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44797.86921296296</v>
+        <v>44488.62511574074</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1659,14 +1659,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 28512-2022</t>
+          <t>A 55091-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44748.35234953704</v>
+        <v>44474</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4.4</v>
+        <v>1.4</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1716,14 +1716,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 58495-2021</t>
+          <t>A 32158-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44488.62511574074</v>
+        <v>44781</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1773,14 +1773,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 32158-2022</t>
+          <t>A 63257-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44781</v>
+        <v>44508</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1830,14 +1830,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 63257-2021</t>
+          <t>A 35216-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44508</v>
+        <v>44797.86921296296</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>44608</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1944,14 +1944,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 32814-2022</t>
+          <t>A 50783-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44784.3796875</v>
+        <v>44456</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2001,14 +2001,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 50783-2021</t>
+          <t>A 12726-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44456</v>
+        <v>44641</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2058,14 +2058,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 12726-2022</t>
+          <t>A 27872-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44641</v>
+        <v>44354.6397337963</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2122,7 +2122,7 @@
         <v>44386</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>44854.45597222223</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2229,14 +2229,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 50738-2021</t>
+          <t>A 32814-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44456</v>
+        <v>44784.3796875</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2286,14 +2286,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 27872-2021</t>
+          <t>A 7231-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44354.6397337963</v>
+        <v>44606.37339120371</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.1</v>
+        <v>4.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2343,14 +2343,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 7231-2022</t>
+          <t>A 44965-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44606.37339120371</v>
+        <v>44438.72671296296</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>4.7</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2400,14 +2400,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 44965-2021</t>
+          <t>A 50738-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44438.72671296296</v>
+        <v>44456</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2464,7 +2464,7 @@
         <v>44781.43912037037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2514,14 +2514,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 22586-2022</t>
+          <t>A 56175-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44714</v>
+        <v>44477</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2571,14 +2571,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 56175-2021</t>
+          <t>A 9210-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44477</v>
+        <v>44616.2996875</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2628,14 +2628,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 12544-2022</t>
+          <t>A 22586-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44638.65868055556</v>
+        <v>44714</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2685,14 +2685,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 9184-2022</t>
+          <t>A 12544-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44615</v>
+        <v>44638.65868055556</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2742,14 +2742,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 42295-2021</t>
+          <t>A 9184-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44427.35878472222</v>
+        <v>44615</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2799,14 +2799,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 9210-2022</t>
+          <t>A 44684-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44616.2996875</v>
+        <v>45186</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2856,14 +2856,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 62233-2022</t>
+          <t>A 42295-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44922</v>
+        <v>44427.35878472222</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2913,14 +2913,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 59986-2023</t>
+          <t>A 9297-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45257.81895833334</v>
+        <v>44616.47766203704</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>7.7</v>
+        <v>1.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2970,14 +2970,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 22050-2023</t>
+          <t>A 70743-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45069</v>
+        <v>44537.63103009259</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2989,13 +2989,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G42" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3032,14 +3027,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 60413-2024</t>
+          <t>A 55003-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45643.51706018519</v>
+        <v>45621.32651620371</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3052,7 +3047,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3089,14 +3084,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 30970-2023</t>
+          <t>A 724-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45113.48916666667</v>
+        <v>45300</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3109,7 +3104,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>4.2</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3146,14 +3141,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 46339-2024</t>
+          <t>A 22050-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45582.30826388889</v>
+        <v>45069</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3165,8 +3160,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3203,14 +3203,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 48359-2025</t>
+          <t>A 37789-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45933.66196759259</v>
+        <v>44810</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3260,14 +3260,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 39907-2024</t>
+          <t>A 32518-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45553.51288194444</v>
+        <v>44782.91590277778</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3317,14 +3317,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 46762-2023</t>
+          <t>A 50152-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45198</v>
+        <v>45215</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.9</v>
+        <v>4.8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3374,14 +3374,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 46790-2023</t>
+          <t>A 49025-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45198.69354166667</v>
+        <v>45209.82892361111</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>5.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3431,14 +3431,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 44310-2024</t>
+          <t>A 6369-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45573.57309027778</v>
+        <v>45699.38993055555</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3488,14 +3488,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 19810-2025</t>
+          <t>A 8814-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45771</v>
+        <v>44614</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3507,8 +3507,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G51" t="n">
-        <v>0.4</v>
+        <v>4.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3545,14 +3550,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 26792-2024</t>
+          <t>A 17806-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45470</v>
+        <v>44300.64185185185</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3564,13 +3569,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>7.1</v>
+        <v>5.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3607,14 +3607,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 39537-2023</t>
+          <t>A 14196-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45167</v>
+        <v>45009</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3664,14 +3664,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 39540-2023</t>
+          <t>A 20469-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45167</v>
+        <v>44315</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3683,8 +3683,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3721,14 +3726,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 36738-2024</t>
+          <t>A 26248-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45538.29486111111</v>
+        <v>45468.64033564815</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3741,7 +3746,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.9</v>
+        <v>3.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3778,14 +3783,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 724-2024</t>
+          <t>A 39538-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45300</v>
+        <v>45167</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3798,7 +3803,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>5.3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3835,14 +3840,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 40859-2025</t>
+          <t>A 35486-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45897.56069444444</v>
+        <v>45146</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3855,7 +3860,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3892,14 +3897,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 8145-2024</t>
+          <t>A 44310-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45351</v>
+        <v>45573.57309027778</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3912,7 +3917,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>7.3</v>
+        <v>2.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3949,14 +3954,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 24388-2025</t>
+          <t>A 7392-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45797.63533564815</v>
+        <v>44606.63405092592</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3969,7 +3974,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.6</v>
+        <v>5.2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4006,14 +4011,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 60414-2024</t>
+          <t>A 26230-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45643.51864583333</v>
+        <v>45091</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4025,8 +4030,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>3.1</v>
+        <v>9.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4063,14 +4073,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 42292-2025</t>
+          <t>A 12554-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45904.62887731481</v>
+        <v>45000.35256944445</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4083,7 +4093,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4120,14 +4130,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 1108-2023</t>
+          <t>A 59986-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44935.59246527778</v>
+        <v>45257.81895833334</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4140,7 +4150,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.8</v>
+        <v>7.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4177,14 +4187,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 44684-2023</t>
+          <t>A 47047-2021</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45186</v>
+        <v>44446.62215277777</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4197,7 +4207,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4234,14 +4244,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 25053-2025</t>
+          <t>A 62251-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45799.67575231481</v>
+        <v>45267.61526620371</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4253,8 +4263,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4291,14 +4306,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 9473-2023</t>
+          <t>A 60318-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44981</v>
+        <v>45643.36900462963</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4311,7 +4326,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.1</v>
+        <v>3.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4348,14 +4363,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 24723-2025</t>
+          <t>A 47300-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45799.31555555556</v>
+        <v>44853</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4368,7 +4383,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4405,14 +4420,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 34859-2023</t>
+          <t>A 46339-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45142.30226851852</v>
+        <v>45582.30826388889</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4425,7 +4440,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4462,14 +4477,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 43370-2025</t>
+          <t>A 9473-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45911.34883101852</v>
+        <v>44981</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4482,7 +4497,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4519,14 +4534,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 26238-2025</t>
+          <t>A 30636-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45805.56920138889</v>
+        <v>45112.46046296296</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4538,8 +4553,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>4.6</v>
+        <v>0.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4576,14 +4596,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 2866-2023</t>
+          <t>A 39542-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44945</v>
+        <v>45167</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4633,14 +4653,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 26229-2025</t>
+          <t>A 16395-2021</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45805.56230324074</v>
+        <v>44293</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4653,7 +4673,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4690,14 +4710,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 4243-2025</t>
+          <t>A 21369-2021</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45685.58085648148</v>
+        <v>44321.3083449074</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4710,7 +4730,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.5</v>
+        <v>10.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4747,14 +4767,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 32518-2022</t>
+          <t>A 50711-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44782.91590277778</v>
+        <v>45602.38179398148</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4767,7 +4787,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4804,14 +4824,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 49278-2025</t>
+          <t>A 61700-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45938.50790509259</v>
+        <v>45265.65236111111</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4823,8 +4843,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>4.8</v>
+        <v>2.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4861,14 +4886,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 16395-2021</t>
+          <t>A 34859-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44293</v>
+        <v>45142.30226851852</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4881,7 +4906,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4918,14 +4943,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 45736-2025</t>
+          <t>A 49564-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45923.46587962963</v>
+        <v>45596.48508101852</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4938,7 +4963,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4975,14 +5000,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 45742-2025</t>
+          <t>A 20651-2021</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45923.46953703704</v>
+        <v>44316.41503472222</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4994,8 +5019,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>0.6</v>
+        <v>5.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5032,14 +5062,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 50152-2023</t>
+          <t>A 2070-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45215</v>
+        <v>44939</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5052,7 +5082,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4.8</v>
+        <v>11.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5089,14 +5119,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 28211-2025</t>
+          <t>A 30970-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45818.45789351852</v>
+        <v>45113.48916666667</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5109,7 +5139,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5146,14 +5176,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 60318-2024</t>
+          <t>A 2866-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45643.36900462963</v>
+        <v>44945</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5166,7 +5196,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.7</v>
+        <v>0.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5203,14 +5233,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 29064-2025</t>
+          <t>A 9338-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45821</v>
+        <v>44980</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5223,7 +5253,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5260,14 +5290,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 29019-2025</t>
+          <t>A 46787-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45821.42359953704</v>
+        <v>45198.6809375</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5280,7 +5310,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5317,14 +5347,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 25316-2021</t>
+          <t>A 57647-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44342</v>
+        <v>44897</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5337,7 +5367,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5374,14 +5404,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 50093-2025</t>
+          <t>A 62233-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45943.49165509259</v>
+        <v>44922</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5394,7 +5424,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5431,14 +5461,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 50091-2025</t>
+          <t>A 2060-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45943.48703703703</v>
+        <v>44939</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5451,7 +5481,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4.1</v>
+        <v>2.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5488,14 +5518,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 53846-2024</t>
+          <t>A 29596-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45615.6309837963</v>
+        <v>45484</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5508,7 +5538,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5545,14 +5575,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 29960-2025</t>
+          <t>A 6497-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45826.4806712963</v>
+        <v>45699.63719907407</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5602,14 +5632,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 20469-2021</t>
+          <t>A 53839-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44315</v>
+        <v>45615.62634259259</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5621,13 +5651,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G88" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5664,14 +5689,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 12554-2023</t>
+          <t>A 138-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45000.35256944445</v>
+        <v>44560</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5684,7 +5709,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5721,14 +5746,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 20651-2021</t>
+          <t>A 1108-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44316.41503472222</v>
+        <v>44935.59246527778</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5740,13 +5765,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>5.1</v>
+        <v>1.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5783,14 +5803,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 59452-2023</t>
+          <t>A 29798-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45254.37158564815</v>
+        <v>45485.48961805556</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5803,7 +5823,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.2</v>
+        <v>5.2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5840,14 +5860,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 59988-2024</t>
+          <t>A 13694-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45642.39239583333</v>
+        <v>45390</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5860,7 +5880,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5897,14 +5917,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 10670-2024</t>
+          <t>A 46520-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45369.34828703704</v>
+        <v>45197</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5917,7 +5937,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5954,14 +5974,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 63239-2021</t>
+          <t>A 9177-2022</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44508.36662037037</v>
+        <v>44615</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5974,7 +5994,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6011,14 +6031,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 14196-2023</t>
+          <t>A 12275-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45009</v>
+        <v>45729</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6031,7 +6051,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6068,14 +6088,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 50932-2025</t>
+          <t>A 46762-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45946.68842592592</v>
+        <v>45198</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6088,7 +6108,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6125,14 +6145,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 51362-2025</t>
+          <t>A 61925-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45950.44516203704</v>
+        <v>45266.51587962963</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6145,7 +6165,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6182,14 +6202,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 14460-2023</t>
+          <t>A 40629-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45010</v>
+        <v>45557.69868055556</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6202,7 +6222,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>5.4</v>
+        <v>11.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6239,14 +6259,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 35316-2025</t>
+          <t>A 7722-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45854.47652777778</v>
+        <v>45349</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6258,13 +6278,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6301,14 +6316,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 12275-2025</t>
+          <t>A 25316-2021</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45729</v>
+        <v>44342</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6321,7 +6336,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>7.5</v>
+        <v>0.9</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6358,14 +6373,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 35319-2025</t>
+          <t>A 39907-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45854.48293981481</v>
+        <v>45553.51288194444</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6377,13 +6392,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6420,14 +6430,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 55003-2024</t>
+          <t>A 26792-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45621.32651620371</v>
+        <v>45470</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6439,8 +6449,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>1.9</v>
+        <v>7.1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6477,14 +6492,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 13177-2025</t>
+          <t>A 16352-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45735.37274305556</v>
+        <v>45028.69456018518</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6497,7 +6512,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6534,14 +6549,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 9773-2021</t>
+          <t>A 39537-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44252</v>
+        <v>45167</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6554,7 +6569,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6591,14 +6606,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 35768-2025</t>
+          <t>A 39540-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45860</v>
+        <v>45167</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6611,7 +6626,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>5.7</v>
+        <v>1.3</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6648,14 +6663,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 1635-2025</t>
+          <t>A 36738-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45670</v>
+        <v>45538.29486111111</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6668,7 +6683,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6705,14 +6720,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 49564-2024</t>
+          <t>A 19810-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45596.48508101852</v>
+        <v>45771</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6725,7 +6740,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6762,14 +6777,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 36407-2025</t>
+          <t>A 54902-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45868.67938657408</v>
+        <v>45229</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6782,7 +6797,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6819,14 +6834,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 36409-2025</t>
+          <t>A 10670-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45868.68178240741</v>
+        <v>45369.34828703704</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6839,7 +6854,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6876,14 +6891,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 52825-2025</t>
+          <t>A 40859-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45957.46645833334</v>
+        <v>45897.56069444444</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6896,7 +6911,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -6933,14 +6948,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 52831-2025</t>
+          <t>A 62171-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45957.46996527778</v>
+        <v>45267.42585648148</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6952,8 +6967,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G111" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -6990,14 +7010,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 36961-2025</t>
+          <t>A 42292-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45874.62365740741</v>
+        <v>45904.62887731481</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7010,7 +7030,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7047,14 +7067,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 13703-2024</t>
+          <t>A 8145-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45390</v>
+        <v>45351</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7067,7 +7087,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.6</v>
+        <v>7.3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7104,14 +7124,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 37803-2025</t>
+          <t>A 4783-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45881</v>
+        <v>44957.59467592592</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7124,7 +7144,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7161,14 +7181,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 38052-2025</t>
+          <t>A 38186-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45882</v>
+        <v>45161</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7181,7 +7201,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1</v>
+        <v>4.9</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7218,14 +7238,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 38054-2025</t>
+          <t>A 60414-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45882</v>
+        <v>45643.51864583333</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7238,7 +7258,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7275,14 +7295,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 53689-2025</t>
+          <t>A 43370-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45960.58104166666</v>
+        <v>45911.34883101852</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7295,7 +7315,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>10.9</v>
+        <v>1.9</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7332,14 +7352,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 138-2022</t>
+          <t>A 24388-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44560</v>
+        <v>45797.63533564815</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7352,7 +7372,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.3</v>
+        <v>1.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7389,14 +7409,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 5773-2023</t>
+          <t>A 25053-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44963.37827546296</v>
+        <v>45799.67575231481</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7409,7 +7429,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7446,14 +7466,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 55119-2023</t>
+          <t>A 24723-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45237.47695601852</v>
+        <v>45799.31555555556</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7466,7 +7486,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7503,14 +7523,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 58597-2022</t>
+          <t>A 26229-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44894</v>
+        <v>45805.56230324074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7523,7 +7543,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7560,14 +7580,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 29798-2024</t>
+          <t>A 26238-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45485.48961805556</v>
+        <v>45805.56920138889</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7580,7 +7600,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>5.2</v>
+        <v>4.6</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7617,14 +7637,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 60071-2025</t>
+          <t>A 1094-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45993.67202546296</v>
+        <v>45665</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7637,7 +7657,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7674,14 +7694,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 30636-2023</t>
+          <t>A 45742-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45112.46046296296</v>
+        <v>45923.46953703704</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7693,13 +7713,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G124" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7736,14 +7751,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 35486-2023</t>
+          <t>A 4243-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45146</v>
+        <v>45685.58085648148</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7756,7 +7771,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7793,14 +7808,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 9297-2022</t>
+          <t>A 45736-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44616.47766203704</v>
+        <v>45923.46587962963</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7813,7 +7828,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7850,14 +7865,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 3569-2026</t>
+          <t>A 59988-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>46042.67932870371</v>
+        <v>45642.39239583333</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7870,7 +7885,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7907,14 +7922,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 8814-2022</t>
+          <t>A 53846-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44614</v>
+        <v>45615.6309837963</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7926,13 +7941,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G128" t="n">
-        <v>4.6</v>
+        <v>0.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -7969,14 +7979,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 9338-2023</t>
+          <t>A 48359-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44980</v>
+        <v>45933.66196759259</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7989,7 +7999,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0.7</v>
+        <v>3.5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8026,14 +8036,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 57647-2022</t>
+          <t>A 28211-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44897</v>
+        <v>45818.45789351852</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8046,7 +8056,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>8.699999999999999</v>
+        <v>3.1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8083,14 +8093,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 40629-2024</t>
+          <t>A 46790-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45557.69868055556</v>
+        <v>45198.69354166667</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8103,7 +8113,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>11.5</v>
+        <v>1</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8140,14 +8150,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 61700-2023</t>
+          <t>A 49278-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45265.65236111111</v>
+        <v>45938.50790509259</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8159,13 +8169,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G132" t="n">
-        <v>2.4</v>
+        <v>4.8</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8202,14 +8207,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 53839-2024</t>
+          <t>A 13703-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45615.62634259259</v>
+        <v>45390</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8222,7 +8227,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8259,14 +8264,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 6705-2026</t>
+          <t>A 29064-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>46056</v>
+        <v>45821</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8279,7 +8284,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>6.3</v>
+        <v>2.3</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8316,14 +8321,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 6686-2026</t>
+          <t>A 29019-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>46056.62666666666</v>
+        <v>45821.42359953704</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8336,7 +8341,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8373,14 +8378,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 63802-2025</t>
+          <t>A 29960-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>46019.86751157408</v>
+        <v>45826.4806712963</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8393,7 +8398,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8430,14 +8435,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 46787-2023</t>
+          <t>A 50093-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45198.6809375</v>
+        <v>45943.49165509259</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8450,7 +8455,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>8.800000000000001</v>
+        <v>4.3</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8487,14 +8492,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 54902-2023</t>
+          <t>A 50091-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45229</v>
+        <v>45943.48703703703</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8507,7 +8512,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.9</v>
+        <v>4.1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8544,14 +8549,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 4783-2023</t>
+          <t>A 60413-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44957.59467592592</v>
+        <v>45643.51706018519</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8564,7 +8569,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8601,14 +8606,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 7722-2024</t>
+          <t>A 50932-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45349</v>
+        <v>45946.68842592592</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8621,7 +8626,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8658,14 +8663,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 17806-2021</t>
+          <t>A 59452-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44300.64185185185</v>
+        <v>45254.37158564815</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8678,7 +8683,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>5.7</v>
+        <v>1.2</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8715,14 +8720,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 5770-2023</t>
+          <t>A 51362-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44963.37232638889</v>
+        <v>45950.44516203704</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8735,7 +8740,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8772,14 +8777,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 6369-2025</t>
+          <t>A 55119-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45699.38993055555</v>
+        <v>45237.47695601852</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8792,7 +8797,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8829,14 +8834,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 26248-2024</t>
+          <t>A 52825-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45468.64033564815</v>
+        <v>45957.46645833334</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8849,7 +8854,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8886,14 +8891,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 47300-2022</t>
+          <t>A 52831-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44853</v>
+        <v>45957.46996527778</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8906,7 +8911,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8943,14 +8948,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 47047-2021</t>
+          <t>A 53689-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44446.62215277777</v>
+        <v>45960.58104166666</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8963,7 +8968,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2.8</v>
+        <v>10.9</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9000,14 +9005,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 62251-2023</t>
+          <t>A 58597-2022</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45267.61526620371</v>
+        <v>44894</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9019,13 +9024,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G147" t="n">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9062,14 +9062,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 7392-2022</t>
+          <t>A 35316-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44606.63405092592</v>
+        <v>45854.47652777778</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9081,8 +9081,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G148" t="n">
-        <v>5.2</v>
+        <v>2.2</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9119,14 +9124,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 1094-2025</t>
+          <t>A 35319-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45665</v>
+        <v>45854.48293981481</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9138,8 +9143,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G149" t="n">
-        <v>0.8</v>
+        <v>3.3</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9176,14 +9186,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 27989-2022</t>
+          <t>A 20024-2022</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44745</v>
+        <v>44697.66332175926</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9196,7 +9206,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9233,14 +9243,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 6497-2025</t>
+          <t>A 13177-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45699.63719907407</v>
+        <v>45735.37274305556</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9253,7 +9263,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9290,14 +9300,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 26230-2023</t>
+          <t>A 35768-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45091</v>
+        <v>45860</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9309,13 +9319,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G152" t="n">
-        <v>9.4</v>
+        <v>5.7</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9352,14 +9357,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 2060-2023</t>
+          <t>A 1635-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44939</v>
+        <v>45670</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9372,7 +9377,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9409,14 +9414,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 2070-2023</t>
+          <t>A 36407-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44939</v>
+        <v>45868.67938657408</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9429,7 +9434,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>11.6</v>
+        <v>2.8</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9466,14 +9471,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 9177-2022</t>
+          <t>A 36409-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44615</v>
+        <v>45868.68178240741</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9486,7 +9491,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9523,14 +9528,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 30411-2021</t>
+          <t>A 5773-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44364.53988425926</v>
+        <v>44963.37827546296</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9543,7 +9548,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9580,14 +9585,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 21369-2021</t>
+          <t>A 30411-2021</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44321.3083449074</v>
+        <v>44364.53988425926</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9600,7 +9605,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>10.7</v>
+        <v>1.7</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9637,14 +9642,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 20024-2022</t>
+          <t>A 809-2022</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44697.66332175926</v>
+        <v>44571</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9657,7 +9662,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.4</v>
+        <v>4.3</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9694,14 +9699,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 38186-2023</t>
+          <t>A 36961-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45161</v>
+        <v>45874.62365740741</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9714,7 +9719,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>4.9</v>
+        <v>0.9</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9751,14 +9756,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 50711-2024</t>
+          <t>A 38052-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45602.38179398148</v>
+        <v>45882</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9808,14 +9813,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 70743-2021</t>
+          <t>A 60071-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44537.63103009259</v>
+        <v>45993.67202546296</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9828,7 +9833,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -9865,14 +9870,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 39542-2023</t>
+          <t>A 37803-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45167</v>
+        <v>45881</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9885,7 +9890,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>0.6</v>
+        <v>3.3</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -9922,14 +9927,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 16352-2023</t>
+          <t>A 27989-2022</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45028.69456018518</v>
+        <v>44745</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9942,7 +9947,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -9979,14 +9984,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 39538-2023</t>
+          <t>A 38054-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45167</v>
+        <v>45882</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9999,7 +10004,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>5.3</v>
+        <v>0.6</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10036,14 +10041,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 61925-2023</t>
+          <t>A 63239-2021</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45266.51587962963</v>
+        <v>44508.36662037037</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10056,7 +10061,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10093,14 +10098,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 49025-2023</t>
+          <t>A 4272-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45209.82892361111</v>
+        <v>44951</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10113,7 +10118,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>5.4</v>
+        <v>1.8</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10150,14 +10155,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 13694-2024</t>
+          <t>A 3569-2026</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45390</v>
+        <v>46042.67932870371</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10207,14 +10212,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 46520-2023</t>
+          <t>A 5770-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45197</v>
+        <v>44963.37232638889</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10227,7 +10232,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10264,14 +10269,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 29596-2024</t>
+          <t>A 14460-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45484</v>
+        <v>45010</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10284,7 +10289,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.8</v>
+        <v>5.4</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10321,14 +10326,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 4272-2023</t>
+          <t>A 6686-2026</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44951</v>
+        <v>46056.62666666666</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10341,7 +10346,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10378,14 +10383,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 809-2022</t>
+          <t>A 6705-2026</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44571</v>
+        <v>46056</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10398,7 +10403,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>4.3</v>
+        <v>6.3</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10432,17 +10437,17 @@
       </c>
       <c r="R171" s="2" t="inlineStr"/>
     </row>
-    <row r="172" ht="15" customHeight="1">
+    <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 37789-2022</t>
+          <t>A 63802-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44810</v>
+        <v>46019.86751157408</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10455,7 +10460,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10488,68 +10493,6 @@
         <v>0</v>
       </c>
       <c r="R172" s="2" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>A 62171-2023</t>
-        </is>
-      </c>
-      <c r="B173" s="1" t="n">
-        <v>45267.42585648148</v>
-      </c>
-      <c r="C173" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>HJO</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G173" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="n">
-        <v>0</v>
-      </c>
-      <c r="K173" t="n">
-        <v>0</v>
-      </c>
-      <c r="L173" t="n">
-        <v>0</v>
-      </c>
-      <c r="M173" t="n">
-        <v>0</v>
-      </c>
-      <c r="N173" t="n">
-        <v>0</v>
-      </c>
-      <c r="O173" t="n">
-        <v>0</v>
-      </c>
-      <c r="P173" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q173" t="n">
-        <v>0</v>
-      </c>
-      <c r="R173" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt HJO.xlsx
+++ b/Översikt HJO.xlsx
@@ -575,7 +575,7 @@
         <v>44272</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44593</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -739,14 +739,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 10014-2025</t>
+          <t>A 26270-2024</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45719.46746527778</v>
+        <v>45468</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -759,22 +759,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
         <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -793,123 +793,123 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
+          <t>Ask</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1497/artfynd/A 26270-2024 artfynd.xlsx", "A 26270-2024")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1497/kartor/A 26270-2024 karta.png", "A 26270-2024")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1497/klagomål/A 26270-2024 FSC-klagomål.docx", "A 26270-2024")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1497/klagomålsmail/A 26270-2024 FSC-klagomål mail.docx", "A 26270-2024")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1497/tillsyn/A 26270-2024 tillsynsbegäran.docx", "A 26270-2024")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1497/tillsynsmail/A 26270-2024 tillsynsbegäran mail.docx", "A 26270-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 10014-2025</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45719.46746527778</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>HJO</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
           <t>Knärot</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1497/artfynd/A 10014-2025 artfynd.xlsx", "A 10014-2025")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1497/kartor/A 10014-2025 karta.png", "A 10014-2025")</f>
         <v/>
       </c>
-      <c r="U4">
+      <c r="U5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1497/knärot/A 10014-2025 karta knärot.png", "A 10014-2025")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1497/klagomål/A 10014-2025 FSC-klagomål.docx", "A 10014-2025")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1497/klagomålsmail/A 10014-2025 FSC-klagomål mail.docx", "A 10014-2025")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1497/tillsyn/A 10014-2025 tillsynsbegäran.docx", "A 10014-2025")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1497/tillsynsmail/A 10014-2025 tillsynsbegäran mail.docx", "A 10014-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 26270-2024</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45468</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>HJO</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Ask</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1497/artfynd/A 26270-2024 artfynd.xlsx", "A 26270-2024")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1497/kartor/A 26270-2024 karta.png", "A 26270-2024")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1497/klagomål/A 26270-2024 FSC-klagomål.docx", "A 26270-2024")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1497/klagomålsmail/A 26270-2024 FSC-klagomål mail.docx", "A 26270-2024")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1497/tillsyn/A 26270-2024 tillsynsbegäran.docx", "A 26270-2024")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1497/tillsynsmail/A 26270-2024 tillsynsbegäran mail.docx", "A 26270-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44799.45684027778</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44729</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44525.73625</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1089,14 +1089,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 9209-2022</t>
+          <t>A 19341-2022</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44616.29740740741</v>
+        <v>44692</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1146,14 +1146,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 19341-2022</t>
+          <t>A 9209-2022</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44692</v>
+        <v>44616.29740740741</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1166,7 +1166,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         <v>44866.6278587963</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>44623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>44354.60260416667</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44846</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>44515</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1488,14 +1488,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 46998-2022</t>
+          <t>A 55091-2021</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44852.25016203704</v>
+        <v>44474</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1545,14 +1545,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 28512-2022</t>
+          <t>A 46998-2022</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44748.35234953704</v>
+        <v>44852.25016203704</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>4.4</v>
+        <v>0.5</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1602,14 +1602,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 58495-2021</t>
+          <t>A 35216-2022</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44488.62511574074</v>
+        <v>44797.86921296296</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1659,14 +1659,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 55091-2021</t>
+          <t>A 28512-2022</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44474</v>
+        <v>44748.35234953704</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.4</v>
+        <v>4.4</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1716,14 +1716,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 32158-2022</t>
+          <t>A 58495-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44781</v>
+        <v>44488.62511574074</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1773,14 +1773,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 63257-2021</t>
+          <t>A 32158-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44508</v>
+        <v>44781</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1830,14 +1830,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 35216-2022</t>
+          <t>A 63257-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44797.86921296296</v>
+        <v>44508</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>44608</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1944,14 +1944,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 50783-2021</t>
+          <t>A 32814-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44456</v>
+        <v>44784.3796875</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2001,14 +2001,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 12726-2022</t>
+          <t>A 50783-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44641</v>
+        <v>44456</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2058,14 +2058,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 27872-2021</t>
+          <t>A 12726-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44354.6397337963</v>
+        <v>44641</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2122,7 +2122,7 @@
         <v>44386</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>44854.45597222223</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2229,14 +2229,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 32814-2022</t>
+          <t>A 50738-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44784.3796875</v>
+        <v>44456</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2286,14 +2286,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 7231-2022</t>
+          <t>A 27872-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44606.37339120371</v>
+        <v>44354.6397337963</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>4.7</v>
+        <v>3.1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2343,14 +2343,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 44965-2021</t>
+          <t>A 7231-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44438.72671296296</v>
+        <v>44606.37339120371</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>4.7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2400,14 +2400,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 50738-2021</t>
+          <t>A 44965-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44456</v>
+        <v>44438.72671296296</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2464,7 +2464,7 @@
         <v>44781.43912037037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2514,14 +2514,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 56175-2021</t>
+          <t>A 22586-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44477</v>
+        <v>44714</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2571,14 +2571,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 9210-2022</t>
+          <t>A 56175-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44616.2996875</v>
+        <v>44477</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2628,14 +2628,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 22586-2022</t>
+          <t>A 12544-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44714</v>
+        <v>44638.65868055556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2685,14 +2685,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 12544-2022</t>
+          <t>A 9184-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44638.65868055556</v>
+        <v>44615</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2742,14 +2742,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 9184-2022</t>
+          <t>A 42295-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44615</v>
+        <v>44427.35878472222</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2799,14 +2799,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 44684-2023</t>
+          <t>A 9210-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45186</v>
+        <v>44616.2996875</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2856,14 +2856,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 42295-2021</t>
+          <t>A 724-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44427.35878472222</v>
+        <v>45300</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2913,14 +2913,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 9297-2022</t>
+          <t>A 50152-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44616.47766203704</v>
+        <v>45215</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.5</v>
+        <v>4.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2970,14 +2970,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 70743-2021</t>
+          <t>A 37789-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44537.63103009259</v>
+        <v>44810</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3027,14 +3027,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 55003-2024</t>
+          <t>A 49025-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45621.32651620371</v>
+        <v>45209.82892361111</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.9</v>
+        <v>5.4</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3084,14 +3084,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 724-2024</t>
+          <t>A 32518-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45300</v>
+        <v>44782.91590277778</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3141,14 +3141,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 22050-2023</t>
+          <t>A 17806-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45069</v>
+        <v>44300.64185185185</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3160,13 +3160,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>2.6</v>
+        <v>5.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3203,14 +3198,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 37789-2022</t>
+          <t>A 26248-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44810</v>
+        <v>45468.64033564815</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3223,7 +3218,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3260,14 +3255,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 32518-2022</t>
+          <t>A 44684-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44782.91590277778</v>
+        <v>45186</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3280,7 +3275,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3317,14 +3312,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 50152-2023</t>
+          <t>A 62251-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45215</v>
+        <v>45267.61526620371</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3336,8 +3331,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>4.8</v>
+        <v>2.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3374,14 +3374,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 49025-2023</t>
+          <t>A 59986-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45209.82892361111</v>
+        <v>45257.81895833334</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>5.4</v>
+        <v>7.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3431,14 +3431,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 6369-2025</t>
+          <t>A 47047-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45699.38993055555</v>
+        <v>44446.62215277777</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3488,14 +3488,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 8814-2022</t>
+          <t>A 47300-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44614</v>
+        <v>44853</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3507,13 +3507,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>4.6</v>
+        <v>2.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3550,14 +3545,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 17806-2021</t>
+          <t>A 61700-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44300.64185185185</v>
+        <v>45265.65236111111</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3569,8 +3564,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>5.7</v>
+        <v>2.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3607,14 +3607,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 14196-2023</t>
+          <t>A 2070-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45009</v>
+        <v>44939</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3.5</v>
+        <v>11.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3664,14 +3664,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 20469-2021</t>
+          <t>A 2866-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44315</v>
+        <v>44945</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3683,13 +3683,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3726,14 +3721,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 26248-2024</t>
+          <t>A 57647-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45468.64033564815</v>
+        <v>44897</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3746,7 +3741,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3783,14 +3778,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 39538-2023</t>
+          <t>A 62233-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45167</v>
+        <v>44922</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3803,7 +3798,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3840,14 +3835,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 35486-2023</t>
+          <t>A 2060-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45146</v>
+        <v>44939</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3860,7 +3855,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3897,14 +3892,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 44310-2024</t>
+          <t>A 26229-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45573.57309027778</v>
+        <v>45805.56230324074</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3917,7 +3912,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3954,14 +3949,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 7392-2022</t>
+          <t>A 26238-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44606.63405092592</v>
+        <v>45805.56920138889</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3974,7 +3969,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>5.2</v>
+        <v>4.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4011,14 +4006,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 26230-2023</t>
+          <t>A 1108-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45091</v>
+        <v>44935.59246527778</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4030,13 +4025,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>9.4</v>
+        <v>1.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4073,14 +4063,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 12554-2023</t>
+          <t>A 4243-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45000.35256944445</v>
+        <v>45685.58085648148</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4093,7 +4083,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4130,14 +4120,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 59986-2023</t>
+          <t>A 13694-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45257.81895833334</v>
+        <v>45390</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4150,7 +4140,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>7.7</v>
+        <v>2.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4187,14 +4177,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 47047-2021</t>
+          <t>A 46520-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44446.62215277777</v>
+        <v>45197</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4207,7 +4197,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4244,14 +4234,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 62251-2023</t>
+          <t>A 9177-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45267.61526620371</v>
+        <v>44615</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4263,13 +4253,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4306,14 +4291,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 60318-2024</t>
+          <t>A 46762-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45643.36900462963</v>
+        <v>45198</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4326,7 +4311,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.7</v>
+        <v>0.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4363,14 +4348,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 47300-2022</t>
+          <t>A 28211-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44853</v>
+        <v>45818.45789351852</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4383,7 +4368,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4420,14 +4405,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 46339-2024</t>
+          <t>A 29064-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45582.30826388889</v>
+        <v>45821</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4440,7 +4425,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4477,14 +4462,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 9473-2023</t>
+          <t>A 29019-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44981</v>
+        <v>45821.42359953704</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4497,7 +4482,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4534,14 +4519,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 30636-2023</t>
+          <t>A 29960-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45112.46046296296</v>
+        <v>45826.4806712963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4553,13 +4538,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4596,14 +4576,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 39542-2023</t>
+          <t>A 40859-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45167</v>
+        <v>45897.56069444444</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4616,7 +4596,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4653,14 +4633,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 16395-2021</t>
+          <t>A 22050-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44293</v>
+        <v>45069</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4672,8 +4652,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4710,14 +4695,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 21369-2021</t>
+          <t>A 59452-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44321.3083449074</v>
+        <v>45254.37158564815</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4730,7 +4715,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>10.7</v>
+        <v>1.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4767,14 +4752,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 50711-2024</t>
+          <t>A 42292-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45602.38179398148</v>
+        <v>45904.62887731481</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4787,7 +4772,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4824,14 +4809,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 61700-2023</t>
+          <t>A 6369-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45265.65236111111</v>
+        <v>45699.38993055555</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4843,13 +4828,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4886,14 +4866,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 34859-2023</t>
+          <t>A 44310-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45142.30226851852</v>
+        <v>45573.57309027778</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4906,7 +4886,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4943,14 +4923,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 49564-2024</t>
+          <t>A 43370-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45596.48508101852</v>
+        <v>45911.34883101852</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4963,7 +4943,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5000,14 +4980,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 20651-2021</t>
+          <t>A 60318-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44316.41503472222</v>
+        <v>45643.36900462963</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5019,13 +4999,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>5.1</v>
+        <v>3.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5062,14 +5037,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 2070-2023</t>
+          <t>A 9473-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44939</v>
+        <v>44981</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5082,7 +5057,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>11.6</v>
+        <v>2.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5119,14 +5094,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 30970-2023</t>
+          <t>A 30636-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45113.48916666667</v>
+        <v>45112.46046296296</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5138,8 +5113,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>4.2</v>
+        <v>0.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5176,14 +5156,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 2866-2023</t>
+          <t>A 39542-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44945</v>
+        <v>45167</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5233,14 +5213,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 9338-2023</t>
+          <t>A 35316-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44980</v>
+        <v>45854.47652777778</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5252,8 +5232,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5290,14 +5275,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 46787-2023</t>
+          <t>A 35319-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45198.6809375</v>
+        <v>45854.48293981481</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5309,8 +5294,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>8.800000000000001</v>
+        <v>3.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5347,14 +5337,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 57647-2022</t>
+          <t>A 21369-2021</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44897</v>
+        <v>44321.3083449074</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5367,7 +5357,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>8.699999999999999</v>
+        <v>10.7</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5404,14 +5394,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 62233-2022</t>
+          <t>A 50711-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44922</v>
+        <v>45602.38179398148</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5424,7 +5414,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5461,14 +5451,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 2060-2023</t>
+          <t>A 34859-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44939</v>
+        <v>45142.30226851852</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5481,7 +5471,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5518,14 +5508,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 29596-2024</t>
+          <t>A 13177-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45484</v>
+        <v>45735.37274305556</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5538,7 +5528,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5575,14 +5565,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 6497-2025</t>
+          <t>A 35768-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45699.63719907407</v>
+        <v>45860</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5595,7 +5585,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.6</v>
+        <v>5.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5632,14 +5622,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 53839-2024</t>
+          <t>A 49564-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45615.62634259259</v>
+        <v>45596.48508101852</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5689,14 +5679,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 138-2022</t>
+          <t>A 1635-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44560</v>
+        <v>45670</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5709,7 +5699,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.3</v>
+        <v>1.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5746,14 +5736,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 1108-2023</t>
+          <t>A 20651-2021</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44935.59246527778</v>
+        <v>44316.41503472222</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5765,8 +5755,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>1.8</v>
+        <v>5.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5803,14 +5798,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 29798-2024</t>
+          <t>A 36407-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45485.48961805556</v>
+        <v>45868.67938657408</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5823,7 +5818,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>5.2</v>
+        <v>2.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5860,14 +5855,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 13694-2024</t>
+          <t>A 45742-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45390</v>
+        <v>45923.46953703704</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5880,7 +5875,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5917,14 +5912,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 46520-2023</t>
+          <t>A 45736-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45197</v>
+        <v>45923.46587962963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5937,7 +5932,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5974,14 +5969,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 9177-2022</t>
+          <t>A 36409-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44615</v>
+        <v>45868.68178240741</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5994,7 +5989,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6031,14 +6026,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 12275-2025</t>
+          <t>A 46787-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45729</v>
+        <v>45198.6809375</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6051,7 +6046,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>7.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6088,14 +6083,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 46762-2023</t>
+          <t>A 36961-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45198</v>
+        <v>45874.62365740741</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6145,14 +6140,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 61925-2023</t>
+          <t>A 29596-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45266.51587962963</v>
+        <v>45484</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6165,7 +6160,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6202,14 +6197,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 40629-2024</t>
+          <t>A 38052-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45557.69868055556</v>
+        <v>45882</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6222,7 +6217,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>11.5</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6259,14 +6254,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 7722-2024</t>
+          <t>A 37803-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45349</v>
+        <v>45881</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6279,7 +6274,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6316,14 +6311,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 25316-2021</t>
+          <t>A 38054-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44342</v>
+        <v>45882</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6336,7 +6331,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6373,14 +6368,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 39907-2024</t>
+          <t>A 48359-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45553.51288194444</v>
+        <v>45933.66196759259</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6393,7 +6388,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6430,14 +6425,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 26792-2024</t>
+          <t>A 49278-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45470</v>
+        <v>45938.50790509259</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6449,13 +6444,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G102" t="n">
-        <v>7.1</v>
+        <v>4.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6492,14 +6482,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 16352-2023</t>
+          <t>A 50093-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45028.69456018518</v>
+        <v>45943.49165509259</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6512,7 +6502,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6549,14 +6539,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 39537-2023</t>
+          <t>A 50091-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45167</v>
+        <v>45943.48703703703</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6569,7 +6559,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.6</v>
+        <v>4.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6606,14 +6596,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 39540-2023</t>
+          <t>A 50932-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45167</v>
+        <v>45946.68842592592</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6626,7 +6616,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6663,14 +6653,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 36738-2024</t>
+          <t>A 51362-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45538.29486111111</v>
+        <v>45950.44516203704</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6683,7 +6673,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6720,14 +6710,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 19810-2025</t>
+          <t>A 16352-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45771</v>
+        <v>45028.69456018518</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6740,7 +6730,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.4</v>
+        <v>3.1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6777,14 +6767,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 54902-2023</t>
+          <t>A 39537-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45229</v>
+        <v>45167</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6797,7 +6787,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6834,14 +6824,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 10670-2024</t>
+          <t>A 39540-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45369.34828703704</v>
+        <v>45167</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6854,7 +6844,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6891,14 +6881,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 40859-2025</t>
+          <t>A 52825-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45897.56069444444</v>
+        <v>45957.46645833334</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6911,7 +6901,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -6948,14 +6938,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 62171-2023</t>
+          <t>A 10670-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45267.42585648148</v>
+        <v>45369.34828703704</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6967,13 +6957,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G111" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7010,14 +6995,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 42292-2025</t>
+          <t>A 52831-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45904.62887731481</v>
+        <v>45957.46996527778</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7030,7 +7015,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7067,14 +7052,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 8145-2024</t>
+          <t>A 53689-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45351</v>
+        <v>45960.58104166666</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7087,7 +7072,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>7.3</v>
+        <v>10.9</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7124,14 +7109,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 4783-2023</t>
+          <t>A 62171-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44957.59467592592</v>
+        <v>45267.42585648148</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7143,8 +7128,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G114" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7181,14 +7171,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 38186-2023</t>
+          <t>A 4783-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45161</v>
+        <v>44957.59467592592</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7201,7 +7191,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>4.9</v>
+        <v>0.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7238,14 +7228,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 60414-2024</t>
+          <t>A 38186-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45643.51864583333</v>
+        <v>45161</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7258,7 +7248,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3.1</v>
+        <v>4.9</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7295,14 +7285,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 43370-2025</t>
+          <t>A 12554-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45911.34883101852</v>
+        <v>45000.35256944445</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7315,7 +7305,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7352,14 +7342,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 24388-2025</t>
+          <t>A 53839-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45797.63533564815</v>
+        <v>45615.62634259259</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7372,7 +7362,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7409,14 +7399,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 25053-2025</t>
+          <t>A 40629-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45799.67575231481</v>
+        <v>45557.69868055556</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7429,7 +7419,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.7</v>
+        <v>11.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7466,14 +7456,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 24723-2025</t>
+          <t>A 7722-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45799.31555555556</v>
+        <v>45349</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7486,7 +7476,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7523,14 +7513,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 26229-2025</t>
+          <t>A 25316-2021</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45805.56230324074</v>
+        <v>44342</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7543,7 +7533,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7580,14 +7570,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 26238-2025</t>
+          <t>A 60071-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45805.56920138889</v>
+        <v>45993.67202546296</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7600,7 +7590,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>4.6</v>
+        <v>0.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7637,14 +7627,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 1094-2025</t>
+          <t>A 3569-2026</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45665</v>
+        <v>46042.67932870371</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7657,7 +7647,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7694,14 +7684,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 45742-2025</t>
+          <t>A 54902-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45923.46953703704</v>
+        <v>45229</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7714,7 +7704,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7751,14 +7741,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 4243-2025</t>
+          <t>A 1094-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45685.58085648148</v>
+        <v>45665</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7771,7 +7761,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7808,14 +7798,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 45736-2025</t>
+          <t>A 59988-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45923.46587962963</v>
+        <v>45642.39239583333</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7828,7 +7818,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7865,14 +7855,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 59988-2024</t>
+          <t>A 53846-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45642.39239583333</v>
+        <v>45615.6309837963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7885,7 +7875,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7922,14 +7912,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 53846-2024</t>
+          <t>A 46790-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45615.6309837963</v>
+        <v>45198.69354166667</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7942,7 +7932,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -7979,14 +7969,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 48359-2025</t>
+          <t>A 6686-2026</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45933.66196759259</v>
+        <v>46056.62666666666</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7999,7 +7989,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8036,14 +8026,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 28211-2025</t>
+          <t>A 13703-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45818.45789351852</v>
+        <v>45390</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8056,7 +8046,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8093,14 +8083,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 46790-2023</t>
+          <t>A 6705-2026</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45198.69354166667</v>
+        <v>46056</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8113,7 +8103,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>6.3</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8150,14 +8140,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 49278-2025</t>
+          <t>A 60413-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45938.50790509259</v>
+        <v>45643.51706018519</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8170,7 +8160,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>4.8</v>
+        <v>2.9</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8207,14 +8197,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 13703-2024</t>
+          <t>A 63802-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45390</v>
+        <v>46019.86751157408</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8227,7 +8217,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8264,14 +8254,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 29064-2025</t>
+          <t>A 55119-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45821</v>
+        <v>45237.47695601852</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8284,7 +8274,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8321,14 +8311,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 29019-2025</t>
+          <t>A 58597-2022</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45821.42359953704</v>
+        <v>44894</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8341,7 +8331,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8378,14 +8368,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 29960-2025</t>
+          <t>A 20024-2022</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45826.4806712963</v>
+        <v>44697.66332175926</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8398,7 +8388,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8435,14 +8425,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 50093-2025</t>
+          <t>A 5773-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45943.49165509259</v>
+        <v>44963.37827546296</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8455,7 +8445,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>4.3</v>
+        <v>1.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8492,14 +8482,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 50091-2025</t>
+          <t>A 30411-2021</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45943.48703703703</v>
+        <v>44364.53988425926</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8512,7 +8502,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>4.1</v>
+        <v>1.7</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8549,14 +8539,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 60413-2024</t>
+          <t>A 809-2022</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45643.51706018519</v>
+        <v>44571</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8569,7 +8559,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.9</v>
+        <v>4.3</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8606,14 +8596,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 50932-2025</t>
+          <t>A 27989-2022</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45946.68842592592</v>
+        <v>44745</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8626,7 +8616,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8663,14 +8653,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 59452-2023</t>
+          <t>A 63239-2021</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45254.37158564815</v>
+        <v>44508.36662037037</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8683,7 +8673,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8720,14 +8710,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 51362-2025</t>
+          <t>A 4272-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45950.44516203704</v>
+        <v>44951</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8740,7 +8730,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8777,14 +8767,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 55119-2023</t>
+          <t>A 5770-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45237.47695601852</v>
+        <v>44963.37232638889</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8797,7 +8787,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8834,14 +8824,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 52825-2025</t>
+          <t>A 14460-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45957.46645833334</v>
+        <v>45010</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8854,7 +8844,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.6</v>
+        <v>5.4</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8891,14 +8881,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 52831-2025</t>
+          <t>A 9297-2022</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45957.46996527778</v>
+        <v>44616.47766203704</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8911,7 +8901,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8948,14 +8938,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 53689-2025</t>
+          <t>A 70743-2021</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45960.58104166666</v>
+        <v>44537.63103009259</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8968,7 +8958,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>10.9</v>
+        <v>2.7</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9005,14 +8995,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 58597-2022</t>
+          <t>A 55003-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44894</v>
+        <v>45621.32651620371</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9025,7 +9015,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9062,14 +9052,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 35316-2025</t>
+          <t>A 8814-2022</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45854.47652777778</v>
+        <v>44614</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9083,11 +9073,11 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.2</v>
+        <v>4.6</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9124,14 +9114,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 35319-2025</t>
+          <t>A 14196-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45854.48293981481</v>
+        <v>45009</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9143,13 +9133,8 @@
           <t>HJO</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G149" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9186,14 +9171,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 20024-2022</t>
+          <t>A 20469-2021</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44697.66332175926</v>
+        <v>44315</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9205,8 +9190,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G150" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9243,14 +9233,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 13177-2025</t>
+          <t>A 39538-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45735.37274305556</v>
+        <v>45167</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9263,7 +9253,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.4</v>
+        <v>5.3</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9300,14 +9290,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 35768-2025</t>
+          <t>A 35486-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45860</v>
+        <v>45146</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9320,7 +9310,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>5.7</v>
+        <v>2.9</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9357,14 +9347,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 1635-2025</t>
+          <t>A 7392-2022</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45670</v>
+        <v>44606.63405092592</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9377,7 +9367,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.8</v>
+        <v>5.2</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9414,14 +9404,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 36407-2025</t>
+          <t>A 26230-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45868.67938657408</v>
+        <v>45091</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9433,8 +9423,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G154" t="n">
-        <v>2.8</v>
+        <v>9.4</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9471,14 +9466,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 36409-2025</t>
+          <t>A 46339-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45868.68178240741</v>
+        <v>45582.30826388889</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9491,7 +9486,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9528,14 +9523,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 5773-2023</t>
+          <t>A 16395-2021</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44963.37827546296</v>
+        <v>44293</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9548,7 +9543,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9585,14 +9580,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 30411-2021</t>
+          <t>A 30970-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44364.53988425926</v>
+        <v>45113.48916666667</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9605,7 +9600,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9642,14 +9637,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 809-2022</t>
+          <t>A 9338-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44571</v>
+        <v>44980</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9662,7 +9657,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>4.3</v>
+        <v>0.7</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9699,14 +9694,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 36961-2025</t>
+          <t>A 6497-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45874.62365740741</v>
+        <v>45699.63719907407</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9719,7 +9714,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9756,14 +9751,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 38052-2025</t>
+          <t>A 138-2022</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45882</v>
+        <v>44560</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9776,7 +9771,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9813,14 +9808,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 60071-2025</t>
+          <t>A 29798-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45993.67202546296</v>
+        <v>45485.48961805556</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9833,7 +9828,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>0.5</v>
+        <v>5.2</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -9870,14 +9865,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 37803-2025</t>
+          <t>A 12275-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45881</v>
+        <v>45729</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9890,7 +9885,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -9927,14 +9922,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 27989-2022</t>
+          <t>A 61925-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44745</v>
+        <v>45266.51587962963</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9947,7 +9942,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -9984,14 +9979,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 38054-2025</t>
+          <t>A 39907-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45882</v>
+        <v>45553.51288194444</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10004,7 +9999,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0.6</v>
+        <v>6.5</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10041,14 +10036,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 63239-2021</t>
+          <t>A 26792-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44508.36662037037</v>
+        <v>45470</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10060,8 +10055,13 @@
           <t>HJO</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G165" t="n">
-        <v>2.3</v>
+        <v>7.1</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10098,14 +10098,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 4272-2023</t>
+          <t>A 36738-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44951</v>
+        <v>45538.29486111111</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10118,7 +10118,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10155,14 +10155,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 3569-2026</t>
+          <t>A 19810-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>46042.67932870371</v>
+        <v>45771</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10175,7 +10175,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2.2</v>
+        <v>0.4</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10212,14 +10212,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 5770-2023</t>
+          <t>A 8145-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44963.37232638889</v>
+        <v>45351</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10232,7 +10232,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.7</v>
+        <v>7.3</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10269,14 +10269,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 14460-2023</t>
+          <t>A 60414-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45010</v>
+        <v>45643.51864583333</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>5.4</v>
+        <v>3.1</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10326,14 +10326,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 6686-2026</t>
+          <t>A 24388-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>46056.62666666666</v>
+        <v>45797.63533564815</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10383,14 +10383,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 6705-2026</t>
+          <t>A 25053-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>46056</v>
+        <v>45799.67575231481</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>6.3</v>
+        <v>1.7</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10440,14 +10440,14 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 63802-2025</t>
+          <t>A 24723-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>46019.86751157408</v>
+        <v>45799.31555555556</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>

--- a/Översikt HJO.xlsx
+++ b/Översikt HJO.xlsx
@@ -575,7 +575,7 @@
         <v>44272</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44593</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>45468</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>45719.46746527778</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44799.45684027778</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44729</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44525.73625</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>44692</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>44616.29740740741</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>44866.6278587963</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>44623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>44354.60260416667</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44846</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>44515</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         <v>44474</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>44852.25016203704</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>44797.86921296296</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>44748.35234953704</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>44488.62511574074</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>44781</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>44508</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>44608</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>44784.3796875</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>44456</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>44641</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>44386</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>44854.45597222223</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>44456</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>44354.6397337963</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>44606.37339120371</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>44438.72671296296</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>44781.43912037037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>44714</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>44477</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>44638.65868055556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>44615</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>44427.35878472222</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>44616.2996875</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>45300</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>45215</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>44810</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>45209.82892361111</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>44782.91590277778</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>44300.64185185185</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>45468.64033564815</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>45186</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>45267.61526620371</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>45257.81895833334</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>44446.62215277777</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>44853</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>45265.65236111111</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>44939</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>44945</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
         <v>44897</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>44922</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>44939</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>45805.56230324074</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>45805.56920138889</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>44935.59246527778</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>45685.58085648148</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
         <v>45390</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>45197</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>44615</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>45198</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>45818.45789351852</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>45821</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>45821.42359953704</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4526,7 +4526,7 @@
         <v>45826.4806712963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>45897.56069444444</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>45069</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>45254.37158564815</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>45904.62887731481</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>45699.38993055555</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>45573.57309027778</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>45911.34883101852</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>45643.36900462963</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>44981</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>45112.46046296296</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>45167</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>45854.47652777778</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>45854.48293981481</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5344,7 +5344,7 @@
         <v>44321.3083449074</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         <v>45602.38179398148</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5458,7 +5458,7 @@
         <v>45142.30226851852</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5515,7 +5515,7 @@
         <v>45735.37274305556</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         <v>45860</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>45596.48508101852</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5686,7 +5686,7 @@
         <v>45670</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>44316.41503472222</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>45868.67938657408</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>45923.46953703704</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>45923.46587962963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>45868.68178240741</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>45198.6809375</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>45874.62365740741</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>45484</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>45882</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         <v>45881</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>45882</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>45933.66196759259</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>45938.50790509259</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>45943.49165509259</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>45943.48703703703</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>45946.68842592592</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>45950.44516203704</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>45028.69456018518</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>45167</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>45167</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>45957.46645833334</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>45369.34828703704</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>45957.46996527778</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>45960.58104166666</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>45267.42585648148</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
         <v>44957.59467592592</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>45161</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>45000.35256944445</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>45615.62634259259</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>45557.69868055556</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>45349</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>44342</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>45993.67202546296</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>46042.67932870371</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>45229</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>45665</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>45642.39239583333</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>45615.6309837963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>45198.69354166667</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>46056.62666666666</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>45390</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>46056</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>45643.51706018519</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>46019.86751157408</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>45237.47695601852</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44894</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44697.66332175926</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44963.37827546296</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44364.53988425926</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44571</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44745</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44508.36662037037</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44951</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44963.37232638889</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>45010</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44616.47766203704</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44537.63103009259</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>45621.32651620371</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>44614</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>45009</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>44315</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>45167</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>45146</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>44606.63405092592</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>45091</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>45582.30826388889</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9530,7 +9530,7 @@
         <v>44293</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9587,7 +9587,7 @@
         <v>45113.48916666667</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9644,7 +9644,7 @@
         <v>44980</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9701,7 +9701,7 @@
         <v>45699.63719907407</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9758,7 +9758,7 @@
         <v>44560</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9815,7 +9815,7 @@
         <v>45485.48961805556</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>45729</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>45266.51587962963</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>45553.51288194444</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10043,7 +10043,7 @@
         <v>45470</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
         <v>45538.29486111111</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10162,7 +10162,7 @@
         <v>45771</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10219,7 +10219,7 @@
         <v>45351</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10276,7 +10276,7 @@
         <v>45643.51864583333</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10333,7 +10333,7 @@
         <v>45797.63533564815</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10390,7 +10390,7 @@
         <v>45799.67575231481</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10447,7 +10447,7 @@
         <v>45799.31555555556</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
